--- a/name/vnindex/20230208/VNINDEX_HOSE_5p_20230208.xlsx
+++ b/name/vnindex/20230208/VNINDEX_HOSE_5p_20230208.xlsx
@@ -466,25 +466,25 @@
         <v>2118200</v>
       </c>
       <c r="E2">
-        <v>24520923000</v>
+        <v>22803642000</v>
       </c>
       <c r="F2">
-        <v>30945221000</v>
+        <v>29563703900</v>
       </c>
       <c r="G2">
-        <v>40076662000</v>
+        <v>38320919500</v>
       </c>
       <c r="H2">
         <v>5899900</v>
       </c>
       <c r="I2">
-        <v>95542806000</v>
+        <v>90688265400</v>
       </c>
       <c r="J2" t="str">
         <v>2023-02-08T09:14:00.000Z</v>
       </c>
       <c r="K2">
-        <v>95542806000</v>
+        <v>90688265400</v>
       </c>
       <c r="L2">
         <v>5899900</v>
@@ -493,13 +493,13 @@
         <v>1166300</v>
       </c>
       <c r="N2">
-        <v>6424298000</v>
+        <v>6760061900</v>
       </c>
       <c r="O2">
         <v>1166300</v>
       </c>
       <c r="P2">
-        <v>6424298000</v>
+        <v>6760061900</v>
       </c>
     </row>
     <row r="3">
@@ -516,25 +516,25 @@
         <v>17900</v>
       </c>
       <c r="E3">
-        <v>18501978000</v>
+        <v>18166214100</v>
       </c>
       <c r="F3">
-        <v>40803311000</v>
+        <v>34654166300</v>
       </c>
       <c r="G3">
-        <v>157016000</v>
+        <v>143030000</v>
       </c>
       <c r="H3">
         <v>3568300</v>
       </c>
       <c r="I3">
-        <v>59462305000</v>
+        <v>52963410400</v>
       </c>
       <c r="J3" t="str">
         <v>2023-02-08T09:16:00.000Z</v>
       </c>
       <c r="K3">
-        <v>155005111000</v>
+        <v>143651675800</v>
       </c>
       <c r="L3">
         <v>9468200</v>
@@ -543,13 +543,13 @@
         <v>1264600</v>
       </c>
       <c r="N3">
-        <v>22301333000</v>
+        <v>16487952200</v>
       </c>
       <c r="O3">
         <v>2430900</v>
       </c>
       <c r="P3">
-        <v>28725631000</v>
+        <v>23248014100</v>
       </c>
     </row>
     <row r="4">
@@ -566,10 +566,10 @@
         <v>4800</v>
       </c>
       <c r="E4">
-        <v>25375045000</v>
+        <v>24714206500</v>
       </c>
       <c r="F4">
-        <v>28175051000</v>
+        <v>24530798900</v>
       </c>
       <c r="G4">
         <v>65967000</v>
@@ -578,13 +578,13 @@
         <v>3116000</v>
       </c>
       <c r="I4">
-        <v>53616063000</v>
+        <v>49310972400</v>
       </c>
       <c r="J4" t="str">
         <v>2023-02-08T09:18:00.000Z</v>
       </c>
       <c r="K4">
-        <v>208621174000</v>
+        <v>192962648200</v>
       </c>
       <c r="L4">
         <v>12584200</v>
@@ -593,13 +593,13 @@
         <v>58600</v>
       </c>
       <c r="N4">
-        <v>2800006000</v>
+        <v>-183407600</v>
       </c>
       <c r="O4">
         <v>2489500</v>
       </c>
       <c r="P4">
-        <v>31525637000</v>
+        <v>23064606500</v>
       </c>
     </row>
     <row r="5">
@@ -616,10 +616,10 @@
         <v>4600</v>
       </c>
       <c r="E5">
-        <v>28106835000</v>
+        <v>25467077400</v>
       </c>
       <c r="F5">
-        <v>20969953000</v>
+        <v>18781843300</v>
       </c>
       <c r="G5">
         <v>67870000</v>
@@ -628,13 +628,13 @@
         <v>2992400</v>
       </c>
       <c r="I5">
-        <v>49144658000</v>
+        <v>44316790700</v>
       </c>
       <c r="J5" t="str">
         <v>2023-02-08T09:20:00.000Z</v>
       </c>
       <c r="K5">
-        <v>257765832000</v>
+        <v>237279438900</v>
       </c>
       <c r="L5">
         <v>15576600</v>
@@ -643,13 +643,13 @@
         <v>-321000</v>
       </c>
       <c r="N5">
-        <v>-7136882000</v>
+        <v>-6685234100</v>
       </c>
       <c r="O5">
         <v>2168500</v>
       </c>
       <c r="P5">
-        <v>24388755000</v>
+        <v>16379372400</v>
       </c>
     </row>
     <row r="6">
@@ -666,10 +666,10 @@
         <v>500</v>
       </c>
       <c r="E6">
-        <v>46087949000</v>
+        <v>44284654100</v>
       </c>
       <c r="F6">
-        <v>12728825000</v>
+        <v>12315338900</v>
       </c>
       <c r="G6">
         <v>6597000</v>
@@ -678,13 +678,13 @@
         <v>3673600</v>
       </c>
       <c r="I6">
-        <v>58823371000</v>
+        <v>56606590000</v>
       </c>
       <c r="J6" t="str">
         <v>2023-02-08T09:22:00.000Z</v>
       </c>
       <c r="K6">
-        <v>316589203000</v>
+        <v>293886028900</v>
       </c>
       <c r="L6">
         <v>19250200</v>
@@ -693,13 +693,13 @@
         <v>-2168100</v>
       </c>
       <c r="N6">
-        <v>-33359124000</v>
+        <v>-31969315200</v>
       </c>
       <c r="O6">
         <v>400</v>
       </c>
       <c r="P6">
-        <v>-8970369000</v>
+        <v>-15589942800</v>
       </c>
     </row>
     <row r="7">
@@ -716,10 +716,10 @@
         <v>500</v>
       </c>
       <c r="E7">
-        <v>40204748000</v>
+        <v>33287771900</v>
       </c>
       <c r="F7">
-        <v>16326639000</v>
+        <v>13772695500</v>
       </c>
       <c r="G7">
         <v>9375000</v>
@@ -728,13 +728,13 @@
         <v>3349500</v>
       </c>
       <c r="I7">
-        <v>56540762000</v>
+        <v>47069842400</v>
       </c>
       <c r="J7" t="str">
         <v>2023-02-08T09:24:00.000Z</v>
       </c>
       <c r="K7">
-        <v>373129965000</v>
+        <v>340955871300</v>
       </c>
       <c r="L7">
         <v>22599700</v>
@@ -743,13 +743,13 @@
         <v>-1562400</v>
       </c>
       <c r="N7">
-        <v>-23878109000</v>
+        <v>-19515076400</v>
       </c>
       <c r="O7">
         <v>-1562000</v>
       </c>
       <c r="P7">
-        <v>-32848478000</v>
+        <v>-35105019200</v>
       </c>
     </row>
     <row r="8">
@@ -766,10 +766,10 @@
         <v>2200</v>
       </c>
       <c r="E8">
-        <v>33229436000</v>
+        <v>31715051900</v>
       </c>
       <c r="F8">
-        <v>13365800000</v>
+        <v>12115451600</v>
       </c>
       <c r="G8">
         <v>26030000</v>
@@ -778,13 +778,13 @@
         <v>2994800</v>
       </c>
       <c r="I8">
-        <v>46621266000</v>
+        <v>43856533500</v>
       </c>
       <c r="J8" t="str">
         <v>2023-02-08T09:26:00.000Z</v>
       </c>
       <c r="K8">
-        <v>419751231000</v>
+        <v>384812404800</v>
       </c>
       <c r="L8">
         <v>25594500</v>
@@ -793,13 +793,13 @@
         <v>-1264000</v>
       </c>
       <c r="N8">
-        <v>-19863636000</v>
+        <v>-19599600300</v>
       </c>
       <c r="O8">
         <v>-2826000</v>
       </c>
       <c r="P8">
-        <v>-52712114000</v>
+        <v>-54704619500</v>
       </c>
     </row>
     <row r="9">
@@ -816,25 +816,25 @@
         <v>1800</v>
       </c>
       <c r="E9">
-        <v>24911058000</v>
+        <v>22464906600</v>
       </c>
       <c r="F9">
-        <v>18716176000</v>
+        <v>17505487900</v>
       </c>
       <c r="G9">
-        <v>73503000</v>
+        <v>31545000</v>
       </c>
       <c r="H9">
         <v>2484600</v>
       </c>
       <c r="I9">
-        <v>43700737000</v>
+        <v>40001939500</v>
       </c>
       <c r="J9" t="str">
         <v>2023-02-08T09:28:00.000Z</v>
       </c>
       <c r="K9">
-        <v>463451968000</v>
+        <v>424814344300</v>
       </c>
       <c r="L9">
         <v>28079100</v>
@@ -843,13 +843,13 @@
         <v>-452200</v>
       </c>
       <c r="N9">
-        <v>-6194882000</v>
+        <v>-4959418700</v>
       </c>
       <c r="O9">
         <v>-3278200</v>
       </c>
       <c r="P9">
-        <v>-58906996000</v>
+        <v>-59664038200</v>
       </c>
     </row>
     <row r="10">
@@ -866,10 +866,10 @@
         <v>4000</v>
       </c>
       <c r="E10">
-        <v>14084560000</v>
+        <v>13142602900</v>
       </c>
       <c r="F10">
-        <v>21747830000</v>
+        <v>20321757500</v>
       </c>
       <c r="G10">
         <v>49937000</v>
@@ -878,13 +878,13 @@
         <v>2309000</v>
       </c>
       <c r="I10">
-        <v>35882327000</v>
+        <v>33514297400</v>
       </c>
       <c r="J10" t="str">
         <v>2023-02-08T09:30:00.000Z</v>
       </c>
       <c r="K10">
-        <v>499334295000</v>
+        <v>458328641700</v>
       </c>
       <c r="L10">
         <v>30388100</v>
@@ -893,13 +893,13 @@
         <v>516600</v>
       </c>
       <c r="N10">
-        <v>7663270000</v>
+        <v>7179154600</v>
       </c>
       <c r="O10">
         <v>-2761600</v>
       </c>
       <c r="P10">
-        <v>-51243726000</v>
+        <v>-52484883600</v>
       </c>
     </row>
     <row r="11">
@@ -916,10 +916,10 @@
         <v>100</v>
       </c>
       <c r="E11">
-        <v>17668770000</v>
+        <v>16555684200</v>
       </c>
       <c r="F11">
-        <v>21676505000</v>
+        <v>18957127100</v>
       </c>
       <c r="G11">
         <v>434000</v>
@@ -928,13 +928,13 @@
         <v>2470100</v>
       </c>
       <c r="I11">
-        <v>39345709000</v>
+        <v>35513245300</v>
       </c>
       <c r="J11" t="str">
         <v>2023-02-08T09:32:00.000Z</v>
       </c>
       <c r="K11">
-        <v>538680004000</v>
+        <v>493841887000</v>
       </c>
       <c r="L11">
         <v>32858200</v>
@@ -943,13 +943,13 @@
         <v>599800</v>
       </c>
       <c r="N11">
-        <v>4007735000</v>
+        <v>2401442900</v>
       </c>
       <c r="O11">
         <v>-2161800</v>
       </c>
       <c r="P11">
-        <v>-47235991000</v>
+        <v>-50083440700</v>
       </c>
     </row>
     <row r="12">
@@ -966,10 +966,10 @@
         <v>1300</v>
       </c>
       <c r="E12">
-        <v>11834835000</v>
+        <v>10617853200</v>
       </c>
       <c r="F12">
-        <v>18720303000</v>
+        <v>18419304300</v>
       </c>
       <c r="G12">
         <v>7076000</v>
@@ -978,13 +978,13 @@
         <v>2261600</v>
       </c>
       <c r="I12">
-        <v>30562214000</v>
+        <v>29044233500</v>
       </c>
       <c r="J12" t="str">
         <v>2023-02-08T09:34:00.000Z</v>
       </c>
       <c r="K12">
-        <v>569242218000</v>
+        <v>522886120500</v>
       </c>
       <c r="L12">
         <v>35119800</v>
@@ -993,13 +993,13 @@
         <v>644900</v>
       </c>
       <c r="N12">
-        <v>6885468000</v>
+        <v>7801451100</v>
       </c>
       <c r="O12">
         <v>-1516900</v>
       </c>
       <c r="P12">
-        <v>-40350523000</v>
+        <v>-42281989600</v>
       </c>
     </row>
     <row r="13">
@@ -1016,10 +1016,10 @@
         <v>10600</v>
       </c>
       <c r="E13">
-        <v>14652373000</v>
+        <v>12914113000</v>
       </c>
       <c r="F13">
-        <v>17956221000</v>
+        <v>17012365800</v>
       </c>
       <c r="G13">
         <v>694274000</v>
@@ -1028,13 +1028,13 @@
         <v>2210500</v>
       </c>
       <c r="I13">
-        <v>33302868000</v>
+        <v>30620752800</v>
       </c>
       <c r="J13" t="str">
         <v>2023-02-08T09:36:00.000Z</v>
       </c>
       <c r="K13">
-        <v>602545086000</v>
+        <v>553506873300</v>
       </c>
       <c r="L13">
         <v>37330300</v>
@@ -1043,13 +1043,13 @@
         <v>-8100</v>
       </c>
       <c r="N13">
-        <v>3303848000</v>
+        <v>4098252800</v>
       </c>
       <c r="O13">
         <v>-1525000</v>
       </c>
       <c r="P13">
-        <v>-37046675000</v>
+        <v>-38183736800</v>
       </c>
     </row>
     <row r="14">
@@ -1066,10 +1066,10 @@
         <v>5000</v>
       </c>
       <c r="E14">
-        <v>20384871000</v>
+        <v>18412545300</v>
       </c>
       <c r="F14">
-        <v>19887853000</v>
+        <v>18046696000</v>
       </c>
       <c r="G14">
         <v>34500000</v>
@@ -1078,13 +1078,13 @@
         <v>2158800</v>
       </c>
       <c r="I14">
-        <v>40307224000</v>
+        <v>36493741300</v>
       </c>
       <c r="J14" t="str">
         <v>2023-02-08T09:38:00.000Z</v>
       </c>
       <c r="K14">
-        <v>642852310000</v>
+        <v>590000614600</v>
       </c>
       <c r="L14">
         <v>39489100</v>
@@ -1093,13 +1093,13 @@
         <v>-348400</v>
       </c>
       <c r="N14">
-        <v>-497018000</v>
+        <v>-365849300</v>
       </c>
       <c r="O14">
         <v>-1873400</v>
       </c>
       <c r="P14">
-        <v>-37543693000</v>
+        <v>-38549586100</v>
       </c>
     </row>
     <row r="15">
@@ -1116,10 +1116,10 @@
         <v>900</v>
       </c>
       <c r="E15">
-        <v>14753950000</v>
+        <v>14243760700</v>
       </c>
       <c r="F15">
-        <v>14861332000</v>
+        <v>14086707400</v>
       </c>
       <c r="G15">
         <v>75970000</v>
@@ -1128,13 +1128,13 @@
         <v>1910700</v>
       </c>
       <c r="I15">
-        <v>29691252000</v>
+        <v>28406438100</v>
       </c>
       <c r="J15" t="str">
         <v>2023-02-08T09:40:00.000Z</v>
       </c>
       <c r="K15">
-        <v>672543562000</v>
+        <v>618407052700</v>
       </c>
       <c r="L15">
         <v>41399800</v>
@@ -1143,13 +1143,13 @@
         <v>-72400</v>
       </c>
       <c r="N15">
-        <v>107382000</v>
+        <v>-157053300</v>
       </c>
       <c r="O15">
         <v>-1945800</v>
       </c>
       <c r="P15">
-        <v>-37436311000</v>
+        <v>-38706639400</v>
       </c>
     </row>
     <row r="16">
@@ -1166,10 +1166,10 @@
         <v>1000</v>
       </c>
       <c r="E16">
-        <v>14842710000</v>
+        <v>13844409300</v>
       </c>
       <c r="F16">
-        <v>19971836000</v>
+        <v>19095013700</v>
       </c>
       <c r="G16">
         <v>10050000</v>
@@ -1178,13 +1178,13 @@
         <v>2192300</v>
       </c>
       <c r="I16">
-        <v>34824596000</v>
+        <v>32949473000</v>
       </c>
       <c r="J16" t="str">
         <v>2023-02-08T09:42:00.000Z</v>
       </c>
       <c r="K16">
-        <v>707368158000</v>
+        <v>651356525700</v>
       </c>
       <c r="L16">
         <v>43592100</v>
@@ -1193,13 +1193,13 @@
         <v>235500</v>
       </c>
       <c r="N16">
-        <v>5129126000</v>
+        <v>5250604400</v>
       </c>
       <c r="O16">
         <v>-1710300</v>
       </c>
       <c r="P16">
-        <v>-32307185000</v>
+        <v>-33456035000</v>
       </c>
     </row>
     <row r="17">
@@ -1216,25 +1216,25 @@
         <v>900</v>
       </c>
       <c r="E17">
-        <v>15284240000</v>
+        <v>13926898700</v>
       </c>
       <c r="F17">
-        <v>14590991000</v>
+        <v>13683399500</v>
       </c>
       <c r="G17">
-        <v>13040000</v>
+        <v>3849200</v>
       </c>
       <c r="H17">
         <v>1932900</v>
       </c>
       <c r="I17">
-        <v>29888271000</v>
+        <v>27614147400</v>
       </c>
       <c r="J17" t="str">
         <v>2023-02-08T09:44:00.000Z</v>
       </c>
       <c r="K17">
-        <v>737256429000</v>
+        <v>678970673100</v>
       </c>
       <c r="L17">
         <v>45525000</v>
@@ -1243,13 +1243,13 @@
         <v>-318400</v>
       </c>
       <c r="N17">
-        <v>-693249000</v>
+        <v>-243499200</v>
       </c>
       <c r="O17">
         <v>-2028700</v>
       </c>
       <c r="P17">
-        <v>-33000434000</v>
+        <v>-33699534200</v>
       </c>
     </row>
     <row r="18">
@@ -1266,25 +1266,25 @@
         <v>1700</v>
       </c>
       <c r="E18">
-        <v>18626290000</v>
+        <v>16922295700</v>
       </c>
       <c r="F18">
-        <v>12257511000</v>
+        <v>11356812600</v>
       </c>
       <c r="G18">
-        <v>72538000</v>
+        <v>610000</v>
       </c>
       <c r="H18">
         <v>1859000</v>
       </c>
       <c r="I18">
-        <v>30956339000</v>
+        <v>28279718300</v>
       </c>
       <c r="J18" t="str">
         <v>2023-02-08T09:46:00.000Z</v>
       </c>
       <c r="K18">
-        <v>768212768000</v>
+        <v>707250391400</v>
       </c>
       <c r="L18">
         <v>47384000</v>
@@ -1293,13 +1293,13 @@
         <v>-301900</v>
       </c>
       <c r="N18">
-        <v>-6368779000</v>
+        <v>-5565483100</v>
       </c>
       <c r="O18">
         <v>-2330600</v>
       </c>
       <c r="P18">
-        <v>-39369213000</v>
+        <v>-39265017300</v>
       </c>
     </row>
     <row r="19">
@@ -1316,10 +1316,10 @@
         <v>300</v>
       </c>
       <c r="E19">
-        <v>26670385000</v>
+        <v>25503952600</v>
       </c>
       <c r="F19">
-        <v>13294120000</v>
+        <v>13143770500</v>
       </c>
       <c r="G19">
         <v>4322000</v>
@@ -1328,13 +1328,13 @@
         <v>2268500</v>
       </c>
       <c r="I19">
-        <v>39968827000</v>
+        <v>38652045100</v>
       </c>
       <c r="J19" t="str">
         <v>2023-02-08T09:48:00.000Z</v>
       </c>
       <c r="K19">
-        <v>808181595000</v>
+        <v>745902436500</v>
       </c>
       <c r="L19">
         <v>49652500</v>
@@ -1343,13 +1343,13 @@
         <v>-631200</v>
       </c>
       <c r="N19">
-        <v>-13376265000</v>
+        <v>-12360182100</v>
       </c>
       <c r="O19">
         <v>-2961800</v>
       </c>
       <c r="P19">
-        <v>-52745478000</v>
+        <v>-51625199400</v>
       </c>
     </row>
     <row r="20">
@@ -1366,10 +1366,10 @@
         <v>2800</v>
       </c>
       <c r="E20">
-        <v>20864076000</v>
+        <v>20469271200</v>
       </c>
       <c r="F20">
-        <v>10086827000</v>
+        <v>10033280600</v>
       </c>
       <c r="G20">
         <v>21310000</v>
@@ -1378,13 +1378,13 @@
         <v>1914200</v>
       </c>
       <c r="I20">
-        <v>30972213000</v>
+        <v>30523861800</v>
       </c>
       <c r="J20" t="str">
         <v>2023-02-08T09:50:00.000Z</v>
       </c>
       <c r="K20">
-        <v>839153808000</v>
+        <v>776426298300</v>
       </c>
       <c r="L20">
         <v>51566700</v>
@@ -1393,13 +1393,13 @@
         <v>-571200</v>
       </c>
       <c r="N20">
-        <v>-10777249000</v>
+        <v>-10435990600</v>
       </c>
       <c r="O20">
         <v>-3533000</v>
       </c>
       <c r="P20">
-        <v>-63522727000</v>
+        <v>-62061190000</v>
       </c>
     </row>
     <row r="21">
@@ -1416,10 +1416,10 @@
         <v>100</v>
       </c>
       <c r="E21">
-        <v>17873831000</v>
+        <v>16518287900</v>
       </c>
       <c r="F21">
-        <v>23640370000</v>
+        <v>21413199400</v>
       </c>
       <c r="G21">
         <v>919000</v>
@@ -1428,13 +1428,13 @@
         <v>2119400</v>
       </c>
       <c r="I21">
-        <v>41515120000</v>
+        <v>37932406300</v>
       </c>
       <c r="J21" t="str">
         <v>2023-02-08T09:52:00.000Z</v>
       </c>
       <c r="K21">
-        <v>880668928000</v>
+        <v>814358704600</v>
       </c>
       <c r="L21">
         <v>53686100</v>
@@ -1443,13 +1443,13 @@
         <v>70900</v>
       </c>
       <c r="N21">
-        <v>5766539000</v>
+        <v>4894911500</v>
       </c>
       <c r="O21">
         <v>-3462100</v>
       </c>
       <c r="P21">
-        <v>-57756188000</v>
+        <v>-57166278500</v>
       </c>
     </row>
     <row r="22">
@@ -1466,10 +1466,10 @@
         <v>3400</v>
       </c>
       <c r="E22">
-        <v>13294033000</v>
+        <v>12923204200</v>
       </c>
       <c r="F22">
-        <v>23976392000</v>
+        <v>20876195300</v>
       </c>
       <c r="G22">
         <v>225381000</v>
@@ -1478,13 +1478,13 @@
         <v>2139700</v>
       </c>
       <c r="I22">
-        <v>37495806000</v>
+        <v>34024780500</v>
       </c>
       <c r="J22" t="str">
         <v>2023-02-08T09:54:00.000Z</v>
       </c>
       <c r="K22">
-        <v>918164734000</v>
+        <v>848383485100</v>
       </c>
       <c r="L22">
         <v>55825800</v>
@@ -1493,13 +1493,13 @@
         <v>546300</v>
       </c>
       <c r="N22">
-        <v>10682359000</v>
+        <v>7952991100</v>
       </c>
       <c r="O22">
         <v>-2915800</v>
       </c>
       <c r="P22">
-        <v>-47073829000</v>
+        <v>-49213287400</v>
       </c>
     </row>
     <row r="23">
@@ -1516,10 +1516,10 @@
         <v>9200</v>
       </c>
       <c r="E23">
-        <v>12065383000</v>
+        <v>11656792000</v>
       </c>
       <c r="F23">
-        <v>35184964000</v>
+        <v>32215936000</v>
       </c>
       <c r="G23">
         <v>225852000</v>
@@ -1528,13 +1528,13 @@
         <v>2671100</v>
       </c>
       <c r="I23">
-        <v>47476199000</v>
+        <v>44098580000</v>
       </c>
       <c r="J23" t="str">
         <v>2023-02-08T09:56:00.000Z</v>
       </c>
       <c r="K23">
-        <v>965640933000</v>
+        <v>892482065100</v>
       </c>
       <c r="L23">
         <v>58496900</v>
@@ -1543,13 +1543,13 @@
         <v>1212300</v>
       </c>
       <c r="N23">
-        <v>23119581000</v>
+        <v>20559144000</v>
       </c>
       <c r="O23">
         <v>-1703500</v>
       </c>
       <c r="P23">
-        <v>-23954248000</v>
+        <v>-28654143400</v>
       </c>
     </row>
     <row r="24">
@@ -1566,25 +1566,25 @@
         <v>11600</v>
       </c>
       <c r="E24">
-        <v>16202623000</v>
+        <v>13172855800</v>
       </c>
       <c r="F24">
-        <v>26969428000</v>
+        <v>21373030000</v>
       </c>
       <c r="G24">
-        <v>163150000</v>
+        <v>157655500</v>
       </c>
       <c r="H24">
         <v>2709600</v>
       </c>
       <c r="I24">
-        <v>43335201000</v>
+        <v>34703541300</v>
       </c>
       <c r="J24" t="str">
         <v>2023-02-08T09:58:00.000Z</v>
       </c>
       <c r="K24">
-        <v>1008976134000</v>
+        <v>927185606400</v>
       </c>
       <c r="L24">
         <v>61206500</v>
@@ -1593,13 +1593,13 @@
         <v>505000</v>
       </c>
       <c r="N24">
-        <v>10766805000</v>
+        <v>8200174200</v>
       </c>
       <c r="O24">
         <v>-1198500</v>
       </c>
       <c r="P24">
-        <v>-13187443000</v>
+        <v>-20453969200</v>
       </c>
     </row>
     <row r="25">
@@ -1616,10 +1616,10 @@
         <v>0</v>
       </c>
       <c r="E25">
-        <v>9238796000</v>
+        <v>8519715800</v>
       </c>
       <c r="F25">
-        <v>29747105000</v>
+        <v>25537219100</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1628,13 +1628,13 @@
         <v>2179600</v>
       </c>
       <c r="I25">
-        <v>38985901000</v>
+        <v>34056934900</v>
       </c>
       <c r="J25" t="str">
         <v>2023-02-08T10:00:00.000Z</v>
       </c>
       <c r="K25">
-        <v>1047962035000</v>
+        <v>961242541300</v>
       </c>
       <c r="L25">
         <v>63386100</v>
@@ -1643,13 +1643,13 @@
         <v>1034600</v>
       </c>
       <c r="N25">
-        <v>20508309000</v>
+        <v>17017503300</v>
       </c>
       <c r="O25">
         <v>-163900</v>
       </c>
       <c r="P25">
-        <v>7320866000</v>
+        <v>-3436465900</v>
       </c>
     </row>
     <row r="26">
@@ -1666,10 +1666,10 @@
         <v>3400</v>
       </c>
       <c r="E26">
-        <v>8138520000</v>
+        <v>7082776800</v>
       </c>
       <c r="F26">
-        <v>23736156000</v>
+        <v>21252242400</v>
       </c>
       <c r="G26">
         <v>34170000</v>
@@ -1678,13 +1678,13 @@
         <v>1990300</v>
       </c>
       <c r="I26">
-        <v>31908846000</v>
+        <v>28369189200</v>
       </c>
       <c r="J26" t="str">
         <v>2023-02-08T10:02:00.000Z</v>
       </c>
       <c r="K26">
-        <v>1079870881000</v>
+        <v>989611730500</v>
       </c>
       <c r="L26">
         <v>65376400</v>
@@ -1693,13 +1693,13 @@
         <v>969500</v>
       </c>
       <c r="N26">
-        <v>15597636000</v>
+        <v>14169465600</v>
       </c>
       <c r="O26">
         <v>805600</v>
       </c>
       <c r="P26">
-        <v>22918502000</v>
+        <v>10732999700</v>
       </c>
     </row>
     <row r="27">
@@ -1716,10 +1716,10 @@
         <v>0</v>
       </c>
       <c r="E27">
-        <v>20820477000</v>
+        <v>15370732200</v>
       </c>
       <c r="F27">
-        <v>16888010000</v>
+        <v>15509190200</v>
       </c>
       <c r="G27">
         <v>0</v>
@@ -1728,13 +1728,13 @@
         <v>2071900</v>
       </c>
       <c r="I27">
-        <v>37708487000</v>
+        <v>30879922400</v>
       </c>
       <c r="J27" t="str">
         <v>2023-02-08T10:04:00.000Z</v>
       </c>
       <c r="K27">
-        <v>1117579368000</v>
+        <v>1020491652900</v>
       </c>
       <c r="L27">
         <v>67448300</v>
@@ -1743,13 +1743,13 @@
         <v>-189100</v>
       </c>
       <c r="N27">
-        <v>-3932467000</v>
+        <v>138458000</v>
       </c>
       <c r="O27">
         <v>616500</v>
       </c>
       <c r="P27">
-        <v>18986035000</v>
+        <v>10871457700</v>
       </c>
     </row>
     <row r="28">
@@ -1766,10 +1766,10 @@
         <v>400</v>
       </c>
       <c r="E28">
-        <v>12782338000</v>
+        <v>12348871900</v>
       </c>
       <c r="F28">
-        <v>11754921000</v>
+        <v>11017259400</v>
       </c>
       <c r="G28">
         <v>7240000.000000001</v>
@@ -1778,13 +1778,13 @@
         <v>1610900</v>
       </c>
       <c r="I28">
-        <v>24544499000</v>
+        <v>23373371300</v>
       </c>
       <c r="J28" t="str">
         <v>2023-02-08T10:06:00.000Z</v>
       </c>
       <c r="K28">
-        <v>1142123867000</v>
+        <v>1043865024200</v>
       </c>
       <c r="L28">
         <v>69059200</v>
@@ -1793,13 +1793,13 @@
         <v>106300</v>
       </c>
       <c r="N28">
-        <v>-1027417000</v>
+        <v>-1331612500</v>
       </c>
       <c r="O28">
         <v>722800</v>
       </c>
       <c r="P28">
-        <v>17958618000</v>
+        <v>9539845200</v>
       </c>
     </row>
     <row r="29">
@@ -1816,10 +1816,10 @@
         <v>1500</v>
       </c>
       <c r="E29">
-        <v>13754115000</v>
+        <v>13216553100</v>
       </c>
       <c r="F29">
-        <v>14878212000</v>
+        <v>10838755500</v>
       </c>
       <c r="G29">
         <v>121025000</v>
@@ -1828,13 +1828,13 @@
         <v>1577100</v>
       </c>
       <c r="I29">
-        <v>28753352000</v>
+        <v>24176333600</v>
       </c>
       <c r="J29" t="str">
         <v>2023-02-08T10:08:00.000Z</v>
       </c>
       <c r="K29">
-        <v>1170877219000</v>
+        <v>1068041357800</v>
       </c>
       <c r="L29">
         <v>70636300</v>
@@ -1843,13 +1843,13 @@
         <v>28400</v>
       </c>
       <c r="N29">
-        <v>1124097000</v>
+        <v>-2377797600</v>
       </c>
       <c r="O29">
         <v>751200</v>
       </c>
       <c r="P29">
-        <v>19082715000</v>
+        <v>7162047600</v>
       </c>
     </row>
     <row r="30">
@@ -1866,25 +1866,25 @@
         <v>600</v>
       </c>
       <c r="E30">
-        <v>19788728000</v>
+        <v>18299418800</v>
       </c>
       <c r="F30">
-        <v>14638224000</v>
+        <v>11650414800</v>
       </c>
       <c r="G30">
-        <v>35500000</v>
+        <v>27907600</v>
       </c>
       <c r="H30">
         <v>1821700</v>
       </c>
       <c r="I30">
-        <v>34462452000</v>
+        <v>29977741200</v>
       </c>
       <c r="J30" t="str">
         <v>2023-02-08T10:10:00.000Z</v>
       </c>
       <c r="K30">
-        <v>1205339671000</v>
+        <v>1098019099000</v>
       </c>
       <c r="L30">
         <v>72458000</v>
@@ -1893,13 +1893,13 @@
         <v>-333300</v>
       </c>
       <c r="N30">
-        <v>-5150504000</v>
+        <v>-6649004000</v>
       </c>
       <c r="O30">
         <v>417900</v>
       </c>
       <c r="P30">
-        <v>13932211000</v>
+        <v>513043600</v>
       </c>
     </row>
     <row r="31">
@@ -1916,10 +1916,10 @@
         <v>7400</v>
       </c>
       <c r="E31">
-        <v>22211415000</v>
+        <v>19401627600</v>
       </c>
       <c r="F31">
-        <v>12282472000</v>
+        <v>11841213700</v>
       </c>
       <c r="G31">
         <v>54199000</v>
@@ -1928,13 +1928,13 @@
         <v>1913200</v>
       </c>
       <c r="I31">
-        <v>34548086000</v>
+        <v>31297040300</v>
       </c>
       <c r="J31" t="str">
         <v>2023-02-08T10:12:00.000Z</v>
       </c>
       <c r="K31">
-        <v>1239887757000</v>
+        <v>1129316139300</v>
       </c>
       <c r="L31">
         <v>74371200</v>
@@ -1943,13 +1943,13 @@
         <v>-534000</v>
       </c>
       <c r="N31">
-        <v>-9928943000</v>
+        <v>-7560413900</v>
       </c>
       <c r="O31">
         <v>-116100</v>
       </c>
       <c r="P31">
-        <v>4003268000</v>
+        <v>-7047370300</v>
       </c>
     </row>
     <row r="32">
@@ -1966,10 +1966,10 @@
         <v>43200</v>
       </c>
       <c r="E32">
-        <v>21504298000</v>
+        <v>18678027100</v>
       </c>
       <c r="F32">
-        <v>11957923000</v>
+        <v>11099582200</v>
       </c>
       <c r="G32">
         <v>1109355000</v>
@@ -1978,13 +1978,13 @@
         <v>1935500</v>
       </c>
       <c r="I32">
-        <v>34571576000</v>
+        <v>30886964300</v>
       </c>
       <c r="J32" t="str">
         <v>2023-02-08T10:14:00.000Z</v>
       </c>
       <c r="K32">
-        <v>1274459333000</v>
+        <v>1160203103600</v>
       </c>
       <c r="L32">
         <v>76306700</v>
@@ -1993,13 +1993,13 @@
         <v>-671100</v>
       </c>
       <c r="N32">
-        <v>-9546375000</v>
+        <v>-7578444900</v>
       </c>
       <c r="O32">
         <v>-787200</v>
       </c>
       <c r="P32">
-        <v>-5543107000</v>
+        <v>-14625815200</v>
       </c>
     </row>
     <row r="33">
@@ -2016,10 +2016,10 @@
         <v>1200</v>
       </c>
       <c r="E33">
-        <v>29546240000</v>
+        <v>28239248300</v>
       </c>
       <c r="F33">
-        <v>15250829000</v>
+        <v>13521560000</v>
       </c>
       <c r="G33">
         <v>8760000</v>
@@ -2028,13 +2028,13 @@
         <v>2247600</v>
       </c>
       <c r="I33">
-        <v>44805829000</v>
+        <v>41769568300</v>
       </c>
       <c r="J33" t="str">
         <v>2023-02-08T10:16:00.000Z</v>
       </c>
       <c r="K33">
-        <v>1319265162000</v>
+        <v>1201972671900</v>
       </c>
       <c r="L33">
         <v>78554300</v>
@@ -2043,13 +2043,13 @@
         <v>-785600</v>
       </c>
       <c r="N33">
-        <v>-14295411000</v>
+        <v>-14717688300</v>
       </c>
       <c r="O33">
         <v>-1572800</v>
       </c>
       <c r="P33">
-        <v>-19838518000</v>
+        <v>-29343503500</v>
       </c>
     </row>
     <row r="34">
@@ -2066,10 +2066,10 @@
         <v>500</v>
       </c>
       <c r="E34">
-        <v>16245225000</v>
+        <v>15383088000</v>
       </c>
       <c r="F34">
-        <v>29658533000</v>
+        <v>26493601100</v>
       </c>
       <c r="G34">
         <v>21200000</v>
@@ -2078,13 +2078,13 @@
         <v>2248000</v>
       </c>
       <c r="I34">
-        <v>45924958000</v>
+        <v>41897889100</v>
       </c>
       <c r="J34" t="str">
         <v>2023-02-08T10:18:00.000Z</v>
       </c>
       <c r="K34">
-        <v>1365190120000</v>
+        <v>1243870561000</v>
       </c>
       <c r="L34">
         <v>80802300</v>
@@ -2093,13 +2093,13 @@
         <v>343900</v>
       </c>
       <c r="N34">
-        <v>13413308000</v>
+        <v>11110513100</v>
       </c>
       <c r="O34">
         <v>-1228900</v>
       </c>
       <c r="P34">
-        <v>-6425210000</v>
+        <v>-18232990400</v>
       </c>
     </row>
     <row r="35">
@@ -2116,10 +2116,10 @@
         <v>2500</v>
       </c>
       <c r="E35">
-        <v>13869596000</v>
+        <v>12875890700</v>
       </c>
       <c r="F35">
-        <v>20448354000</v>
+        <v>18832771200</v>
       </c>
       <c r="G35">
         <v>21050000</v>
@@ -2128,13 +2128,13 @@
         <v>1874400</v>
       </c>
       <c r="I35">
-        <v>34339000000</v>
+        <v>31729711900</v>
       </c>
       <c r="J35" t="str">
         <v>2023-02-08T10:20:00.000Z</v>
       </c>
       <c r="K35">
-        <v>1399529120000</v>
+        <v>1275600272900</v>
       </c>
       <c r="L35">
         <v>82676700</v>
@@ -2143,13 +2143,13 @@
         <v>313300</v>
       </c>
       <c r="N35">
-        <v>6578758000</v>
+        <v>5956880500</v>
       </c>
       <c r="O35">
         <v>-915600</v>
       </c>
       <c r="P35">
-        <v>153548000</v>
+        <v>-12276109900</v>
       </c>
     </row>
     <row r="36">
@@ -2166,10 +2166,10 @@
         <v>6000</v>
       </c>
       <c r="E36">
-        <v>11030632000</v>
+        <v>9496667500</v>
       </c>
       <c r="F36">
-        <v>36986379000</v>
+        <v>28189284900</v>
       </c>
       <c r="G36">
         <v>142200000</v>
@@ -2178,13 +2178,13 @@
         <v>2177600</v>
       </c>
       <c r="I36">
-        <v>48159211000</v>
+        <v>37828152400</v>
       </c>
       <c r="J36" t="str">
         <v>2023-02-08T10:22:00.000Z</v>
       </c>
       <c r="K36">
-        <v>1447688331000</v>
+        <v>1313428425300</v>
       </c>
       <c r="L36">
         <v>84854300</v>
@@ -2193,13 +2193,13 @@
         <v>659400</v>
       </c>
       <c r="N36">
-        <v>25955747000</v>
+        <v>18692617400</v>
       </c>
       <c r="O36">
         <v>-256200</v>
       </c>
       <c r="P36">
-        <v>26109295000</v>
+        <v>6416507500</v>
       </c>
     </row>
     <row r="37">
@@ -2216,10 +2216,10 @@
         <v>1800</v>
       </c>
       <c r="E37">
-        <v>11531466000</v>
+        <v>10700597700</v>
       </c>
       <c r="F37">
-        <v>31678458000</v>
+        <v>29068570500</v>
       </c>
       <c r="G37">
         <v>35385000</v>
@@ -2228,13 +2228,13 @@
         <v>2307100</v>
       </c>
       <c r="I37">
-        <v>43245309000</v>
+        <v>39804553200</v>
       </c>
       <c r="J37" t="str">
         <v>2023-02-08T10:24:00.000Z</v>
       </c>
       <c r="K37">
-        <v>1490933640000</v>
+        <v>1353232978500</v>
       </c>
       <c r="L37">
         <v>87161400</v>
@@ -2243,13 +2243,13 @@
         <v>1068300</v>
       </c>
       <c r="N37">
-        <v>20146992000</v>
+        <v>18367972800</v>
       </c>
       <c r="O37">
         <v>812100</v>
       </c>
       <c r="P37">
-        <v>46256287000</v>
+        <v>24784480300</v>
       </c>
     </row>
     <row r="38">
@@ -2266,10 +2266,10 @@
         <v>100</v>
       </c>
       <c r="E38">
-        <v>8637784000</v>
+        <v>8498123800</v>
       </c>
       <c r="F38">
-        <v>42251475000</v>
+        <v>36286645800</v>
       </c>
       <c r="G38">
         <v>433000</v>
@@ -2278,13 +2278,13 @@
         <v>2640800</v>
       </c>
       <c r="I38">
-        <v>50889692000</v>
+        <v>44785202600</v>
       </c>
       <c r="J38" t="str">
         <v>2023-02-08T10:26:00.000Z</v>
       </c>
       <c r="K38">
-        <v>1541823332000</v>
+        <v>1398018181100</v>
       </c>
       <c r="L38">
         <v>89802200</v>
@@ -2293,13 +2293,13 @@
         <v>1643100</v>
       </c>
       <c r="N38">
-        <v>33613691000</v>
+        <v>27788522000</v>
       </c>
       <c r="O38">
         <v>2455200</v>
       </c>
       <c r="P38">
-        <v>79869978000</v>
+        <v>52573002300</v>
       </c>
     </row>
     <row r="39">
@@ -2316,10 +2316,10 @@
         <v>1400</v>
       </c>
       <c r="E39">
-        <v>9738134000</v>
+        <v>8732340800</v>
       </c>
       <c r="F39">
-        <v>35494792000</v>
+        <v>31175715400</v>
       </c>
       <c r="G39">
         <v>16126000</v>
@@ -2328,13 +2328,13 @@
         <v>2287000</v>
       </c>
       <c r="I39">
-        <v>45249052000</v>
+        <v>39924182200</v>
       </c>
       <c r="J39" t="str">
         <v>2023-02-08T10:28:00.000Z</v>
       </c>
       <c r="K39">
-        <v>1587072384000</v>
+        <v>1437942363300</v>
       </c>
       <c r="L39">
         <v>92089200</v>
@@ -2343,13 +2343,13 @@
         <v>1145800</v>
       </c>
       <c r="N39">
-        <v>25756658000</v>
+        <v>22443374600</v>
       </c>
       <c r="O39">
         <v>3601000</v>
       </c>
       <c r="P39">
-        <v>105626636000</v>
+        <v>75016376900</v>
       </c>
     </row>
     <row r="40">
@@ -2366,10 +2366,10 @@
         <v>8300</v>
       </c>
       <c r="E40">
-        <v>11551572000</v>
+        <v>10220504400</v>
       </c>
       <c r="F40">
-        <v>25478832000</v>
+        <v>25166444700</v>
       </c>
       <c r="G40">
         <v>279080000</v>
@@ -2378,13 +2378,13 @@
         <v>1942300</v>
       </c>
       <c r="I40">
-        <v>37309484000</v>
+        <v>35666029100</v>
       </c>
       <c r="J40" t="str">
         <v>2023-02-08T10:30:00.000Z</v>
       </c>
       <c r="K40">
-        <v>1624381868000</v>
+        <v>1473608392400</v>
       </c>
       <c r="L40">
         <v>94031500</v>
@@ -2393,13 +2393,13 @@
         <v>839200</v>
       </c>
       <c r="N40">
-        <v>13927260000</v>
+        <v>14945940300</v>
       </c>
       <c r="O40">
         <v>4440200</v>
       </c>
       <c r="P40">
-        <v>119553896000</v>
+        <v>89962317200</v>
       </c>
     </row>
     <row r="41">
@@ -2416,10 +2416,10 @@
         <v>0</v>
       </c>
       <c r="E41">
-        <v>20238753000</v>
+        <v>19349842800</v>
       </c>
       <c r="F41">
-        <v>17807049000</v>
+        <v>17315141400</v>
       </c>
       <c r="G41">
         <v>0</v>
@@ -2428,13 +2428,13 @@
         <v>2004200</v>
       </c>
       <c r="I41">
-        <v>38045802000</v>
+        <v>36664984200</v>
       </c>
       <c r="J41" t="str">
         <v>2023-02-08T10:32:00.000Z</v>
       </c>
       <c r="K41">
-        <v>1662427670000</v>
+        <v>1510273376600</v>
       </c>
       <c r="L41">
         <v>96035700</v>
@@ -2443,13 +2443,13 @@
         <v>-211000</v>
       </c>
       <c r="N41">
-        <v>-2431704000</v>
+        <v>-2034701400</v>
       </c>
       <c r="O41">
         <v>4229200</v>
       </c>
       <c r="P41">
-        <v>117122192000</v>
+        <v>87927615800</v>
       </c>
     </row>
     <row r="42">
@@ -2466,10 +2466,10 @@
         <v>0</v>
       </c>
       <c r="E42">
-        <v>26674058000</v>
+        <v>24344989400</v>
       </c>
       <c r="F42">
-        <v>15546436000</v>
+        <v>15476106400</v>
       </c>
       <c r="G42">
         <v>0</v>
@@ -2478,13 +2478,13 @@
         <v>2313300</v>
       </c>
       <c r="I42">
-        <v>42220494000</v>
+        <v>39821095800</v>
       </c>
       <c r="J42" t="str">
         <v>2023-02-08T10:34:00.000Z</v>
       </c>
       <c r="K42">
-        <v>1704648164000</v>
+        <v>1550094472400</v>
       </c>
       <c r="L42">
         <v>98349000</v>
@@ -2493,13 +2493,13 @@
         <v>-794100</v>
       </c>
       <c r="N42">
-        <v>-11127622000</v>
+        <v>-8868883000</v>
       </c>
       <c r="O42">
         <v>3435100</v>
       </c>
       <c r="P42">
-        <v>105994570000</v>
+        <v>79058732800</v>
       </c>
     </row>
     <row r="43">
@@ -2516,10 +2516,10 @@
         <v>10600</v>
       </c>
       <c r="E43">
-        <v>19883978000</v>
+        <v>18708654500</v>
       </c>
       <c r="F43">
-        <v>12927422000</v>
+        <v>11016934400</v>
       </c>
       <c r="G43">
         <v>196464000</v>
@@ -2528,13 +2528,13 @@
         <v>1868000</v>
       </c>
       <c r="I43">
-        <v>33007864000</v>
+        <v>29922052900</v>
       </c>
       <c r="J43" t="str">
         <v>2023-02-08T10:36:00.000Z</v>
       </c>
       <c r="K43">
-        <v>1737656028000</v>
+        <v>1580016525300</v>
       </c>
       <c r="L43">
         <v>100217000</v>
@@ -2543,13 +2543,13 @@
         <v>-422600</v>
       </c>
       <c r="N43">
-        <v>-6956556000</v>
+        <v>-7691720100</v>
       </c>
       <c r="O43">
         <v>3012500</v>
       </c>
       <c r="P43">
-        <v>99038014000</v>
+        <v>71367012700</v>
       </c>
     </row>
     <row r="44">
@@ -2566,10 +2566,10 @@
         <v>2000</v>
       </c>
       <c r="E44">
-        <v>17291163000</v>
+        <v>17265388800</v>
       </c>
       <c r="F44">
-        <v>14511225000</v>
+        <v>12417420900</v>
       </c>
       <c r="G44">
         <v>62803000</v>
@@ -2578,13 +2578,13 @@
         <v>1662200</v>
       </c>
       <c r="I44">
-        <v>31865191000</v>
+        <v>29745612700</v>
       </c>
       <c r="J44" t="str">
         <v>2023-02-08T10:38:00.000Z</v>
       </c>
       <c r="K44">
-        <v>1769521219000</v>
+        <v>1609762138000</v>
       </c>
       <c r="L44">
         <v>101879200</v>
@@ -2593,13 +2593,13 @@
         <v>-311400</v>
       </c>
       <c r="N44">
-        <v>-2779938000</v>
+        <v>-4847967900</v>
       </c>
       <c r="O44">
         <v>2701100</v>
       </c>
       <c r="P44">
-        <v>96258076000</v>
+        <v>66519044800</v>
       </c>
     </row>
     <row r="45">
@@ -2616,10 +2616,10 @@
         <v>0</v>
       </c>
       <c r="E45">
-        <v>27723108000</v>
+        <v>27473158200</v>
       </c>
       <c r="F45">
-        <v>10716150000</v>
+        <v>9834432600</v>
       </c>
       <c r="G45">
         <v>0</v>
@@ -2628,13 +2628,13 @@
         <v>1929700</v>
       </c>
       <c r="I45">
-        <v>38439258000</v>
+        <v>37307590800</v>
       </c>
       <c r="J45" t="str">
         <v>2023-02-08T10:40:00.000Z</v>
       </c>
       <c r="K45">
-        <v>1807960477000</v>
+        <v>1647069728800</v>
       </c>
       <c r="L45">
         <v>103808900</v>
@@ -2643,13 +2643,13 @@
         <v>-891700</v>
       </c>
       <c r="N45">
-        <v>-17006958000</v>
+        <v>-17638725600</v>
       </c>
       <c r="O45">
         <v>1809400</v>
       </c>
       <c r="P45">
-        <v>79251118000</v>
+        <v>48880319200</v>
       </c>
     </row>
     <row r="46">
@@ -2666,10 +2666,10 @@
         <v>6100</v>
       </c>
       <c r="E46">
-        <v>27751468000</v>
+        <v>27113906200</v>
       </c>
       <c r="F46">
-        <v>25673158000</v>
+        <v>23202031600</v>
       </c>
       <c r="G46">
         <v>174530000</v>
@@ -2678,13 +2678,13 @@
         <v>2640600</v>
       </c>
       <c r="I46">
-        <v>53599156000</v>
+        <v>50490467800</v>
       </c>
       <c r="J46" t="str">
         <v>2023-02-08T10:42:00.000Z</v>
       </c>
       <c r="K46">
-        <v>1861559633000</v>
+        <v>1697560196600</v>
       </c>
       <c r="L46">
         <v>106449500</v>
@@ -2693,13 +2693,13 @@
         <v>-497300</v>
       </c>
       <c r="N46">
-        <v>-2078310000</v>
+        <v>-3911874600</v>
       </c>
       <c r="O46">
         <v>1312100</v>
       </c>
       <c r="P46">
-        <v>77172808000</v>
+        <v>44968444600</v>
       </c>
     </row>
     <row r="47">
@@ -2716,10 +2716,10 @@
         <v>1300</v>
       </c>
       <c r="E47">
-        <v>10746279000</v>
+        <v>10491633900</v>
       </c>
       <c r="F47">
-        <v>25320752000</v>
+        <v>23272602200</v>
       </c>
       <c r="G47">
         <v>26315000</v>
@@ -2728,13 +2728,13 @@
         <v>1675700</v>
       </c>
       <c r="I47">
-        <v>36093346000</v>
+        <v>33790551100</v>
       </c>
       <c r="J47" t="str">
         <v>2023-02-08T10:44:00.000Z</v>
       </c>
       <c r="K47">
-        <v>1897652979000</v>
+        <v>1731350747700</v>
       </c>
       <c r="L47">
         <v>108125200</v>
@@ -2743,13 +2743,13 @@
         <v>284000</v>
       </c>
       <c r="N47">
-        <v>14574473000</v>
+        <v>12780968300</v>
       </c>
       <c r="O47">
         <v>1596100</v>
       </c>
       <c r="P47">
-        <v>91747281000</v>
+        <v>57749412900</v>
       </c>
     </row>
     <row r="48">
@@ -2766,10 +2766,10 @@
         <v>100</v>
       </c>
       <c r="E48">
-        <v>22348692000</v>
+        <v>17616229200</v>
       </c>
       <c r="F48">
-        <v>21524795000</v>
+        <v>18933788600</v>
       </c>
       <c r="G48">
         <v>861000</v>
@@ -2778,13 +2778,13 @@
         <v>2286300</v>
       </c>
       <c r="I48">
-        <v>43874348000</v>
+        <v>36550878800</v>
       </c>
       <c r="J48" t="str">
         <v>2023-02-08T10:46:00.000Z</v>
       </c>
       <c r="K48">
-        <v>1941527327000</v>
+        <v>1767901626500</v>
       </c>
       <c r="L48">
         <v>110411500</v>
@@ -2793,13 +2793,13 @@
         <v>170000</v>
       </c>
       <c r="N48">
-        <v>-823897000</v>
+        <v>1317559400</v>
       </c>
       <c r="O48">
         <v>1766100</v>
       </c>
       <c r="P48">
-        <v>90923384000</v>
+        <v>59066972300</v>
       </c>
     </row>
     <row r="49">
@@ -2816,10 +2816,10 @@
         <v>0</v>
       </c>
       <c r="E49">
-        <v>22378260000</v>
+        <v>15904140600</v>
       </c>
       <c r="F49">
-        <v>18973683000</v>
+        <v>14303457900</v>
       </c>
       <c r="G49">
         <v>0</v>
@@ -2828,13 +2828,13 @@
         <v>2027600</v>
       </c>
       <c r="I49">
-        <v>41351943000</v>
+        <v>30207598500</v>
       </c>
       <c r="J49" t="str">
         <v>2023-02-08T10:48:00.000Z</v>
       </c>
       <c r="K49">
-        <v>1982879270000</v>
+        <v>1798109225000</v>
       </c>
       <c r="L49">
         <v>112439100</v>
@@ -2843,13 +2843,13 @@
         <v>-597800</v>
       </c>
       <c r="N49">
-        <v>-3404577000</v>
+        <v>-1600682700</v>
       </c>
       <c r="O49">
         <v>1168300</v>
       </c>
       <c r="P49">
-        <v>87518807000</v>
+        <v>57466289600</v>
       </c>
     </row>
     <row r="50">
@@ -2866,10 +2866,10 @@
         <v>5900</v>
       </c>
       <c r="E50">
-        <v>14388817000</v>
+        <v>12479328400</v>
       </c>
       <c r="F50">
-        <v>11599219000</v>
+        <v>11225093500</v>
       </c>
       <c r="G50">
         <v>221196000</v>
@@ -2878,13 +2878,13 @@
         <v>1622200</v>
       </c>
       <c r="I50">
-        <v>26209232000</v>
+        <v>23925617900</v>
       </c>
       <c r="J50" t="str">
         <v>2023-02-08T10:50:00.000Z</v>
       </c>
       <c r="K50">
-        <v>2009088502000</v>
+        <v>1822034842900</v>
       </c>
       <c r="L50">
         <v>114061300</v>
@@ -2893,13 +2893,13 @@
         <v>-302700</v>
       </c>
       <c r="N50">
-        <v>-2789598000</v>
+        <v>-1254234900</v>
       </c>
       <c r="O50">
         <v>865600</v>
       </c>
       <c r="P50">
-        <v>84729209000</v>
+        <v>56212054700</v>
       </c>
     </row>
     <row r="51">
@@ -2916,10 +2916,10 @@
         <v>3900</v>
       </c>
       <c r="E51">
-        <v>23303221000</v>
+        <v>20031096400</v>
       </c>
       <c r="F51">
-        <v>9596726000</v>
+        <v>9063160100</v>
       </c>
       <c r="G51">
         <v>50849000</v>
@@ -2928,13 +2928,13 @@
         <v>1932400</v>
       </c>
       <c r="I51">
-        <v>32950796000</v>
+        <v>29145105500</v>
       </c>
       <c r="J51" t="str">
         <v>2023-02-08T10:52:00.000Z</v>
       </c>
       <c r="K51">
-        <v>2042039298000</v>
+        <v>1851179948400</v>
       </c>
       <c r="L51">
         <v>115993700</v>
@@ -2943,13 +2943,13 @@
         <v>-738500</v>
       </c>
       <c r="N51">
-        <v>-13706495000</v>
+        <v>-10967936300</v>
       </c>
       <c r="O51">
         <v>127100</v>
       </c>
       <c r="P51">
-        <v>71022714000</v>
+        <v>45244118400</v>
       </c>
     </row>
     <row r="52">
@@ -2966,10 +2966,10 @@
         <v>600</v>
       </c>
       <c r="E52">
-        <v>50633952000</v>
+        <v>45618572400</v>
       </c>
       <c r="F52">
-        <v>10635251000</v>
+        <v>8459329100</v>
       </c>
       <c r="G52">
         <v>21450000</v>
@@ -2978,13 +2978,13 @@
         <v>3544700</v>
       </c>
       <c r="I52">
-        <v>61290653000</v>
+        <v>54099351500</v>
       </c>
       <c r="J52" t="str">
         <v>2023-02-08T10:54:00.000Z</v>
       </c>
       <c r="K52">
-        <v>2103329951000</v>
+        <v>1905279299900</v>
       </c>
       <c r="L52">
         <v>119538400</v>
@@ -2993,13 +2993,13 @@
         <v>-2306500</v>
       </c>
       <c r="N52">
-        <v>-39998701000</v>
+        <v>-37159243300</v>
       </c>
       <c r="O52">
         <v>-2179400</v>
       </c>
       <c r="P52">
-        <v>31024013000</v>
+        <v>8084875100</v>
       </c>
     </row>
     <row r="53">
@@ -3016,10 +3016,10 @@
         <v>48300</v>
       </c>
       <c r="E53">
-        <v>42822451000</v>
+        <v>38699478100</v>
       </c>
       <c r="F53">
-        <v>9024576000</v>
+        <v>8308093200</v>
       </c>
       <c r="G53">
         <v>437856000</v>
@@ -3028,13 +3028,13 @@
         <v>3265700</v>
       </c>
       <c r="I53">
-        <v>52284883000</v>
+        <v>47445427300</v>
       </c>
       <c r="J53" t="str">
         <v>2023-02-08T10:56:00.000Z</v>
       </c>
       <c r="K53">
-        <v>2155614834000</v>
+        <v>1952724727200</v>
       </c>
       <c r="L53">
         <v>122804100</v>
@@ -3043,13 +3043,13 @@
         <v>-2226600</v>
       </c>
       <c r="N53">
-        <v>-33797875000</v>
+        <v>-30391384900</v>
       </c>
       <c r="O53">
         <v>-4406000</v>
       </c>
       <c r="P53">
-        <v>-2773862000</v>
+        <v>-22306509800</v>
       </c>
     </row>
     <row r="54">
@@ -3066,25 +3066,25 @@
         <v>12700</v>
       </c>
       <c r="E54">
-        <v>38115312000</v>
+        <v>35767162500</v>
       </c>
       <c r="F54">
-        <v>15320351000</v>
+        <v>10662313700</v>
       </c>
       <c r="G54">
-        <v>75082000</v>
+        <v>62494600.00000001</v>
       </c>
       <c r="H54">
         <v>3137200</v>
       </c>
       <c r="I54">
-        <v>53510745000</v>
+        <v>46491970800</v>
       </c>
       <c r="J54" t="str">
         <v>2023-02-08T10:58:00.000Z</v>
       </c>
       <c r="K54">
-        <v>2209125579000</v>
+        <v>1999216698000</v>
       </c>
       <c r="L54">
         <v>125941300</v>
@@ -3093,13 +3093,13 @@
         <v>-1651900</v>
       </c>
       <c r="N54">
-        <v>-22794961000</v>
+        <v>-25104848800</v>
       </c>
       <c r="O54">
         <v>-6057900</v>
       </c>
       <c r="P54">
-        <v>-25568823000</v>
+        <v>-47411358600</v>
       </c>
     </row>
     <row r="55">
@@ -3116,10 +3116,10 @@
         <v>10700</v>
       </c>
       <c r="E55">
-        <v>48431215000</v>
+        <v>42396256000</v>
       </c>
       <c r="F55">
-        <v>10630884000</v>
+        <v>10380035100</v>
       </c>
       <c r="G55">
         <v>43420000</v>
@@ -3128,13 +3128,13 @@
         <v>3772800</v>
       </c>
       <c r="I55">
-        <v>59105519000</v>
+        <v>52819711100</v>
       </c>
       <c r="J55" t="str">
         <v>2023-02-08T11:00:00.000Z</v>
       </c>
       <c r="K55">
-        <v>2268231098000</v>
+        <v>2052036409100</v>
       </c>
       <c r="L55">
         <v>129714100</v>
@@ -3143,13 +3143,13 @@
         <v>-2608900</v>
       </c>
       <c r="N55">
-        <v>-37800331000</v>
+        <v>-32016220900</v>
       </c>
       <c r="O55">
         <v>-8666800</v>
       </c>
       <c r="P55">
-        <v>-63369154000</v>
+        <v>-79427579500</v>
       </c>
     </row>
     <row r="56">
@@ -3166,25 +3166,25 @@
         <v>900</v>
       </c>
       <c r="E56">
-        <v>46659941000</v>
+        <v>38448660500</v>
       </c>
       <c r="F56">
-        <v>9827108000</v>
+        <v>9206129600</v>
       </c>
       <c r="G56">
-        <v>23970000</v>
+        <v>11482500</v>
       </c>
       <c r="H56">
         <v>3333300</v>
       </c>
       <c r="I56">
-        <v>56511019000</v>
+        <v>47666272600</v>
       </c>
       <c r="J56" t="str">
         <v>2023-02-08T11:02:00.000Z</v>
       </c>
       <c r="K56">
-        <v>2324742117000</v>
+        <v>2099702681700</v>
       </c>
       <c r="L56">
         <v>133047400</v>
@@ -3193,13 +3193,13 @@
         <v>-2343800</v>
       </c>
       <c r="N56">
-        <v>-36832833000</v>
+        <v>-29242530900</v>
       </c>
       <c r="O56">
         <v>-11010600</v>
       </c>
       <c r="P56">
-        <v>-100201987000</v>
+        <v>-108670110400</v>
       </c>
     </row>
     <row r="57">
@@ -3216,10 +3216,10 @@
         <v>1500</v>
       </c>
       <c r="E57">
-        <v>42280564000</v>
+        <v>37422127300</v>
       </c>
       <c r="F57">
-        <v>17599393000</v>
+        <v>16225368400</v>
       </c>
       <c r="G57">
         <v>16909000</v>
@@ -3228,13 +3228,13 @@
         <v>3682300</v>
       </c>
       <c r="I57">
-        <v>59896866000</v>
+        <v>53664404700</v>
       </c>
       <c r="J57" t="str">
         <v>2023-02-08T11:04:00.000Z</v>
       </c>
       <c r="K57">
-        <v>2384638983000</v>
+        <v>2153367086400</v>
       </c>
       <c r="L57">
         <v>136729700</v>
@@ -3243,13 +3243,13 @@
         <v>-1898200</v>
       </c>
       <c r="N57">
-        <v>-24681171000</v>
+        <v>-21196758900</v>
       </c>
       <c r="O57">
         <v>-12908800</v>
       </c>
       <c r="P57">
-        <v>-124883158000</v>
+        <v>-129866869300</v>
       </c>
     </row>
     <row r="58">
@@ -3266,10 +3266,10 @@
         <v>8500</v>
       </c>
       <c r="E58">
-        <v>25692638000</v>
+        <v>24196835300</v>
       </c>
       <c r="F58">
-        <v>20321700000</v>
+        <v>18999823200</v>
       </c>
       <c r="G58">
         <v>61645000</v>
@@ -3278,13 +3278,13 @@
         <v>2786400</v>
       </c>
       <c r="I58">
-        <v>46075983000</v>
+        <v>43258303500</v>
       </c>
       <c r="J58" t="str">
         <v>2023-02-08T11:06:00.000Z</v>
       </c>
       <c r="K58">
-        <v>2430714966000</v>
+        <v>2196625389900</v>
       </c>
       <c r="L58">
         <v>139516100</v>
@@ -3293,13 +3293,13 @@
         <v>-817500</v>
       </c>
       <c r="N58">
-        <v>-5370938000</v>
+        <v>-5197012100</v>
       </c>
       <c r="O58">
         <v>-13726300</v>
       </c>
       <c r="P58">
-        <v>-130254096000</v>
+        <v>-135063881400</v>
       </c>
     </row>
     <row r="59">
@@ -3316,10 +3316,10 @@
         <v>4100</v>
       </c>
       <c r="E59">
-        <v>15987593000</v>
+        <v>15292988300</v>
       </c>
       <c r="F59">
-        <v>27244228000</v>
+        <v>25960712800</v>
       </c>
       <c r="G59">
         <v>98745000</v>
@@ -3328,13 +3328,13 @@
         <v>2317500</v>
       </c>
       <c r="I59">
-        <v>43330566000</v>
+        <v>41352446100</v>
       </c>
       <c r="J59" t="str">
         <v>2023-02-08T11:08:00.000Z</v>
       </c>
       <c r="K59">
-        <v>2474045532000</v>
+        <v>2237977836000</v>
       </c>
       <c r="L59">
         <v>141833600</v>
@@ -3343,13 +3343,13 @@
         <v>361400</v>
       </c>
       <c r="N59">
-        <v>11256635000</v>
+        <v>10667724500</v>
       </c>
       <c r="O59">
         <v>-13364900</v>
       </c>
       <c r="P59">
-        <v>-118997461000</v>
+        <v>-124396156900</v>
       </c>
     </row>
     <row r="60">
@@ -3366,10 +3366,10 @@
         <v>300</v>
       </c>
       <c r="E60">
-        <v>20843286000</v>
+        <v>18927503700</v>
       </c>
       <c r="F60">
-        <v>9889550000</v>
+        <v>8004437000</v>
       </c>
       <c r="G60">
         <v>9645000</v>
@@ -3378,13 +3378,13 @@
         <v>1768200</v>
       </c>
       <c r="I60">
-        <v>30742481000</v>
+        <v>26941585700</v>
       </c>
       <c r="J60" t="str">
         <v>2023-02-08T11:10:00.000Z</v>
       </c>
       <c r="K60">
-        <v>2504788013000</v>
+        <v>2264919421700</v>
       </c>
       <c r="L60">
         <v>143601800</v>
@@ -3393,13 +3393,13 @@
         <v>-496900</v>
       </c>
       <c r="N60">
-        <v>-10953736000</v>
+        <v>-10923066700</v>
       </c>
       <c r="O60">
         <v>-13861800</v>
       </c>
       <c r="P60">
-        <v>-129951197000</v>
+        <v>-135319223600</v>
       </c>
     </row>
     <row r="61">
@@ -3416,10 +3416,10 @@
         <v>1700</v>
       </c>
       <c r="E61">
-        <v>24167518000</v>
+        <v>17029163500</v>
       </c>
       <c r="F61">
-        <v>13126803000</v>
+        <v>7743991200</v>
       </c>
       <c r="G61">
         <v>20363000</v>
@@ -3428,13 +3428,13 @@
         <v>2071700</v>
       </c>
       <c r="I61">
-        <v>37314684000</v>
+        <v>24793517700</v>
       </c>
       <c r="J61" t="str">
         <v>2023-02-08T11:12:00.000Z</v>
       </c>
       <c r="K61">
-        <v>2542102697000</v>
+        <v>2289712939400</v>
       </c>
       <c r="L61">
         <v>145673500</v>
@@ -3443,13 +3443,13 @@
         <v>-673600</v>
       </c>
       <c r="N61">
-        <v>-11040715000</v>
+        <v>-9285172300</v>
       </c>
       <c r="O61">
         <v>-14535400</v>
       </c>
       <c r="P61">
-        <v>-140991912000</v>
+        <v>-144604395900</v>
       </c>
     </row>
     <row r="62">
@@ -3466,10 +3466,10 @@
         <v>2800</v>
       </c>
       <c r="E62">
-        <v>27607884000</v>
+        <v>26229164100</v>
       </c>
       <c r="F62">
-        <v>11956841000</v>
+        <v>8959741100</v>
       </c>
       <c r="G62">
         <v>30120000</v>
@@ -3478,13 +3478,13 @@
         <v>2324600</v>
       </c>
       <c r="I62">
-        <v>39594845000</v>
+        <v>35219025200</v>
       </c>
       <c r="J62" t="str">
         <v>2023-02-08T11:14:00.000Z</v>
       </c>
       <c r="K62">
-        <v>2581697542000</v>
+        <v>2324931964600</v>
       </c>
       <c r="L62">
         <v>147998100</v>
@@ -3493,13 +3493,13 @@
         <v>-1129400</v>
       </c>
       <c r="N62">
-        <v>-15651043000</v>
+        <v>-17269423000</v>
       </c>
       <c r="O62">
         <v>-15664800</v>
       </c>
       <c r="P62">
-        <v>-156642955000</v>
+        <v>-161873818900</v>
       </c>
     </row>
     <row r="63">
@@ -3516,25 +3516,25 @@
         <v>45100</v>
       </c>
       <c r="E63">
-        <v>38598043000</v>
+        <v>36725917000</v>
       </c>
       <c r="F63">
-        <v>11093109000</v>
+        <v>10849652700</v>
       </c>
       <c r="G63">
-        <v>596877000</v>
+        <v>558915000</v>
       </c>
       <c r="H63">
         <v>2939200</v>
       </c>
       <c r="I63">
-        <v>50288029000</v>
+        <v>48134484700</v>
       </c>
       <c r="J63" t="str">
         <v>2023-02-08T11:16:00.000Z</v>
       </c>
       <c r="K63">
-        <v>2631985571000</v>
+        <v>2373066449300</v>
       </c>
       <c r="L63">
         <v>150937300</v>
@@ -3543,13 +3543,13 @@
         <v>-1555100</v>
       </c>
       <c r="N63">
-        <v>-27504934000</v>
+        <v>-25876264300</v>
       </c>
       <c r="O63">
         <v>-17219900</v>
       </c>
       <c r="P63">
-        <v>-184147889000</v>
+        <v>-187750083200</v>
       </c>
     </row>
     <row r="64">
@@ -3566,25 +3566,25 @@
         <v>35800</v>
       </c>
       <c r="E64">
-        <v>51504487000</v>
+        <v>46564132300</v>
       </c>
       <c r="F64">
-        <v>15693442000</v>
+        <v>12645393100</v>
       </c>
       <c r="G64">
-        <v>519370000</v>
+        <v>511777600</v>
       </c>
       <c r="H64">
         <v>3920200</v>
       </c>
       <c r="I64">
-        <v>67717299000</v>
+        <v>59721303000</v>
       </c>
       <c r="J64" t="str">
         <v>2023-02-08T11:18:00.000Z</v>
       </c>
       <c r="K64">
-        <v>2699702870000</v>
+        <v>2432787752300</v>
       </c>
       <c r="L64">
         <v>154857500</v>
@@ -3593,13 +3593,13 @@
         <v>-2299600</v>
       </c>
       <c r="N64">
-        <v>-35811045000</v>
+        <v>-33918739200</v>
       </c>
       <c r="O64">
         <v>-19519500</v>
       </c>
       <c r="P64">
-        <v>-219958934000</v>
+        <v>-221668822400</v>
       </c>
     </row>
     <row r="65">
@@ -3616,25 +3616,25 @@
         <v>7700</v>
       </c>
       <c r="E65">
-        <v>70502596000</v>
+        <v>60294014800</v>
       </c>
       <c r="F65">
-        <v>11855912000</v>
+        <v>9319850600</v>
       </c>
       <c r="G65">
-        <v>158625000</v>
+        <v>106077600</v>
       </c>
       <c r="H65">
         <v>5119000</v>
       </c>
       <c r="I65">
-        <v>82517133000</v>
+        <v>69719943000</v>
       </c>
       <c r="J65" t="str">
         <v>2023-02-08T11:20:00.000Z</v>
       </c>
       <c r="K65">
-        <v>2782220003000</v>
+        <v>2502507695300</v>
       </c>
       <c r="L65">
         <v>159976500</v>
@@ -3643,13 +3643,13 @@
         <v>-3652700</v>
       </c>
       <c r="N65">
-        <v>-58646684000</v>
+        <v>-50974164200</v>
       </c>
       <c r="O65">
         <v>-23172200</v>
       </c>
       <c r="P65">
-        <v>-278605618000</v>
+        <v>-272642986600</v>
       </c>
     </row>
     <row r="66">
@@ -3666,10 +3666,10 @@
         <v>1500</v>
       </c>
       <c r="E66">
-        <v>85004748000</v>
+        <v>70714352700</v>
       </c>
       <c r="F66">
-        <v>14202147000</v>
+        <v>13143207000</v>
       </c>
       <c r="G66">
         <v>33215000</v>
@@ -3678,13 +3678,13 @@
         <v>5592900</v>
       </c>
       <c r="I66">
-        <v>99240110000</v>
+        <v>83890774700</v>
       </c>
       <c r="J66" t="str">
         <v>2023-02-08T11:22:00.000Z</v>
       </c>
       <c r="K66">
-        <v>2881460113000</v>
+        <v>2586398470000</v>
       </c>
       <c r="L66">
         <v>165569400</v>
@@ -3693,13 +3693,13 @@
         <v>-4032800</v>
       </c>
       <c r="N66">
-        <v>-70802601000</v>
+        <v>-57571145700</v>
       </c>
       <c r="O66">
         <v>-27205000</v>
       </c>
       <c r="P66">
-        <v>-349408219000</v>
+        <v>-330214132300</v>
       </c>
     </row>
     <row r="67">
@@ -3716,25 +3716,25 @@
         <v>14900</v>
       </c>
       <c r="E67">
-        <v>59746862000</v>
+        <v>52624191800</v>
       </c>
       <c r="F67">
-        <v>24500151000</v>
+        <v>22130822700</v>
       </c>
       <c r="G67">
-        <v>310503000</v>
+        <v>291022500</v>
       </c>
       <c r="H67">
         <v>4625400</v>
       </c>
       <c r="I67">
-        <v>84557516000</v>
+        <v>75046037000</v>
       </c>
       <c r="J67" t="str">
         <v>2023-02-08T11:24:00.000Z</v>
       </c>
       <c r="K67">
-        <v>2966017629000</v>
+        <v>2661444507000</v>
       </c>
       <c r="L67">
         <v>170194800</v>
@@ -3743,13 +3743,13 @@
         <v>-2082900</v>
       </c>
       <c r="N67">
-        <v>-35246711000</v>
+        <v>-30493369100</v>
       </c>
       <c r="O67">
         <v>-29287900</v>
       </c>
       <c r="P67">
-        <v>-384654930000</v>
+        <v>-360707501400</v>
       </c>
     </row>
     <row r="68">
@@ -3766,10 +3766,10 @@
         <v>5200</v>
       </c>
       <c r="E68">
-        <v>40949245000</v>
+        <v>38559437200</v>
       </c>
       <c r="F68">
-        <v>23403882000</v>
+        <v>21588199500</v>
       </c>
       <c r="G68">
         <v>54269999.99999999</v>
@@ -3778,13 +3778,13 @@
         <v>3826900</v>
       </c>
       <c r="I68">
-        <v>64407397000</v>
+        <v>60201906700</v>
       </c>
       <c r="J68" t="str">
         <v>2023-02-08T11:26:00.000Z</v>
       </c>
       <c r="K68">
-        <v>3030425026000</v>
+        <v>2721646413700</v>
       </c>
       <c r="L68">
         <v>174021700</v>
@@ -3793,13 +3793,13 @@
         <v>-1144500</v>
       </c>
       <c r="N68">
-        <v>-17545363000</v>
+        <v>-16971237700</v>
       </c>
       <c r="O68">
         <v>-30432400</v>
       </c>
       <c r="P68">
-        <v>-402200293000</v>
+        <v>-377678739100</v>
       </c>
     </row>
     <row r="69">
@@ -3816,10 +3816,10 @@
         <v>2100</v>
       </c>
       <c r="E69">
-        <v>28488896000</v>
+        <v>25900686800</v>
       </c>
       <c r="F69">
-        <v>26510966000</v>
+        <v>20344039100</v>
       </c>
       <c r="G69">
         <v>189928000</v>
@@ -3828,13 +3828,13 @@
         <v>3383300</v>
       </c>
       <c r="I69">
-        <v>55189790000</v>
+        <v>46434653900</v>
       </c>
       <c r="J69" t="str">
         <v>2023-02-08T11:28:00.000Z</v>
       </c>
       <c r="K69">
-        <v>3085614816000</v>
+        <v>2768081067600</v>
       </c>
       <c r="L69">
         <v>177405000</v>
@@ -3843,13 +3843,13 @@
         <v>-512000</v>
       </c>
       <c r="N69">
-        <v>-1977930000</v>
+        <v>-5556647700</v>
       </c>
       <c r="O69">
         <v>-30944400</v>
       </c>
       <c r="P69">
-        <v>-404178223000</v>
+        <v>-383235386800</v>
       </c>
     </row>
     <row r="70">
@@ -3884,7 +3884,7 @@
         <v>2023-02-08T11:30:00.000Z</v>
       </c>
       <c r="K70">
-        <v>3085630331000</v>
+        <v>2768096582600</v>
       </c>
       <c r="L70">
         <v>177406100</v>
@@ -3899,7 +3899,7 @@
         <v>-30943300</v>
       </c>
       <c r="P70">
-        <v>-404162708000</v>
+        <v>-383219871800</v>
       </c>
     </row>
     <row r="71">
@@ -3916,25 +3916,25 @@
         <v>505800</v>
       </c>
       <c r="E71">
-        <v>100767568000</v>
+        <v>97984653700</v>
       </c>
       <c r="F71">
-        <v>74564102000</v>
+        <v>68391181100</v>
       </c>
       <c r="G71">
-        <v>8098458000</v>
+        <v>7907249400</v>
       </c>
       <c r="H71">
         <v>11543000</v>
       </c>
       <c r="I71">
-        <v>183430128000</v>
+        <v>174283084200</v>
       </c>
       <c r="J71" t="str">
         <v>2023-02-08T13:00:00.000Z</v>
       </c>
       <c r="K71">
-        <v>3269060459000</v>
+        <v>2942379666800</v>
       </c>
       <c r="L71">
         <v>188949100</v>
@@ -3943,13 +3943,13 @@
         <v>-2293400</v>
       </c>
       <c r="N71">
-        <v>-26203466000</v>
+        <v>-29593472600</v>
       </c>
       <c r="O71">
         <v>-33236700</v>
       </c>
       <c r="P71">
-        <v>-430366174000</v>
+        <v>-412813344400</v>
       </c>
     </row>
     <row r="72">
@@ -3966,10 +3966,10 @@
         <v>3700</v>
       </c>
       <c r="E72">
-        <v>23512485000</v>
+        <v>22432865700</v>
       </c>
       <c r="F72">
-        <v>27619328000</v>
+        <v>24119331500</v>
       </c>
       <c r="G72">
         <v>38236000</v>
@@ -3978,13 +3978,13 @@
         <v>3393100</v>
       </c>
       <c r="I72">
-        <v>51170049000</v>
+        <v>46590433200</v>
       </c>
       <c r="J72" t="str">
         <v>2023-02-08T13:02:00.000Z</v>
       </c>
       <c r="K72">
-        <v>3320230508000</v>
+        <v>2988970100000</v>
       </c>
       <c r="L72">
         <v>192342200</v>
@@ -3993,13 +3993,13 @@
         <v>199800</v>
       </c>
       <c r="N72">
-        <v>4106843000</v>
+        <v>1686465800</v>
       </c>
       <c r="O72">
         <v>-33036900</v>
       </c>
       <c r="P72">
-        <v>-426259331000</v>
+        <v>-411126878600</v>
       </c>
     </row>
     <row r="73">
@@ -4016,10 +4016,10 @@
         <v>2600</v>
       </c>
       <c r="E73">
-        <v>25532503000</v>
+        <v>24240096700</v>
       </c>
       <c r="F73">
-        <v>37408422000</v>
+        <v>35171361300</v>
       </c>
       <c r="G73">
         <v>47197000</v>
@@ -4028,13 +4028,13 @@
         <v>3634000</v>
       </c>
       <c r="I73">
-        <v>62988122000</v>
+        <v>59458655000</v>
       </c>
       <c r="J73" t="str">
         <v>2023-02-08T13:04:00.000Z</v>
       </c>
       <c r="K73">
-        <v>3383218630000</v>
+        <v>3048428755000</v>
       </c>
       <c r="L73">
         <v>195976200</v>
@@ -4043,13 +4043,13 @@
         <v>297600</v>
       </c>
       <c r="N73">
-        <v>11875919000</v>
+        <v>10931264600</v>
       </c>
       <c r="O73">
         <v>-32739300</v>
       </c>
       <c r="P73">
-        <v>-414383412000</v>
+        <v>-400195614000</v>
       </c>
     </row>
     <row r="74">
@@ -4066,25 +4066,25 @@
         <v>6100</v>
       </c>
       <c r="E74">
-        <v>18834992000</v>
+        <v>18457270100</v>
       </c>
       <c r="F74">
-        <v>29017005000</v>
+        <v>26560264200</v>
       </c>
       <c r="G74">
-        <v>111913000</v>
+        <v>105919000</v>
       </c>
       <c r="H74">
         <v>2961300</v>
       </c>
       <c r="I74">
-        <v>47963910000</v>
+        <v>45123453300</v>
       </c>
       <c r="J74" t="str">
         <v>2023-02-08T13:06:00.000Z</v>
       </c>
       <c r="K74">
-        <v>3431182540000</v>
+        <v>3093552208300</v>
       </c>
       <c r="L74">
         <v>198937500</v>
@@ -4093,13 +4093,13 @@
         <v>477400</v>
       </c>
       <c r="N74">
-        <v>10182013000</v>
+        <v>8102994100</v>
       </c>
       <c r="O74">
         <v>-32261900</v>
       </c>
       <c r="P74">
-        <v>-404201399000</v>
+        <v>-392092619900</v>
       </c>
     </row>
     <row r="75">
@@ -4116,25 +4116,25 @@
         <v>1600</v>
       </c>
       <c r="E75">
-        <v>32462739000</v>
+        <v>28990215000</v>
       </c>
       <c r="F75">
-        <v>24371367000</v>
+        <v>22817322600</v>
       </c>
       <c r="G75">
-        <v>91668000</v>
+        <v>69190500</v>
       </c>
       <c r="H75">
         <v>3105600</v>
       </c>
       <c r="I75">
-        <v>56925774000</v>
+        <v>51876728100</v>
       </c>
       <c r="J75" t="str">
         <v>2023-02-08T13:08:00.000Z</v>
       </c>
       <c r="K75">
-        <v>3488108314000</v>
+        <v>3145428936400</v>
       </c>
       <c r="L75">
         <v>202043100</v>
@@ -4143,13 +4143,13 @@
         <v>-172600</v>
       </c>
       <c r="N75">
-        <v>-8091372000</v>
+        <v>-6172892400</v>
       </c>
       <c r="O75">
         <v>-32434500</v>
       </c>
       <c r="P75">
-        <v>-412292771000</v>
+        <v>-398265512300</v>
       </c>
     </row>
     <row r="76">
@@ -4166,10 +4166,10 @@
         <v>4100</v>
       </c>
       <c r="E76">
-        <v>79513494000</v>
+        <v>77774634600</v>
       </c>
       <c r="F76">
-        <v>15557245000</v>
+        <v>13878625300</v>
       </c>
       <c r="G76">
         <v>30682000</v>
@@ -4178,13 +4178,13 @@
         <v>5592800</v>
       </c>
       <c r="I76">
-        <v>95101421000</v>
+        <v>91683941900</v>
       </c>
       <c r="J76" t="str">
         <v>2023-02-08T13:10:00.000Z</v>
       </c>
       <c r="K76">
-        <v>3583209735000</v>
+        <v>3237112878300</v>
       </c>
       <c r="L76">
         <v>207635900</v>
@@ -4193,13 +4193,13 @@
         <v>-3687500</v>
       </c>
       <c r="N76">
-        <v>-63956249000</v>
+        <v>-63896009300</v>
       </c>
       <c r="O76">
         <v>-36122000</v>
       </c>
       <c r="P76">
-        <v>-476249020000</v>
+        <v>-462161521600</v>
       </c>
     </row>
     <row r="77">
@@ -4216,25 +4216,25 @@
         <v>21300</v>
       </c>
       <c r="E77">
-        <v>116419661000</v>
+        <v>104998094000</v>
       </c>
       <c r="F77">
-        <v>21805906000</v>
+        <v>21405906400</v>
       </c>
       <c r="G77">
-        <v>166086000</v>
+        <v>155396700</v>
       </c>
       <c r="H77">
         <v>8564200</v>
       </c>
       <c r="I77">
-        <v>138391653000</v>
+        <v>126559397100</v>
       </c>
       <c r="J77" t="str">
         <v>2023-02-08T13:12:00.000Z</v>
       </c>
       <c r="K77">
-        <v>3721601388000</v>
+        <v>3363672275400</v>
       </c>
       <c r="L77">
         <v>216200100</v>
@@ -4243,13 +4243,13 @@
         <v>-5733500</v>
       </c>
       <c r="N77">
-        <v>-94613755000</v>
+        <v>-83592187600</v>
       </c>
       <c r="O77">
         <v>-41855500</v>
       </c>
       <c r="P77">
-        <v>-570862775000</v>
+        <v>-545753709200</v>
       </c>
     </row>
     <row r="78">
@@ -4266,10 +4266,10 @@
         <v>17700</v>
       </c>
       <c r="E78">
-        <v>73560039000</v>
+        <v>67178826600</v>
       </c>
       <c r="F78">
-        <v>40561139000</v>
+        <v>39255446000</v>
       </c>
       <c r="G78">
         <v>273840000</v>
@@ -4278,13 +4278,13 @@
         <v>6836000</v>
       </c>
       <c r="I78">
-        <v>114395018000</v>
+        <v>106708112600</v>
       </c>
       <c r="J78" t="str">
         <v>2023-02-08T13:14:00.000Z</v>
       </c>
       <c r="K78">
-        <v>3835996406000</v>
+        <v>3470380388000</v>
       </c>
       <c r="L78">
         <v>223036100</v>
@@ -4293,13 +4293,13 @@
         <v>-2432900</v>
       </c>
       <c r="N78">
-        <v>-32998900000</v>
+        <v>-27923380600</v>
       </c>
       <c r="O78">
         <v>-44288400</v>
       </c>
       <c r="P78">
-        <v>-603861675000</v>
+        <v>-573677089800</v>
       </c>
     </row>
     <row r="79">
@@ -4316,25 +4316,25 @@
         <v>23200</v>
       </c>
       <c r="E79">
-        <v>59213788000</v>
+        <v>44454262300</v>
       </c>
       <c r="F79">
-        <v>36666024000</v>
+        <v>34110082500</v>
       </c>
       <c r="G79">
-        <v>322444000</v>
+        <v>65101600</v>
       </c>
       <c r="H79">
         <v>5855700</v>
       </c>
       <c r="I79">
-        <v>96202256000</v>
+        <v>78629446400</v>
       </c>
       <c r="J79" t="str">
         <v>2023-02-08T13:16:00.000Z</v>
       </c>
       <c r="K79">
-        <v>3932198662000</v>
+        <v>3549009834400</v>
       </c>
       <c r="L79">
         <v>228891800</v>
@@ -4343,13 +4343,13 @@
         <v>-1410900</v>
       </c>
       <c r="N79">
-        <v>-22547764000</v>
+        <v>-10344179800</v>
       </c>
       <c r="O79">
         <v>-45699300</v>
       </c>
       <c r="P79">
-        <v>-626409439000</v>
+        <v>-584021269600</v>
       </c>
     </row>
     <row r="80">
@@ -4366,10 +4366,10 @@
         <v>29000</v>
       </c>
       <c r="E80">
-        <v>30108233000</v>
+        <v>28286656400</v>
       </c>
       <c r="F80">
-        <v>38612895000</v>
+        <v>35518192800</v>
       </c>
       <c r="G80">
         <v>251266000</v>
@@ -4378,13 +4378,13 @@
         <v>3952200</v>
       </c>
       <c r="I80">
-        <v>68972394000</v>
+        <v>64056115200</v>
       </c>
       <c r="J80" t="str">
         <v>2023-02-08T13:18:00.000Z</v>
       </c>
       <c r="K80">
-        <v>4001171056000</v>
+        <v>3613065949600</v>
       </c>
       <c r="L80">
         <v>232844000</v>
@@ -4393,13 +4393,13 @@
         <v>386800</v>
       </c>
       <c r="N80">
-        <v>8504662000</v>
+        <v>7231536400</v>
       </c>
       <c r="O80">
         <v>-45312500</v>
       </c>
       <c r="P80">
-        <v>-617904777000</v>
+        <v>-576789733200</v>
       </c>
     </row>
     <row r="81">
@@ -4416,10 +4416,10 @@
         <v>119700</v>
       </c>
       <c r="E81">
-        <v>27425375000</v>
+        <v>27013087700</v>
       </c>
       <c r="F81">
-        <v>39403412000</v>
+        <v>38293523000</v>
       </c>
       <c r="G81">
         <v>1525640000</v>
@@ -4428,13 +4428,13 @@
         <v>3944600</v>
       </c>
       <c r="I81">
-        <v>68354427000</v>
+        <v>66832250700</v>
       </c>
       <c r="J81" t="str">
         <v>2023-02-08T13:20:00.000Z</v>
       </c>
       <c r="K81">
-        <v>4069525483000</v>
+        <v>3679898200300</v>
       </c>
       <c r="L81">
         <v>236788600</v>
@@ -4443,13 +4443,13 @@
         <v>680700</v>
       </c>
       <c r="N81">
-        <v>11978037000</v>
+        <v>11280435300</v>
       </c>
       <c r="O81">
         <v>-44631800</v>
       </c>
       <c r="P81">
-        <v>-605926740000</v>
+        <v>-565509297900</v>
       </c>
     </row>
     <row r="82">
@@ -4466,10 +4466,10 @@
         <v>5800</v>
       </c>
       <c r="E82">
-        <v>18780918000</v>
+        <v>18323176200</v>
       </c>
       <c r="F82">
-        <v>70434704000</v>
+        <v>60550198400</v>
       </c>
       <c r="G82">
         <v>189510000</v>
@@ -4478,13 +4478,13 @@
         <v>4191500</v>
       </c>
       <c r="I82">
-        <v>89405132000</v>
+        <v>79062884600</v>
       </c>
       <c r="J82" t="str">
         <v>2023-02-08T13:22:00.000Z</v>
       </c>
       <c r="K82">
-        <v>4158930615000</v>
+        <v>3758961084900</v>
       </c>
       <c r="L82">
         <v>240980100</v>
@@ -4493,13 +4493,13 @@
         <v>2253700</v>
       </c>
       <c r="N82">
-        <v>51653786000</v>
+        <v>42227022200</v>
       </c>
       <c r="O82">
         <v>-42378100</v>
       </c>
       <c r="P82">
-        <v>-554272954000</v>
+        <v>-523282275700</v>
       </c>
     </row>
     <row r="83">
@@ -4516,10 +4516,10 @@
         <v>1800</v>
       </c>
       <c r="E83">
-        <v>15102297000</v>
+        <v>13482518400</v>
       </c>
       <c r="F83">
-        <v>47336279000</v>
+        <v>41578542500</v>
       </c>
       <c r="G83">
         <v>17859000</v>
@@ -4528,13 +4528,13 @@
         <v>3795000</v>
       </c>
       <c r="I83">
-        <v>62456435000</v>
+        <v>55078919900</v>
       </c>
       <c r="J83" t="str">
         <v>2023-02-08T13:24:00.000Z</v>
       </c>
       <c r="K83">
-        <v>4221387050000</v>
+        <v>3814040004800</v>
       </c>
       <c r="L83">
         <v>244775100</v>
@@ -4543,13 +4543,13 @@
         <v>2057200</v>
       </c>
       <c r="N83">
-        <v>32233982000</v>
+        <v>28096024100</v>
       </c>
       <c r="O83">
         <v>-40320900</v>
       </c>
       <c r="P83">
-        <v>-522038972000</v>
+        <v>-495186251600</v>
       </c>
     </row>
     <row r="84">
@@ -4566,10 +4566,10 @@
         <v>19000</v>
       </c>
       <c r="E84">
-        <v>18466487000</v>
+        <v>13447111400</v>
       </c>
       <c r="F84">
-        <v>75147635000</v>
+        <v>62665529600</v>
       </c>
       <c r="G84">
         <v>271814000</v>
@@ -4578,13 +4578,13 @@
         <v>4811300</v>
       </c>
       <c r="I84">
-        <v>93885936000</v>
+        <v>76384455000</v>
       </c>
       <c r="J84" t="str">
         <v>2023-02-08T13:26:00.000Z</v>
       </c>
       <c r="K84">
-        <v>4315272986000</v>
+        <v>3890424459800</v>
       </c>
       <c r="L84">
         <v>249586400</v>
@@ -4593,13 +4593,13 @@
         <v>2668100</v>
       </c>
       <c r="N84">
-        <v>56681148000</v>
+        <v>49218418200</v>
       </c>
       <c r="O84">
         <v>-37652800</v>
       </c>
       <c r="P84">
-        <v>-465357824000</v>
+        <v>-445967833400</v>
       </c>
     </row>
     <row r="85">
@@ -4616,10 +4616,10 @@
         <v>300</v>
       </c>
       <c r="E85">
-        <v>33375570000</v>
+        <v>24035819100</v>
       </c>
       <c r="F85">
-        <v>43623120000</v>
+        <v>39330516900</v>
       </c>
       <c r="G85">
         <v>12070000</v>
@@ -4628,13 +4628,13 @@
         <v>4498000</v>
       </c>
       <c r="I85">
-        <v>77010760000</v>
+        <v>63378406000</v>
       </c>
       <c r="J85" t="str">
         <v>2023-02-08T13:28:00.000Z</v>
       </c>
       <c r="K85">
-        <v>4392283746000</v>
+        <v>3953802865800</v>
       </c>
       <c r="L85">
         <v>254084400</v>
@@ -4643,13 +4643,13 @@
         <v>777500</v>
       </c>
       <c r="N85">
-        <v>10247550000</v>
+        <v>15294697800</v>
       </c>
       <c r="O85">
         <v>-36875300</v>
       </c>
       <c r="P85">
-        <v>-455110274000</v>
+        <v>-430673135600</v>
       </c>
     </row>
     <row r="86">
@@ -4666,10 +4666,10 @@
         <v>23800</v>
       </c>
       <c r="E86">
-        <v>37124724000</v>
+        <v>35246404200</v>
       </c>
       <c r="F86">
-        <v>43070261000</v>
+        <v>37359977000</v>
       </c>
       <c r="G86">
         <v>294798000</v>
@@ -4678,13 +4678,13 @@
         <v>4321100</v>
       </c>
       <c r="I86">
-        <v>80489783000</v>
+        <v>72901179200</v>
       </c>
       <c r="J86" t="str">
         <v>2023-02-08T13:30:00.000Z</v>
       </c>
       <c r="K86">
-        <v>4472773529000</v>
+        <v>4026704045000</v>
       </c>
       <c r="L86">
         <v>258405500</v>
@@ -4693,13 +4693,13 @@
         <v>39700</v>
       </c>
       <c r="N86">
-        <v>5945537000</v>
+        <v>2113572800</v>
       </c>
       <c r="O86">
         <v>-36835600</v>
       </c>
       <c r="P86">
-        <v>-449164737000</v>
+        <v>-428559562800</v>
       </c>
     </row>
     <row r="87">
@@ -4716,10 +4716,10 @@
         <v>4400</v>
       </c>
       <c r="E87">
-        <v>24906011000</v>
+        <v>22747771400</v>
       </c>
       <c r="F87">
-        <v>59988160000</v>
+        <v>54208445500</v>
       </c>
       <c r="G87">
         <v>66140000</v>
@@ -4728,13 +4728,13 @@
         <v>4354100</v>
       </c>
       <c r="I87">
-        <v>84960311000</v>
+        <v>77022356900</v>
       </c>
       <c r="J87" t="str">
         <v>2023-02-08T13:32:00.000Z</v>
       </c>
       <c r="K87">
-        <v>4557733840000</v>
+        <v>4103726401900</v>
       </c>
       <c r="L87">
         <v>262759600</v>
@@ -4743,13 +4743,13 @@
         <v>1738100</v>
       </c>
       <c r="N87">
-        <v>35082149000</v>
+        <v>31460674100</v>
       </c>
       <c r="O87">
         <v>-35097500</v>
       </c>
       <c r="P87">
-        <v>-414082588000</v>
+        <v>-397098888700</v>
       </c>
     </row>
     <row r="88">
@@ -4766,10 +4766,10 @@
         <v>9000</v>
       </c>
       <c r="E88">
-        <v>19840112000</v>
+        <v>18558395000</v>
       </c>
       <c r="F88">
-        <v>55049176000</v>
+        <v>51435193600</v>
       </c>
       <c r="G88">
         <v>150870000</v>
@@ -4778,13 +4778,13 @@
         <v>4236000</v>
       </c>
       <c r="I88">
-        <v>75040158000</v>
+        <v>70144458600</v>
       </c>
       <c r="J88" t="str">
         <v>2023-02-08T13:34:00.000Z</v>
       </c>
       <c r="K88">
-        <v>4632773998000</v>
+        <v>4173870860500</v>
       </c>
       <c r="L88">
         <v>266995600</v>
@@ -4793,13 +4793,13 @@
         <v>1903800</v>
       </c>
       <c r="N88">
-        <v>35209064000</v>
+        <v>32876798600</v>
       </c>
       <c r="O88">
         <v>-33193700</v>
       </c>
       <c r="P88">
-        <v>-378873524000</v>
+        <v>-364222090100</v>
       </c>
     </row>
     <row r="89">
@@ -4816,10 +4816,10 @@
         <v>4500</v>
       </c>
       <c r="E89">
-        <v>17817204000</v>
+        <v>17221300500</v>
       </c>
       <c r="F89">
-        <v>110024949000</v>
+        <v>99249834900</v>
       </c>
       <c r="G89">
         <v>76821000</v>
@@ -4828,13 +4828,13 @@
         <v>6974300</v>
       </c>
       <c r="I89">
-        <v>127918974000</v>
+        <v>116547956400</v>
       </c>
       <c r="J89" t="str">
         <v>2023-02-08T13:36:00.000Z</v>
       </c>
       <c r="K89">
-        <v>4760692972000</v>
+        <v>4290418816900</v>
       </c>
       <c r="L89">
         <v>273969900</v>
@@ -4843,13 +4843,13 @@
         <v>4887000</v>
       </c>
       <c r="N89">
-        <v>92207745000</v>
+        <v>82028534400</v>
       </c>
       <c r="O89">
         <v>-28306700</v>
       </c>
       <c r="P89">
-        <v>-286665779000</v>
+        <v>-282193555700</v>
       </c>
     </row>
     <row r="90">
@@ -4866,10 +4866,10 @@
         <v>22800</v>
       </c>
       <c r="E90">
-        <v>39148512000</v>
+        <v>38766794100</v>
       </c>
       <c r="F90">
-        <v>122183505000</v>
+        <v>112734663300</v>
       </c>
       <c r="G90">
         <v>409845000</v>
@@ -4878,13 +4878,13 @@
         <v>8526800</v>
       </c>
       <c r="I90">
-        <v>161741862000</v>
+        <v>151911302400</v>
       </c>
       <c r="J90" t="str">
         <v>2023-02-08T13:38:00.000Z</v>
       </c>
       <c r="K90">
-        <v>4922434834000</v>
+        <v>4442330119300</v>
       </c>
       <c r="L90">
         <v>282496700</v>
@@ -4893,13 +4893,13 @@
         <v>4480000</v>
       </c>
       <c r="N90">
-        <v>83034993000</v>
+        <v>73967869200</v>
       </c>
       <c r="O90">
         <v>-23826700</v>
       </c>
       <c r="P90">
-        <v>-203630786000</v>
+        <v>-208225686500</v>
       </c>
     </row>
     <row r="91">
@@ -4916,25 +4916,25 @@
         <v>13500</v>
       </c>
       <c r="E91">
-        <v>60914314000</v>
+        <v>57113119000</v>
       </c>
       <c r="F91">
-        <v>58327895000</v>
+        <v>51344984900</v>
       </c>
       <c r="G91">
-        <v>209797000</v>
+        <v>199307500</v>
       </c>
       <c r="H91">
         <v>7164500</v>
       </c>
       <c r="I91">
-        <v>119452006000</v>
+        <v>108657411400</v>
       </c>
       <c r="J91" t="str">
         <v>2023-02-08T13:40:00.000Z</v>
       </c>
       <c r="K91">
-        <v>5041886840000</v>
+        <v>4550987530700</v>
       </c>
       <c r="L91">
         <v>289661200</v>
@@ -4943,13 +4943,13 @@
         <v>-385000</v>
       </c>
       <c r="N91">
-        <v>-2586419000</v>
+        <v>-5768134100</v>
       </c>
       <c r="O91">
         <v>-24211700</v>
       </c>
       <c r="P91">
-        <v>-206217205000</v>
+        <v>-213993820600</v>
       </c>
     </row>
     <row r="92">
@@ -4966,10 +4966,10 @@
         <v>19000</v>
       </c>
       <c r="E92">
-        <v>66101401000</v>
+        <v>61455551500</v>
       </c>
       <c r="F92">
-        <v>22120966000</v>
+        <v>19441847800</v>
       </c>
       <c r="G92">
         <v>514048000</v>
@@ -4978,13 +4978,13 @@
         <v>5217600</v>
       </c>
       <c r="I92">
-        <v>88736415000</v>
+        <v>81411447300</v>
       </c>
       <c r="J92" t="str">
         <v>2023-02-08T13:42:00.000Z</v>
       </c>
       <c r="K92">
-        <v>5130623255000</v>
+        <v>4632398978000</v>
       </c>
       <c r="L92">
         <v>294878800</v>
@@ -4993,13 +4993,13 @@
         <v>-2634600</v>
       </c>
       <c r="N92">
-        <v>-43980435000</v>
+        <v>-42013703700</v>
       </c>
       <c r="O92">
         <v>-26846300</v>
       </c>
       <c r="P92">
-        <v>-250197640000</v>
+        <v>-256007524300</v>
       </c>
     </row>
     <row r="93">
@@ -5016,10 +5016,10 @@
         <v>2900</v>
       </c>
       <c r="E93">
-        <v>48879634000</v>
+        <v>47100914500</v>
       </c>
       <c r="F93">
-        <v>36002469000</v>
+        <v>32982392100</v>
       </c>
       <c r="G93">
         <v>32810000</v>
@@ -5028,13 +5028,13 @@
         <v>4484600</v>
       </c>
       <c r="I93">
-        <v>84914913000</v>
+        <v>80116116600</v>
       </c>
       <c r="J93" t="str">
         <v>2023-02-08T13:44:00.000Z</v>
       </c>
       <c r="K93">
-        <v>5215538168000</v>
+        <v>4712515094600</v>
       </c>
       <c r="L93">
         <v>299363400</v>
@@ -5043,13 +5043,13 @@
         <v>-1005900</v>
       </c>
       <c r="N93">
-        <v>-12877165000</v>
+        <v>-14118522400</v>
       </c>
       <c r="O93">
         <v>-27852200</v>
       </c>
       <c r="P93">
-        <v>-263074805000</v>
+        <v>-270126046700</v>
       </c>
     </row>
     <row r="94">
@@ -5066,25 +5066,25 @@
         <v>7200</v>
       </c>
       <c r="E94">
-        <v>22802910000</v>
+        <v>22270542900</v>
       </c>
       <c r="F94">
-        <v>46421423000</v>
+        <v>43261785800</v>
       </c>
       <c r="G94">
-        <v>110635000</v>
+        <v>106239400</v>
       </c>
       <c r="H94">
         <v>3909200</v>
       </c>
       <c r="I94">
-        <v>69334968000</v>
+        <v>65638568100</v>
       </c>
       <c r="J94" t="str">
         <v>2023-02-08T13:46:00.000Z</v>
       </c>
       <c r="K94">
-        <v>5284873136000</v>
+        <v>4778153662700</v>
       </c>
       <c r="L94">
         <v>303272600</v>
@@ -5093,13 +5093,13 @@
         <v>934600</v>
       </c>
       <c r="N94">
-        <v>23618513000</v>
+        <v>20991242900</v>
       </c>
       <c r="O94">
         <v>-26917600</v>
       </c>
       <c r="P94">
-        <v>-239456292000</v>
+        <v>-249134803800</v>
       </c>
     </row>
     <row r="95">
@@ -5116,10 +5116,10 @@
         <v>1100</v>
       </c>
       <c r="E95">
-        <v>21964592000</v>
+        <v>20898259400</v>
       </c>
       <c r="F95">
-        <v>30348093000</v>
+        <v>28105737600</v>
       </c>
       <c r="G95">
         <v>45220000</v>
@@ -5128,13 +5128,13 @@
         <v>2844000</v>
       </c>
       <c r="I95">
-        <v>52357905000</v>
+        <v>49049217000</v>
       </c>
       <c r="J95" t="str">
         <v>2023-02-08T13:48:00.000Z</v>
       </c>
       <c r="K95">
-        <v>5337231041000</v>
+        <v>4827202879700</v>
       </c>
       <c r="L95">
         <v>306116600</v>
@@ -5143,13 +5143,13 @@
         <v>399900</v>
       </c>
       <c r="N95">
-        <v>8383501000</v>
+        <v>7207478200</v>
       </c>
       <c r="O95">
         <v>-26517700</v>
       </c>
       <c r="P95">
-        <v>-231072791000</v>
+        <v>-241927325600</v>
       </c>
     </row>
     <row r="96">
@@ -5166,10 +5166,10 @@
         <v>0</v>
       </c>
       <c r="E96">
-        <v>20268145000</v>
+        <v>19605708100</v>
       </c>
       <c r="F96">
-        <v>35370432000</v>
+        <v>33461243100</v>
       </c>
       <c r="G96">
         <v>0</v>
@@ -5178,13 +5178,13 @@
         <v>2575200</v>
       </c>
       <c r="I96">
-        <v>55638577000</v>
+        <v>53066951200</v>
       </c>
       <c r="J96" t="str">
         <v>2023-02-08T13:50:00.000Z</v>
       </c>
       <c r="K96">
-        <v>5392869618000</v>
+        <v>4880269830900</v>
       </c>
       <c r="L96">
         <v>308691800</v>
@@ -5193,13 +5193,13 @@
         <v>367400</v>
       </c>
       <c r="N96">
-        <v>15102287000</v>
+        <v>13855535000</v>
       </c>
       <c r="O96">
         <v>-26150300</v>
       </c>
       <c r="P96">
-        <v>-215970504000</v>
+        <v>-228071790600</v>
       </c>
     </row>
     <row r="97">
@@ -5216,25 +5216,25 @@
         <v>6800</v>
       </c>
       <c r="E97">
-        <v>25658445000</v>
+        <v>23901004200</v>
       </c>
       <c r="F97">
-        <v>30955802000</v>
+        <v>29653106000</v>
       </c>
       <c r="G97">
-        <v>100465000</v>
+        <v>46519000</v>
       </c>
       <c r="H97">
         <v>3010400</v>
       </c>
       <c r="I97">
-        <v>56714712000</v>
+        <v>53600629200</v>
       </c>
       <c r="J97" t="str">
         <v>2023-02-08T13:52:00.000Z</v>
       </c>
       <c r="K97">
-        <v>5449584330000</v>
+        <v>4933870460100</v>
       </c>
       <c r="L97">
         <v>311702200</v>
@@ -5243,13 +5243,13 @@
         <v>329600</v>
       </c>
       <c r="N97">
-        <v>5297357000</v>
+        <v>5752101800</v>
       </c>
       <c r="O97">
         <v>-25820700</v>
       </c>
       <c r="P97">
-        <v>-210673147000</v>
+        <v>-222319688800</v>
       </c>
     </row>
     <row r="98">
@@ -5266,10 +5266,10 @@
         <v>2400</v>
       </c>
       <c r="E98">
-        <v>24092410000</v>
+        <v>22857146500</v>
       </c>
       <c r="F98">
-        <v>35116972000</v>
+        <v>32831160100</v>
       </c>
       <c r="G98">
         <v>20825000</v>
@@ -5278,13 +5278,13 @@
         <v>2891300</v>
       </c>
       <c r="I98">
-        <v>59230207000</v>
+        <v>55709131600</v>
       </c>
       <c r="J98" t="str">
         <v>2023-02-08T13:54:00.000Z</v>
       </c>
       <c r="K98">
-        <v>5508814537000</v>
+        <v>4989579591700</v>
       </c>
       <c r="L98">
         <v>314593500</v>
@@ -5293,13 +5293,13 @@
         <v>306900</v>
       </c>
       <c r="N98">
-        <v>11024562000</v>
+        <v>9974013600</v>
       </c>
       <c r="O98">
         <v>-25513800</v>
       </c>
       <c r="P98">
-        <v>-199648585000</v>
+        <v>-212345675200</v>
       </c>
     </row>
     <row r="99">
@@ -5316,10 +5316,10 @@
         <v>8100</v>
       </c>
       <c r="E99">
-        <v>20527444000</v>
+        <v>19560511900</v>
       </c>
       <c r="F99">
-        <v>117058145000</v>
+        <v>101676142400</v>
       </c>
       <c r="G99">
         <v>117516000</v>
@@ -5328,13 +5328,13 @@
         <v>6599100</v>
       </c>
       <c r="I99">
-        <v>137703105000</v>
+        <v>121354170300</v>
       </c>
       <c r="J99" t="str">
         <v>2023-02-08T13:56:00.000Z</v>
       </c>
       <c r="K99">
-        <v>5646517642000</v>
+        <v>5110933762000</v>
       </c>
       <c r="L99">
         <v>321192600</v>
@@ -5343,13 +5343,13 @@
         <v>4242600</v>
       </c>
       <c r="N99">
-        <v>96530701000</v>
+        <v>82115630500</v>
       </c>
       <c r="O99">
         <v>-21271200</v>
       </c>
       <c r="P99">
-        <v>-103117884000</v>
+        <v>-130230044700</v>
       </c>
     </row>
     <row r="100">
@@ -5366,10 +5366,10 @@
         <v>12400</v>
       </c>
       <c r="E100">
-        <v>25148939000</v>
+        <v>23806183100</v>
       </c>
       <c r="F100">
-        <v>165239817000</v>
+        <v>144174803100</v>
       </c>
       <c r="G100">
         <v>169508000</v>
@@ -5378,13 +5378,13 @@
         <v>10139800</v>
       </c>
       <c r="I100">
-        <v>190558264000</v>
+        <v>168150494200</v>
       </c>
       <c r="J100" t="str">
         <v>2023-02-08T13:58:00.000Z</v>
       </c>
       <c r="K100">
-        <v>5837075906000</v>
+        <v>5279084256200</v>
       </c>
       <c r="L100">
         <v>331332400</v>
@@ -5393,13 +5393,13 @@
         <v>7558200</v>
       </c>
       <c r="N100">
-        <v>140090878000</v>
+        <v>120368620000</v>
       </c>
       <c r="O100">
         <v>-13713000</v>
       </c>
       <c r="P100">
-        <v>36972994000</v>
+        <v>-9861424700</v>
       </c>
     </row>
     <row r="101">
@@ -5416,10 +5416,10 @@
         <v>21500</v>
       </c>
       <c r="E101">
-        <v>42356086000</v>
+        <v>40024220200</v>
       </c>
       <c r="F101">
-        <v>95160406000</v>
+        <v>83408869300</v>
       </c>
       <c r="G101">
         <v>431635000</v>
@@ -5428,13 +5428,13 @@
         <v>7846100</v>
       </c>
       <c r="I101">
-        <v>137948127000</v>
+        <v>123864724500</v>
       </c>
       <c r="J101" t="str">
         <v>2023-02-08T14:00:00.000Z</v>
       </c>
       <c r="K101">
-        <v>5975024033000</v>
+        <v>5402948980700</v>
       </c>
       <c r="L101">
         <v>339178500</v>
@@ -5443,13 +5443,13 @@
         <v>3259600</v>
       </c>
       <c r="N101">
-        <v>52804320000</v>
+        <v>43384649100</v>
       </c>
       <c r="O101">
         <v>-10453400</v>
       </c>
       <c r="P101">
-        <v>89777314000</v>
+        <v>33523224400</v>
       </c>
     </row>
     <row r="102">
@@ -5466,10 +5466,10 @@
         <v>5200</v>
       </c>
       <c r="E102">
-        <v>31390539000</v>
+        <v>28275657000</v>
       </c>
       <c r="F102">
-        <v>90451975000</v>
+        <v>78812326300</v>
       </c>
       <c r="G102">
         <v>91460000</v>
@@ -5478,13 +5478,13 @@
         <v>7427500</v>
       </c>
       <c r="I102">
-        <v>121933974000</v>
+        <v>107179443300</v>
       </c>
       <c r="J102" t="str">
         <v>2023-02-08T14:02:00.000Z</v>
       </c>
       <c r="K102">
-        <v>6096958007000</v>
+        <v>5510128424000</v>
       </c>
       <c r="L102">
         <v>346606000</v>
@@ -5493,13 +5493,13 @@
         <v>3941900</v>
       </c>
       <c r="N102">
-        <v>59061436000</v>
+        <v>50536669300</v>
       </c>
       <c r="O102">
         <v>-6511500</v>
       </c>
       <c r="P102">
-        <v>148838750000</v>
+        <v>84059893700</v>
       </c>
     </row>
     <row r="103">
@@ -5516,10 +5516,10 @@
         <v>9500</v>
       </c>
       <c r="E103">
-        <v>34108239000</v>
+        <v>32742805800</v>
       </c>
       <c r="F103">
-        <v>106913116000</v>
+        <v>89286760000</v>
       </c>
       <c r="G103">
         <v>179336000</v>
@@ -5528,13 +5528,13 @@
         <v>7811100</v>
       </c>
       <c r="I103">
-        <v>141200691000</v>
+        <v>122208901800</v>
       </c>
       <c r="J103" t="str">
         <v>2023-02-08T14:04:00.000Z</v>
       </c>
       <c r="K103">
-        <v>6238158698000</v>
+        <v>5632337325800</v>
       </c>
       <c r="L103">
         <v>354417100</v>
@@ -5543,13 +5543,13 @@
         <v>3637400</v>
       </c>
       <c r="N103">
-        <v>72804877000</v>
+        <v>56543954200</v>
       </c>
       <c r="O103">
         <v>-2874100</v>
       </c>
       <c r="P103">
-        <v>221643627000</v>
+        <v>140603847900</v>
       </c>
     </row>
     <row r="104">
@@ -5566,10 +5566,10 @@
         <v>8900</v>
       </c>
       <c r="E104">
-        <v>27128451000</v>
+        <v>23717765100</v>
       </c>
       <c r="F104">
-        <v>99131687000</v>
+        <v>83649185000</v>
       </c>
       <c r="G104">
         <v>155841000</v>
@@ -5578,13 +5578,13 @@
         <v>6928800</v>
       </c>
       <c r="I104">
-        <v>126415979000</v>
+        <v>107522791100</v>
       </c>
       <c r="J104" t="str">
         <v>2023-02-08T14:06:00.000Z</v>
       </c>
       <c r="K104">
-        <v>6364574677000</v>
+        <v>5739860116900</v>
       </c>
       <c r="L104">
         <v>361345900</v>
@@ -5593,13 +5593,13 @@
         <v>4157300</v>
       </c>
       <c r="N104">
-        <v>72003236000</v>
+        <v>59931419900</v>
       </c>
       <c r="O104">
         <v>1283200</v>
       </c>
       <c r="P104">
-        <v>293646863000</v>
+        <v>200535267800</v>
       </c>
     </row>
     <row r="105">
@@ -5616,10 +5616,10 @@
         <v>46800</v>
       </c>
       <c r="E105">
-        <v>43691534000</v>
+        <v>39601927700</v>
       </c>
       <c r="F105">
-        <v>168818423000</v>
+        <v>157913538800</v>
       </c>
       <c r="G105">
         <v>433159000</v>
@@ -5628,13 +5628,13 @@
         <v>12361300</v>
       </c>
       <c r="I105">
-        <v>212943116000</v>
+        <v>197948625500</v>
       </c>
       <c r="J105" t="str">
         <v>2023-02-08T14:08:00.000Z</v>
       </c>
       <c r="K105">
-        <v>6577517793000</v>
+        <v>5937808742400</v>
       </c>
       <c r="L105">
         <v>373707200</v>
@@ -5643,13 +5643,13 @@
         <v>7614100</v>
       </c>
       <c r="N105">
-        <v>125126889000</v>
+        <v>118311611100</v>
       </c>
       <c r="O105">
         <v>8897300</v>
       </c>
       <c r="P105">
-        <v>418773752000</v>
+        <v>318846878900</v>
       </c>
     </row>
     <row r="106">
@@ -5666,25 +5666,25 @@
         <v>4600</v>
       </c>
       <c r="E106">
-        <v>61721049000</v>
+        <v>49864017900</v>
       </c>
       <c r="F106">
-        <v>106641303000</v>
+        <v>100969380600</v>
       </c>
       <c r="G106">
-        <v>120170000</v>
+        <v>72717500</v>
       </c>
       <c r="H106">
         <v>9634500</v>
       </c>
       <c r="I106">
-        <v>168482522000</v>
+        <v>150906116000</v>
       </c>
       <c r="J106" t="str">
         <v>2023-02-08T14:10:00.000Z</v>
       </c>
       <c r="K106">
-        <v>6746000315000</v>
+        <v>6088714858400</v>
       </c>
       <c r="L106">
         <v>383341700</v>
@@ -5693,13 +5693,13 @@
         <v>3139500</v>
       </c>
       <c r="N106">
-        <v>44920254000</v>
+        <v>51105362700</v>
       </c>
       <c r="O106">
         <v>12036800</v>
       </c>
       <c r="P106">
-        <v>463694006000</v>
+        <v>369952241600</v>
       </c>
     </row>
     <row r="107">
@@ -5716,10 +5716,10 @@
         <v>39700</v>
       </c>
       <c r="E107">
-        <v>76367993000</v>
+        <v>67506962900</v>
       </c>
       <c r="F107">
-        <v>61340643000</v>
+        <v>51730662600</v>
       </c>
       <c r="G107">
         <v>544020000</v>
@@ -5728,13 +5728,13 @@
         <v>7693800</v>
       </c>
       <c r="I107">
-        <v>138252656000</v>
+        <v>119781645500</v>
       </c>
       <c r="J107" t="str">
         <v>2023-02-08T14:12:00.000Z</v>
       </c>
       <c r="K107">
-        <v>6884252971000</v>
+        <v>6208496503900</v>
       </c>
       <c r="L107">
         <v>391035500</v>
@@ -5743,13 +5743,13 @@
         <v>-1400900</v>
       </c>
       <c r="N107">
-        <v>-15027350000</v>
+        <v>-15776300300</v>
       </c>
       <c r="O107">
         <v>10635900</v>
       </c>
       <c r="P107">
-        <v>448666656000</v>
+        <v>354175941300</v>
       </c>
     </row>
     <row r="108">
@@ -5766,10 +5766,10 @@
         <v>18700</v>
       </c>
       <c r="E108">
-        <v>96784844000</v>
+        <v>77869078700</v>
       </c>
       <c r="F108">
-        <v>33529725000</v>
+        <v>28219440600</v>
       </c>
       <c r="G108">
         <v>117494000</v>
@@ -5778,13 +5778,13 @@
         <v>7722500</v>
       </c>
       <c r="I108">
-        <v>130432063000</v>
+        <v>106206013300</v>
       </c>
       <c r="J108" t="str">
         <v>2023-02-08T14:14:00.000Z</v>
       </c>
       <c r="K108">
-        <v>7014685034000</v>
+        <v>6314702517200</v>
       </c>
       <c r="L108">
         <v>398758000</v>
@@ -5793,13 +5793,13 @@
         <v>-3784200</v>
       </c>
       <c r="N108">
-        <v>-63255119000</v>
+        <v>-49649638100</v>
       </c>
       <c r="O108">
         <v>6851700</v>
       </c>
       <c r="P108">
-        <v>385411537000</v>
+        <v>304526303200</v>
       </c>
     </row>
     <row r="109">
@@ -5816,10 +5816,10 @@
         <v>16200</v>
       </c>
       <c r="E109">
-        <v>85248100000</v>
+        <v>78508146700</v>
       </c>
       <c r="F109">
-        <v>28668015000</v>
+        <v>24116670900</v>
       </c>
       <c r="G109">
         <v>329110000</v>
@@ -5828,13 +5828,13 @@
         <v>6176800</v>
       </c>
       <c r="I109">
-        <v>114245225000</v>
+        <v>102953927600</v>
       </c>
       <c r="J109" t="str">
         <v>2023-02-08T14:16:00.000Z</v>
       </c>
       <c r="K109">
-        <v>7128930259000</v>
+        <v>6417656444800</v>
       </c>
       <c r="L109">
         <v>404934800</v>
@@ -5843,13 +5843,13 @@
         <v>-3159600</v>
       </c>
       <c r="N109">
-        <v>-56580085000</v>
+        <v>-54391475800</v>
       </c>
       <c r="O109">
         <v>3692100</v>
       </c>
       <c r="P109">
-        <v>328831452000</v>
+        <v>250134827400</v>
       </c>
     </row>
     <row r="110">
@@ -5866,25 +5866,25 @@
         <v>3300</v>
       </c>
       <c r="E110">
-        <v>75468903000</v>
+        <v>68092187100</v>
       </c>
       <c r="F110">
-        <v>29080150000</v>
+        <v>27121310800</v>
       </c>
       <c r="G110">
-        <v>50715000</v>
+        <v>49316400</v>
       </c>
       <c r="H110">
         <v>5257900</v>
       </c>
       <c r="I110">
-        <v>104599768000</v>
+        <v>95262814300</v>
       </c>
       <c r="J110" t="str">
         <v>2023-02-08T14:18:00.000Z</v>
       </c>
       <c r="K110">
-        <v>7233530027000</v>
+        <v>6512919259100</v>
       </c>
       <c r="L110">
         <v>410192700</v>
@@ -5893,13 +5893,13 @@
         <v>-2322800</v>
       </c>
       <c r="N110">
-        <v>-46388753000</v>
+        <v>-40970876300</v>
       </c>
       <c r="O110">
         <v>1369300</v>
       </c>
       <c r="P110">
-        <v>282442699000</v>
+        <v>209163951100</v>
       </c>
     </row>
     <row r="111">
@@ -5916,10 +5916,10 @@
         <v>11100</v>
       </c>
       <c r="E111">
-        <v>54036910000</v>
+        <v>47354099500</v>
       </c>
       <c r="F111">
-        <v>32879900000</v>
+        <v>28534050200</v>
       </c>
       <c r="G111">
         <v>118044000</v>
@@ -5928,13 +5928,13 @@
         <v>4378000</v>
       </c>
       <c r="I111">
-        <v>87034854000</v>
+        <v>76006193700</v>
       </c>
       <c r="J111" t="str">
         <v>2023-02-08T14:20:00.000Z</v>
       </c>
       <c r="K111">
-        <v>7320564881000</v>
+        <v>6588925452800</v>
       </c>
       <c r="L111">
         <v>414570700</v>
@@ -5943,13 +5943,13 @@
         <v>-985700</v>
       </c>
       <c r="N111">
-        <v>-21157010000</v>
+        <v>-18820049300</v>
       </c>
       <c r="O111">
         <v>383600</v>
       </c>
       <c r="P111">
-        <v>261285689000</v>
+        <v>190343901800</v>
       </c>
     </row>
     <row r="112">
@@ -5966,25 +5966,25 @@
         <v>21400</v>
       </c>
       <c r="E112">
-        <v>44363358000</v>
+        <v>39465560700</v>
       </c>
       <c r="F112">
-        <v>25757549000</v>
+        <v>20749761800</v>
       </c>
       <c r="G112">
-        <v>634500000</v>
+        <v>618615900</v>
       </c>
       <c r="H112">
         <v>3744400</v>
       </c>
       <c r="I112">
-        <v>70755407000</v>
+        <v>60833938400</v>
       </c>
       <c r="J112" t="str">
         <v>2023-02-08T14:22:00.000Z</v>
       </c>
       <c r="K112">
-        <v>7391320288000</v>
+        <v>6649759391200</v>
       </c>
       <c r="L112">
         <v>418315100</v>
@@ -5993,13 +5993,13 @@
         <v>-879600</v>
       </c>
       <c r="N112">
-        <v>-18605809000</v>
+        <v>-18715798900</v>
       </c>
       <c r="O112">
         <v>-496000</v>
       </c>
       <c r="P112">
-        <v>242679880000</v>
+        <v>171628102900</v>
       </c>
     </row>
     <row r="113">
@@ -6016,10 +6016,10 @@
         <v>8700</v>
       </c>
       <c r="E113">
-        <v>33129048000</v>
+        <v>29850629700</v>
       </c>
       <c r="F113">
-        <v>34448401000</v>
+        <v>29486068300</v>
       </c>
       <c r="G113">
         <v>544815000</v>
@@ -6028,13 +6028,13 @@
         <v>3805400</v>
       </c>
       <c r="I113">
-        <v>68122264000</v>
+        <v>59881513000</v>
       </c>
       <c r="J113" t="str">
         <v>2023-02-08T14:24:00.000Z</v>
       </c>
       <c r="K113">
-        <v>7459442552000</v>
+        <v>6709640904200</v>
       </c>
       <c r="L113">
         <v>422120500</v>
@@ -6043,13 +6043,13 @@
         <v>-226100</v>
       </c>
       <c r="N113">
-        <v>1319353000</v>
+        <v>-364561400</v>
       </c>
       <c r="O113">
         <v>-722100</v>
       </c>
       <c r="P113">
-        <v>243999233000</v>
+        <v>171263541500</v>
       </c>
     </row>
     <row r="114">
@@ -6066,10 +6066,10 @@
         <v>15400</v>
       </c>
       <c r="E114">
-        <v>41912179000</v>
+        <v>39129064900</v>
       </c>
       <c r="F114">
-        <v>28053984000</v>
+        <v>23849792400</v>
       </c>
       <c r="G114">
         <v>347032000</v>
@@ -6078,13 +6078,13 @@
         <v>3602500</v>
       </c>
       <c r="I114">
-        <v>70313195000</v>
+        <v>63325889300</v>
       </c>
       <c r="J114" t="str">
         <v>2023-02-08T14:26:00.000Z</v>
       </c>
       <c r="K114">
-        <v>7529755747000</v>
+        <v>6772966793500</v>
       </c>
       <c r="L114">
         <v>425723000</v>
@@ -6093,13 +6093,13 @@
         <v>-409300</v>
       </c>
       <c r="N114">
-        <v>-13858195000</v>
+        <v>-15279272500</v>
       </c>
       <c r="O114">
         <v>-1131400</v>
       </c>
       <c r="P114">
-        <v>230141038000</v>
+        <v>155984269000</v>
       </c>
     </row>
     <row r="115">
@@ -6116,10 +6116,10 @@
         <v>37600</v>
       </c>
       <c r="E115">
-        <v>48555788000</v>
+        <v>46501943900</v>
       </c>
       <c r="F115">
-        <v>43527001000</v>
+        <v>36354880300</v>
       </c>
       <c r="G115">
         <v>471502000</v>
@@ -6128,13 +6128,13 @@
         <v>5172800</v>
       </c>
       <c r="I115">
-        <v>92554291000</v>
+        <v>83328326200</v>
       </c>
       <c r="J115" t="str">
         <v>2023-02-08T14:28:00.000Z</v>
       </c>
       <c r="K115">
-        <v>7622310038000</v>
+        <v>6856295119700</v>
       </c>
       <c r="L115">
         <v>430895800</v>
@@ -6143,13 +6143,13 @@
         <v>-311800</v>
       </c>
       <c r="N115">
-        <v>-5028787000</v>
+        <v>-10147063600</v>
       </c>
       <c r="O115">
         <v>-1443200</v>
       </c>
       <c r="P115">
-        <v>225112251000</v>
+        <v>145837205400</v>
       </c>
     </row>
     <row r="116">
@@ -6184,7 +6184,7 @@
         <v>2023-02-08T14:30:00.000Z</v>
       </c>
       <c r="K116">
-        <v>7622378324000</v>
+        <v>6856363405700</v>
       </c>
       <c r="L116">
         <v>430903600</v>
@@ -6199,7 +6199,7 @@
         <v>-1442200</v>
       </c>
       <c r="P116">
-        <v>225114957000</v>
+        <v>145839911400</v>
       </c>
     </row>
     <row r="117">
@@ -6216,25 +6216,25 @@
         <v>19520200</v>
       </c>
       <c r="E117">
-        <v>3685830000</v>
+        <v>2094722700</v>
       </c>
       <c r="F117">
-        <v>4825036000</v>
+        <v>4125336400</v>
       </c>
       <c r="G117">
-        <v>433996930000</v>
+        <v>306489964600</v>
       </c>
       <c r="H117">
         <v>20327500</v>
       </c>
       <c r="I117">
-        <v>442507796000</v>
+        <v>312710023700</v>
       </c>
       <c r="J117" t="str">
         <v>2023-02-08T14:44:00.000Z</v>
       </c>
       <c r="K117">
-        <v>8064886120000</v>
+        <v>7169073429400</v>
       </c>
       <c r="L117">
         <v>451231100</v>
@@ -6243,13 +6243,13 @@
         <v>-205100</v>
       </c>
       <c r="N117">
-        <v>1139206000</v>
+        <v>2030613700</v>
       </c>
       <c r="O117">
         <v>-1647300</v>
       </c>
       <c r="P117">
-        <v>226254163000</v>
+        <v>147870525100</v>
       </c>
     </row>
   </sheetData>

--- a/name/vnindex/20230208/VNINDEX_HOSE_5p_20230208.xlsx
+++ b/name/vnindex/20230208/VNINDEX_HOSE_5p_20230208.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P117"/>
+  <dimension ref="A1:AC117"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -451,6 +451,45 @@
       <c r="P1" t="str">
         <v>acum_busd_val</v>
       </c>
+      <c r="Q1" t="str">
+        <v>acum_val_bu</v>
+      </c>
+      <c r="R1" t="str">
+        <v>acum_val_sd</v>
+      </c>
+      <c r="S1" t="str">
+        <v>accum_bu</v>
+      </c>
+      <c r="T1" t="str">
+        <v>accum_sd</v>
+      </c>
+      <c r="U1" t="str">
+        <v>avg_val_bu</v>
+      </c>
+      <c r="V1" t="str">
+        <v>avg_val_sd</v>
+      </c>
+      <c r="W1" t="str">
+        <v>avg_val</v>
+      </c>
+      <c r="X1" t="str">
+        <v>avg_vol</v>
+      </c>
+      <c r="Y1" t="str">
+        <v>avg_bu</v>
+      </c>
+      <c r="Z1" t="str">
+        <v>avg_sd</v>
+      </c>
+      <c r="AA1" t="str">
+        <v>avg_busd</v>
+      </c>
+      <c r="AB1" t="str">
+        <v>avg_busd_val</v>
+      </c>
+      <c r="AC1" t="str">
+        <v>rbusd</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2">
@@ -501,6 +540,45 @@
       <c r="P2">
         <v>6760061900</v>
       </c>
+      <c r="Q2">
+        <v>29563703900</v>
+      </c>
+      <c r="R2">
+        <v>22803642000</v>
+      </c>
+      <c r="S2">
+        <v>2474000</v>
+      </c>
+      <c r="T2">
+        <v>1307700</v>
+      </c>
+      <c r="U2">
+        <v>29945622829.3</v>
+      </c>
+      <c r="V2">
+        <v>28670876923.3</v>
+      </c>
+      <c r="W2">
+        <v>61802357150</v>
+      </c>
+      <c r="X2">
+        <v>3889923.3</v>
+      </c>
+      <c r="Y2">
+        <v>1837842.2</v>
+      </c>
+      <c r="Z2">
+        <v>1852043.1</v>
+      </c>
+      <c r="AA2">
+        <v>-14200.9</v>
+      </c>
+      <c r="AB2">
+        <v>1274745906</v>
+      </c>
+      <c r="AC2">
+        <v>5.3</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3">
@@ -551,6 +629,45 @@
       <c r="P3">
         <v>23248014100</v>
       </c>
+      <c r="Q3">
+        <v>64217870200</v>
+      </c>
+      <c r="R3">
+        <v>40969856100</v>
+      </c>
+      <c r="S3">
+        <v>4881500</v>
+      </c>
+      <c r="T3">
+        <v>2450600</v>
+      </c>
+      <c r="U3">
+        <v>29945622829.3</v>
+      </c>
+      <c r="V3">
+        <v>28670876923.3</v>
+      </c>
+      <c r="W3">
+        <v>61802357150</v>
+      </c>
+      <c r="X3">
+        <v>3889923.3</v>
+      </c>
+      <c r="Y3">
+        <v>1837842.2</v>
+      </c>
+      <c r="Z3">
+        <v>1852043.1</v>
+      </c>
+      <c r="AA3">
+        <v>-14200.9</v>
+      </c>
+      <c r="AB3">
+        <v>1274745906</v>
+      </c>
+      <c r="AC3">
+        <v>12.9</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4">
@@ -601,6 +718,45 @@
       <c r="P4">
         <v>23064606500</v>
       </c>
+      <c r="Q4">
+        <v>88748669100</v>
+      </c>
+      <c r="R4">
+        <v>65684062600</v>
+      </c>
+      <c r="S4">
+        <v>6466400</v>
+      </c>
+      <c r="T4">
+        <v>3976900</v>
+      </c>
+      <c r="U4">
+        <v>29945622829.3</v>
+      </c>
+      <c r="V4">
+        <v>28670876923.3</v>
+      </c>
+      <c r="W4">
+        <v>61802357150</v>
+      </c>
+      <c r="X4">
+        <v>3889923.3</v>
+      </c>
+      <c r="Y4">
+        <v>1837842.2</v>
+      </c>
+      <c r="Z4">
+        <v>1852043.1</v>
+      </c>
+      <c r="AA4">
+        <v>-14200.9</v>
+      </c>
+      <c r="AB4">
+        <v>1274745906</v>
+      </c>
+      <c r="AC4">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5">
@@ -651,6 +807,45 @@
       <c r="P5">
         <v>16379372400</v>
       </c>
+      <c r="Q5">
+        <v>107530512400</v>
+      </c>
+      <c r="R5">
+        <v>91151140000</v>
+      </c>
+      <c r="S5">
+        <v>7799800</v>
+      </c>
+      <c r="T5">
+        <v>5631300</v>
+      </c>
+      <c r="U5">
+        <v>29945622829.3</v>
+      </c>
+      <c r="V5">
+        <v>28670876923.3</v>
+      </c>
+      <c r="W5">
+        <v>61802357150</v>
+      </c>
+      <c r="X5">
+        <v>3889923.3</v>
+      </c>
+      <c r="Y5">
+        <v>1837842.2</v>
+      </c>
+      <c r="Z5">
+        <v>1852043.1</v>
+      </c>
+      <c r="AA5">
+        <v>-14200.9</v>
+      </c>
+      <c r="AB5">
+        <v>1274745906</v>
+      </c>
+      <c r="AC5">
+        <v>5.2</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6">
@@ -701,6 +896,45 @@
       <c r="P6">
         <v>-15589942800</v>
       </c>
+      <c r="Q6">
+        <v>119845851300</v>
+      </c>
+      <c r="R6">
+        <v>135435794100</v>
+      </c>
+      <c r="S6">
+        <v>8552300</v>
+      </c>
+      <c r="T6">
+        <v>8551900</v>
+      </c>
+      <c r="U6">
+        <v>29945622829.3</v>
+      </c>
+      <c r="V6">
+        <v>28670876923.3</v>
+      </c>
+      <c r="W6">
+        <v>61802357150</v>
+      </c>
+      <c r="X6">
+        <v>3889923.3</v>
+      </c>
+      <c r="Y6">
+        <v>1837842.2</v>
+      </c>
+      <c r="Z6">
+        <v>1852043.1</v>
+      </c>
+      <c r="AA6">
+        <v>-14200.9</v>
+      </c>
+      <c r="AB6">
+        <v>1274745906</v>
+      </c>
+      <c r="AC6">
+        <v>25.1</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7">
@@ -751,6 +985,45 @@
       <c r="P7">
         <v>-35105019200</v>
       </c>
+      <c r="Q7">
+        <v>133618546800</v>
+      </c>
+      <c r="R7">
+        <v>168723566000</v>
+      </c>
+      <c r="S7">
+        <v>9445600</v>
+      </c>
+      <c r="T7">
+        <v>11007600</v>
+      </c>
+      <c r="U7">
+        <v>29945622829.3</v>
+      </c>
+      <c r="V7">
+        <v>28670876923.3</v>
+      </c>
+      <c r="W7">
+        <v>61802357150</v>
+      </c>
+      <c r="X7">
+        <v>3889923.3</v>
+      </c>
+      <c r="Y7">
+        <v>1837842.2</v>
+      </c>
+      <c r="Z7">
+        <v>1852043.1</v>
+      </c>
+      <c r="AA7">
+        <v>-14200.9</v>
+      </c>
+      <c r="AB7">
+        <v>1274745906</v>
+      </c>
+      <c r="AC7">
+        <v>15.3</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8">
@@ -801,6 +1074,45 @@
       <c r="P8">
         <v>-54704619500</v>
       </c>
+      <c r="Q8">
+        <v>145733998400</v>
+      </c>
+      <c r="R8">
+        <v>200438617900</v>
+      </c>
+      <c r="S8">
+        <v>10309900</v>
+      </c>
+      <c r="T8">
+        <v>13135900</v>
+      </c>
+      <c r="U8">
+        <v>29945622829.3</v>
+      </c>
+      <c r="V8">
+        <v>28670876923.3</v>
+      </c>
+      <c r="W8">
+        <v>61802357150</v>
+      </c>
+      <c r="X8">
+        <v>3889923.3</v>
+      </c>
+      <c r="Y8">
+        <v>1837842.2</v>
+      </c>
+      <c r="Z8">
+        <v>1852043.1</v>
+      </c>
+      <c r="AA8">
+        <v>-14200.9</v>
+      </c>
+      <c r="AB8">
+        <v>1274745906</v>
+      </c>
+      <c r="AC8">
+        <v>15.4</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9">
@@ -851,6 +1163,45 @@
       <c r="P9">
         <v>-59664038200</v>
       </c>
+      <c r="Q9">
+        <v>163239486300</v>
+      </c>
+      <c r="R9">
+        <v>222903524500</v>
+      </c>
+      <c r="S9">
+        <v>11325200</v>
+      </c>
+      <c r="T9">
+        <v>14603400</v>
+      </c>
+      <c r="U9">
+        <v>29945622829.3</v>
+      </c>
+      <c r="V9">
+        <v>28670876923.3</v>
+      </c>
+      <c r="W9">
+        <v>61802357150</v>
+      </c>
+      <c r="X9">
+        <v>3889923.3</v>
+      </c>
+      <c r="Y9">
+        <v>1837842.2</v>
+      </c>
+      <c r="Z9">
+        <v>1852043.1</v>
+      </c>
+      <c r="AA9">
+        <v>-14200.9</v>
+      </c>
+      <c r="AB9">
+        <v>1274745906</v>
+      </c>
+      <c r="AC9">
+        <v>3.9</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10">
@@ -901,6 +1252,45 @@
       <c r="P10">
         <v>-52484883600</v>
       </c>
+      <c r="Q10">
+        <v>183561243800</v>
+      </c>
+      <c r="R10">
+        <v>236046127400</v>
+      </c>
+      <c r="S10">
+        <v>12736000</v>
+      </c>
+      <c r="T10">
+        <v>15497600</v>
+      </c>
+      <c r="U10">
+        <v>29945622829.3</v>
+      </c>
+      <c r="V10">
+        <v>28670876923.3</v>
+      </c>
+      <c r="W10">
+        <v>61802357150</v>
+      </c>
+      <c r="X10">
+        <v>3889923.3</v>
+      </c>
+      <c r="Y10">
+        <v>1837842.2</v>
+      </c>
+      <c r="Z10">
+        <v>1852043.1</v>
+      </c>
+      <c r="AA10">
+        <v>-14200.9</v>
+      </c>
+      <c r="AB10">
+        <v>1274745906</v>
+      </c>
+      <c r="AC10">
+        <v>5.6</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11">
@@ -951,6 +1341,45 @@
       <c r="P11">
         <v>-50083440700</v>
       </c>
+      <c r="Q11">
+        <v>202518370900</v>
+      </c>
+      <c r="R11">
+        <v>252601811600</v>
+      </c>
+      <c r="S11">
+        <v>14270900</v>
+      </c>
+      <c r="T11">
+        <v>16432700</v>
+      </c>
+      <c r="U11">
+        <v>29945622829.3</v>
+      </c>
+      <c r="V11">
+        <v>28670876923.3</v>
+      </c>
+      <c r="W11">
+        <v>61802357150</v>
+      </c>
+      <c r="X11">
+        <v>3889923.3</v>
+      </c>
+      <c r="Y11">
+        <v>1837842.2</v>
+      </c>
+      <c r="Z11">
+        <v>1852043.1</v>
+      </c>
+      <c r="AA11">
+        <v>-14200.9</v>
+      </c>
+      <c r="AB11">
+        <v>1274745906</v>
+      </c>
+      <c r="AC11">
+        <v>1.9</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12">
@@ -1001,6 +1430,45 @@
       <c r="P12">
         <v>-42281989600</v>
       </c>
+      <c r="Q12">
+        <v>220937675200</v>
+      </c>
+      <c r="R12">
+        <v>263219664800</v>
+      </c>
+      <c r="S12">
+        <v>15723500</v>
+      </c>
+      <c r="T12">
+        <v>17240400</v>
+      </c>
+      <c r="U12">
+        <v>29945622829.3</v>
+      </c>
+      <c r="V12">
+        <v>28670876923.3</v>
+      </c>
+      <c r="W12">
+        <v>61802357150</v>
+      </c>
+      <c r="X12">
+        <v>3889923.3</v>
+      </c>
+      <c r="Y12">
+        <v>1837842.2</v>
+      </c>
+      <c r="Z12">
+        <v>1852043.1</v>
+      </c>
+      <c r="AA12">
+        <v>-14200.9</v>
+      </c>
+      <c r="AB12">
+        <v>1274745906</v>
+      </c>
+      <c r="AC12">
+        <v>6.1</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13">
@@ -1051,6 +1519,45 @@
       <c r="P13">
         <v>-38183736800</v>
       </c>
+      <c r="Q13">
+        <v>237950041000</v>
+      </c>
+      <c r="R13">
+        <v>276133777800</v>
+      </c>
+      <c r="S13">
+        <v>16819400</v>
+      </c>
+      <c r="T13">
+        <v>18344400</v>
+      </c>
+      <c r="U13">
+        <v>29945622829.3</v>
+      </c>
+      <c r="V13">
+        <v>28670876923.3</v>
+      </c>
+      <c r="W13">
+        <v>61802357150</v>
+      </c>
+      <c r="X13">
+        <v>3889923.3</v>
+      </c>
+      <c r="Y13">
+        <v>1837842.2</v>
+      </c>
+      <c r="Z13">
+        <v>1852043.1</v>
+      </c>
+      <c r="AA13">
+        <v>-14200.9</v>
+      </c>
+      <c r="AB13">
+        <v>1274745906</v>
+      </c>
+      <c r="AC13">
+        <v>3.2</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14">
@@ -1101,6 +1608,45 @@
       <c r="P14">
         <v>-38549586100</v>
       </c>
+      <c r="Q14">
+        <v>255996737000</v>
+      </c>
+      <c r="R14">
+        <v>294546323100</v>
+      </c>
+      <c r="S14">
+        <v>17722100</v>
+      </c>
+      <c r="T14">
+        <v>19595500</v>
+      </c>
+      <c r="U14">
+        <v>29945622829.3</v>
+      </c>
+      <c r="V14">
+        <v>28670876923.3</v>
+      </c>
+      <c r="W14">
+        <v>61802357150</v>
+      </c>
+      <c r="X14">
+        <v>3889923.3</v>
+      </c>
+      <c r="Y14">
+        <v>1837842.2</v>
+      </c>
+      <c r="Z14">
+        <v>1852043.1</v>
+      </c>
+      <c r="AA14">
+        <v>-14200.9</v>
+      </c>
+      <c r="AB14">
+        <v>1274745906</v>
+      </c>
+      <c r="AC14">
+        <v>0.3</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15">
@@ -1151,6 +1697,45 @@
       <c r="P15">
         <v>-38706639400</v>
       </c>
+      <c r="Q15">
+        <v>270083444400</v>
+      </c>
+      <c r="R15">
+        <v>308790083800</v>
+      </c>
+      <c r="S15">
+        <v>18640800</v>
+      </c>
+      <c r="T15">
+        <v>20586600</v>
+      </c>
+      <c r="U15">
+        <v>29945622829.3</v>
+      </c>
+      <c r="V15">
+        <v>28670876923.3</v>
+      </c>
+      <c r="W15">
+        <v>61802357150</v>
+      </c>
+      <c r="X15">
+        <v>3889923.3</v>
+      </c>
+      <c r="Y15">
+        <v>1837842.2</v>
+      </c>
+      <c r="Z15">
+        <v>1852043.1</v>
+      </c>
+      <c r="AA15">
+        <v>-14200.9</v>
+      </c>
+      <c r="AB15">
+        <v>1274745906</v>
+      </c>
+      <c r="AC15">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16">
@@ -1201,6 +1786,45 @@
       <c r="P16">
         <v>-33456035000</v>
       </c>
+      <c r="Q16">
+        <v>289178458100</v>
+      </c>
+      <c r="R16">
+        <v>322634493100</v>
+      </c>
+      <c r="S16">
+        <v>19854200</v>
+      </c>
+      <c r="T16">
+        <v>21564500</v>
+      </c>
+      <c r="U16">
+        <v>29945622829.3</v>
+      </c>
+      <c r="V16">
+        <v>28670876923.3</v>
+      </c>
+      <c r="W16">
+        <v>61802357150</v>
+      </c>
+      <c r="X16">
+        <v>3889923.3</v>
+      </c>
+      <c r="Y16">
+        <v>1837842.2</v>
+      </c>
+      <c r="Z16">
+        <v>1852043.1</v>
+      </c>
+      <c r="AA16">
+        <v>-14200.9</v>
+      </c>
+      <c r="AB16">
+        <v>1274745906</v>
+      </c>
+      <c r="AC16">
+        <v>4.1</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17">
@@ -1251,6 +1875,45 @@
       <c r="P17">
         <v>-33699534200</v>
       </c>
+      <c r="Q17">
+        <v>302861857600</v>
+      </c>
+      <c r="R17">
+        <v>336561391800</v>
+      </c>
+      <c r="S17">
+        <v>20661000</v>
+      </c>
+      <c r="T17">
+        <v>22689700</v>
+      </c>
+      <c r="U17">
+        <v>29945622829.3</v>
+      </c>
+      <c r="V17">
+        <v>28670876923.3</v>
+      </c>
+      <c r="W17">
+        <v>61802357150</v>
+      </c>
+      <c r="X17">
+        <v>3889923.3</v>
+      </c>
+      <c r="Y17">
+        <v>1837842.2</v>
+      </c>
+      <c r="Z17">
+        <v>1852043.1</v>
+      </c>
+      <c r="AA17">
+        <v>-14200.9</v>
+      </c>
+      <c r="AB17">
+        <v>1274745906</v>
+      </c>
+      <c r="AC17">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18">
@@ -1301,6 +1964,45 @@
       <c r="P18">
         <v>-39265017300</v>
       </c>
+      <c r="Q18">
+        <v>314218670200</v>
+      </c>
+      <c r="R18">
+        <v>353483687500</v>
+      </c>
+      <c r="S18">
+        <v>21438700</v>
+      </c>
+      <c r="T18">
+        <v>23769300</v>
+      </c>
+      <c r="U18">
+        <v>29945622829.3</v>
+      </c>
+      <c r="V18">
+        <v>28670876923.3</v>
+      </c>
+      <c r="W18">
+        <v>61802357150</v>
+      </c>
+      <c r="X18">
+        <v>3889923.3</v>
+      </c>
+      <c r="Y18">
+        <v>1837842.2</v>
+      </c>
+      <c r="Z18">
+        <v>1852043.1</v>
+      </c>
+      <c r="AA18">
+        <v>-14200.9</v>
+      </c>
+      <c r="AB18">
+        <v>1274745906</v>
+      </c>
+      <c r="AC18">
+        <v>4.4</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19">
@@ -1351,6 +2053,45 @@
       <c r="P19">
         <v>-51625199400</v>
       </c>
+      <c r="Q19">
+        <v>327362440700</v>
+      </c>
+      <c r="R19">
+        <v>378987640100</v>
+      </c>
+      <c r="S19">
+        <v>22257200</v>
+      </c>
+      <c r="T19">
+        <v>25219000</v>
+      </c>
+      <c r="U19">
+        <v>29945622829.3</v>
+      </c>
+      <c r="V19">
+        <v>28670876923.3</v>
+      </c>
+      <c r="W19">
+        <v>61802357150</v>
+      </c>
+      <c r="X19">
+        <v>3889923.3</v>
+      </c>
+      <c r="Y19">
+        <v>1837842.2</v>
+      </c>
+      <c r="Z19">
+        <v>1852043.1</v>
+      </c>
+      <c r="AA19">
+        <v>-14200.9</v>
+      </c>
+      <c r="AB19">
+        <v>1274745906</v>
+      </c>
+      <c r="AC19">
+        <v>9.7</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20">
@@ -1401,6 +2142,45 @@
       <c r="P20">
         <v>-62061190000</v>
       </c>
+      <c r="Q20">
+        <v>337395721300</v>
+      </c>
+      <c r="R20">
+        <v>399456911300</v>
+      </c>
+      <c r="S20">
+        <v>22927300</v>
+      </c>
+      <c r="T20">
+        <v>26460300</v>
+      </c>
+      <c r="U20">
+        <v>29945622829.3</v>
+      </c>
+      <c r="V20">
+        <v>28670876923.3</v>
+      </c>
+      <c r="W20">
+        <v>61802357150</v>
+      </c>
+      <c r="X20">
+        <v>3889923.3</v>
+      </c>
+      <c r="Y20">
+        <v>1837842.2</v>
+      </c>
+      <c r="Z20">
+        <v>1852043.1</v>
+      </c>
+      <c r="AA20">
+        <v>-14200.9</v>
+      </c>
+      <c r="AB20">
+        <v>1274745906</v>
+      </c>
+      <c r="AC20">
+        <v>8.2</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21">
@@ -1451,6 +2231,45 @@
       <c r="P21">
         <v>-57166278500</v>
       </c>
+      <c r="Q21">
+        <v>358808920700</v>
+      </c>
+      <c r="R21">
+        <v>415975199200</v>
+      </c>
+      <c r="S21">
+        <v>24022400</v>
+      </c>
+      <c r="T21">
+        <v>27484500</v>
+      </c>
+      <c r="U21">
+        <v>29945622829.3</v>
+      </c>
+      <c r="V21">
+        <v>28670876923.3</v>
+      </c>
+      <c r="W21">
+        <v>61802357150</v>
+      </c>
+      <c r="X21">
+        <v>3889923.3</v>
+      </c>
+      <c r="Y21">
+        <v>1837842.2</v>
+      </c>
+      <c r="Z21">
+        <v>1852043.1</v>
+      </c>
+      <c r="AA21">
+        <v>-14200.9</v>
+      </c>
+      <c r="AB21">
+        <v>1274745906</v>
+      </c>
+      <c r="AC21">
+        <v>3.8</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22">
@@ -1501,6 +2320,45 @@
       <c r="P22">
         <v>-49213287400</v>
       </c>
+      <c r="Q22">
+        <v>379685116000</v>
+      </c>
+      <c r="R22">
+        <v>428898403400</v>
+      </c>
+      <c r="S22">
+        <v>25363700</v>
+      </c>
+      <c r="T22">
+        <v>28279500</v>
+      </c>
+      <c r="U22">
+        <v>29945622829.3</v>
+      </c>
+      <c r="V22">
+        <v>28670876923.3</v>
+      </c>
+      <c r="W22">
+        <v>61802357150</v>
+      </c>
+      <c r="X22">
+        <v>3889923.3</v>
+      </c>
+      <c r="Y22">
+        <v>1837842.2</v>
+      </c>
+      <c r="Z22">
+        <v>1852043.1</v>
+      </c>
+      <c r="AA22">
+        <v>-14200.9</v>
+      </c>
+      <c r="AB22">
+        <v>1274745906</v>
+      </c>
+      <c r="AC22">
+        <v>6.2</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23">
@@ -1551,6 +2409,45 @@
       <c r="P23">
         <v>-28654143400</v>
       </c>
+      <c r="Q23">
+        <v>411901052000</v>
+      </c>
+      <c r="R23">
+        <v>440555195400</v>
+      </c>
+      <c r="S23">
+        <v>27300800</v>
+      </c>
+      <c r="T23">
+        <v>29004300</v>
+      </c>
+      <c r="U23">
+        <v>29945622829.3</v>
+      </c>
+      <c r="V23">
+        <v>28670876923.3</v>
+      </c>
+      <c r="W23">
+        <v>61802357150</v>
+      </c>
+      <c r="X23">
+        <v>3889923.3</v>
+      </c>
+      <c r="Y23">
+        <v>1837842.2</v>
+      </c>
+      <c r="Z23">
+        <v>1852043.1</v>
+      </c>
+      <c r="AA23">
+        <v>-14200.9</v>
+      </c>
+      <c r="AB23">
+        <v>1274745906</v>
+      </c>
+      <c r="AC23">
+        <v>16.1</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24">
@@ -1601,6 +2498,45 @@
       <c r="P24">
         <v>-20453969200</v>
       </c>
+      <c r="Q24">
+        <v>433274082000</v>
+      </c>
+      <c r="R24">
+        <v>453728051200</v>
+      </c>
+      <c r="S24">
+        <v>28902300</v>
+      </c>
+      <c r="T24">
+        <v>30100800</v>
+      </c>
+      <c r="U24">
+        <v>29945622829.3</v>
+      </c>
+      <c r="V24">
+        <v>28670876923.3</v>
+      </c>
+      <c r="W24">
+        <v>61802357150</v>
+      </c>
+      <c r="X24">
+        <v>3889923.3</v>
+      </c>
+      <c r="Y24">
+        <v>1837842.2</v>
+      </c>
+      <c r="Z24">
+        <v>1852043.1</v>
+      </c>
+      <c r="AA24">
+        <v>-14200.9</v>
+      </c>
+      <c r="AB24">
+        <v>1274745906</v>
+      </c>
+      <c r="AC24">
+        <v>6.4</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25">
@@ -1651,6 +2587,45 @@
       <c r="P25">
         <v>-3436465900</v>
       </c>
+      <c r="Q25">
+        <v>458811301100</v>
+      </c>
+      <c r="R25">
+        <v>462247767000</v>
+      </c>
+      <c r="S25">
+        <v>30509400</v>
+      </c>
+      <c r="T25">
+        <v>30673300</v>
+      </c>
+      <c r="U25">
+        <v>29945622829.3</v>
+      </c>
+      <c r="V25">
+        <v>28670876923.3</v>
+      </c>
+      <c r="W25">
+        <v>61802357150</v>
+      </c>
+      <c r="X25">
+        <v>3889923.3</v>
+      </c>
+      <c r="Y25">
+        <v>1837842.2</v>
+      </c>
+      <c r="Z25">
+        <v>1852043.1</v>
+      </c>
+      <c r="AA25">
+        <v>-14200.9</v>
+      </c>
+      <c r="AB25">
+        <v>1274745906</v>
+      </c>
+      <c r="AC25">
+        <v>13.3</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26">
@@ -1701,6 +2676,45 @@
       <c r="P26">
         <v>10732999700</v>
       </c>
+      <c r="Q26">
+        <v>480063543500</v>
+      </c>
+      <c r="R26">
+        <v>469330543800</v>
+      </c>
+      <c r="S26">
+        <v>31987600</v>
+      </c>
+      <c r="T26">
+        <v>31182000</v>
+      </c>
+      <c r="U26">
+        <v>29945622829.3</v>
+      </c>
+      <c r="V26">
+        <v>28670876923.3</v>
+      </c>
+      <c r="W26">
+        <v>61802357150</v>
+      </c>
+      <c r="X26">
+        <v>3889923.3</v>
+      </c>
+      <c r="Y26">
+        <v>1837842.2</v>
+      </c>
+      <c r="Z26">
+        <v>1852043.1</v>
+      </c>
+      <c r="AA26">
+        <v>-14200.9</v>
+      </c>
+      <c r="AB26">
+        <v>1274745906</v>
+      </c>
+      <c r="AC26">
+        <v>11.1</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27">
@@ -1751,6 +2765,45 @@
       <c r="P27">
         <v>10871457700</v>
       </c>
+      <c r="Q27">
+        <v>495572733700</v>
+      </c>
+      <c r="R27">
+        <v>484701276000</v>
+      </c>
+      <c r="S27">
+        <v>32929000</v>
+      </c>
+      <c r="T27">
+        <v>32312500</v>
+      </c>
+      <c r="U27">
+        <v>29945622829.3</v>
+      </c>
+      <c r="V27">
+        <v>28670876923.3</v>
+      </c>
+      <c r="W27">
+        <v>61802357150</v>
+      </c>
+      <c r="X27">
+        <v>3889923.3</v>
+      </c>
+      <c r="Y27">
+        <v>1837842.2</v>
+      </c>
+      <c r="Z27">
+        <v>1852043.1</v>
+      </c>
+      <c r="AA27">
+        <v>-14200.9</v>
+      </c>
+      <c r="AB27">
+        <v>1274745906</v>
+      </c>
+      <c r="AC27">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28">
@@ -1801,6 +2854,45 @@
       <c r="P28">
         <v>9539845200</v>
       </c>
+      <c r="Q28">
+        <v>506589993100</v>
+      </c>
+      <c r="R28">
+        <v>497050147900</v>
+      </c>
+      <c r="S28">
+        <v>33787400</v>
+      </c>
+      <c r="T28">
+        <v>33064600</v>
+      </c>
+      <c r="U28">
+        <v>29945622829.3</v>
+      </c>
+      <c r="V28">
+        <v>28670876923.3</v>
+      </c>
+      <c r="W28">
+        <v>61802357150</v>
+      </c>
+      <c r="X28">
+        <v>3889923.3</v>
+      </c>
+      <c r="Y28">
+        <v>1837842.2</v>
+      </c>
+      <c r="Z28">
+        <v>1852043.1</v>
+      </c>
+      <c r="AA28">
+        <v>-14200.9</v>
+      </c>
+      <c r="AB28">
+        <v>1274745906</v>
+      </c>
+      <c r="AC28">
+        <v>1</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29">
@@ -1851,6 +2943,45 @@
       <c r="P29">
         <v>7162047600</v>
       </c>
+      <c r="Q29">
+        <v>517428748600</v>
+      </c>
+      <c r="R29">
+        <v>510266701000</v>
+      </c>
+      <c r="S29">
+        <v>34589400</v>
+      </c>
+      <c r="T29">
+        <v>33838200</v>
+      </c>
+      <c r="U29">
+        <v>29945622829.3</v>
+      </c>
+      <c r="V29">
+        <v>28670876923.3</v>
+      </c>
+      <c r="W29">
+        <v>61802357150</v>
+      </c>
+      <c r="X29">
+        <v>3889923.3</v>
+      </c>
+      <c r="Y29">
+        <v>1837842.2</v>
+      </c>
+      <c r="Z29">
+        <v>1852043.1</v>
+      </c>
+      <c r="AA29">
+        <v>-14200.9</v>
+      </c>
+      <c r="AB29">
+        <v>1274745906</v>
+      </c>
+      <c r="AC29">
+        <v>1.9</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30">
@@ -1901,6 +3032,45 @@
       <c r="P30">
         <v>513043600</v>
       </c>
+      <c r="Q30">
+        <v>529079163400</v>
+      </c>
+      <c r="R30">
+        <v>528566119800</v>
+      </c>
+      <c r="S30">
+        <v>35333300</v>
+      </c>
+      <c r="T30">
+        <v>34915400</v>
+      </c>
+      <c r="U30">
+        <v>29945622829.3</v>
+      </c>
+      <c r="V30">
+        <v>28670876923.3</v>
+      </c>
+      <c r="W30">
+        <v>61802357150</v>
+      </c>
+      <c r="X30">
+        <v>3889923.3</v>
+      </c>
+      <c r="Y30">
+        <v>1837842.2</v>
+      </c>
+      <c r="Z30">
+        <v>1852043.1</v>
+      </c>
+      <c r="AA30">
+        <v>-14200.9</v>
+      </c>
+      <c r="AB30">
+        <v>1274745906</v>
+      </c>
+      <c r="AC30">
+        <v>5.2</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31">
@@ -1951,6 +3121,45 @@
       <c r="P31">
         <v>-7047370300</v>
       </c>
+      <c r="Q31">
+        <v>540920377100</v>
+      </c>
+      <c r="R31">
+        <v>547967747400</v>
+      </c>
+      <c r="S31">
+        <v>36019200</v>
+      </c>
+      <c r="T31">
+        <v>36135300</v>
+      </c>
+      <c r="U31">
+        <v>29945622829.3</v>
+      </c>
+      <c r="V31">
+        <v>28670876923.3</v>
+      </c>
+      <c r="W31">
+        <v>61802357150</v>
+      </c>
+      <c r="X31">
+        <v>3889923.3</v>
+      </c>
+      <c r="Y31">
+        <v>1837842.2</v>
+      </c>
+      <c r="Z31">
+        <v>1852043.1</v>
+      </c>
+      <c r="AA31">
+        <v>-14200.9</v>
+      </c>
+      <c r="AB31">
+        <v>1274745906</v>
+      </c>
+      <c r="AC31">
+        <v>5.9</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32">
@@ -2001,6 +3210,45 @@
       <c r="P32">
         <v>-14625815200</v>
       </c>
+      <c r="Q32">
+        <v>552019959300</v>
+      </c>
+      <c r="R32">
+        <v>566645774500</v>
+      </c>
+      <c r="S32">
+        <v>36629800</v>
+      </c>
+      <c r="T32">
+        <v>37417000</v>
+      </c>
+      <c r="U32">
+        <v>29945622829.3</v>
+      </c>
+      <c r="V32">
+        <v>28670876923.3</v>
+      </c>
+      <c r="W32">
+        <v>61802357150</v>
+      </c>
+      <c r="X32">
+        <v>3889923.3</v>
+      </c>
+      <c r="Y32">
+        <v>1837842.2</v>
+      </c>
+      <c r="Z32">
+        <v>1852043.1</v>
+      </c>
+      <c r="AA32">
+        <v>-14200.9</v>
+      </c>
+      <c r="AB32">
+        <v>1274745906</v>
+      </c>
+      <c r="AC32">
+        <v>5.9</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33">
@@ -2051,6 +3299,45 @@
       <c r="P33">
         <v>-29343503500</v>
       </c>
+      <c r="Q33">
+        <v>565541519300</v>
+      </c>
+      <c r="R33">
+        <v>594885022800</v>
+      </c>
+      <c r="S33">
+        <v>37360200</v>
+      </c>
+      <c r="T33">
+        <v>38933000</v>
+      </c>
+      <c r="U33">
+        <v>29945622829.3</v>
+      </c>
+      <c r="V33">
+        <v>28670876923.3</v>
+      </c>
+      <c r="W33">
+        <v>61802357150</v>
+      </c>
+      <c r="X33">
+        <v>3889923.3</v>
+      </c>
+      <c r="Y33">
+        <v>1837842.2</v>
+      </c>
+      <c r="Z33">
+        <v>1852043.1</v>
+      </c>
+      <c r="AA33">
+        <v>-14200.9</v>
+      </c>
+      <c r="AB33">
+        <v>1274745906</v>
+      </c>
+      <c r="AC33">
+        <v>11.5</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34">
@@ -2101,6 +3388,45 @@
       <c r="P34">
         <v>-18232990400</v>
       </c>
+      <c r="Q34">
+        <v>592035120400</v>
+      </c>
+      <c r="R34">
+        <v>610268110800</v>
+      </c>
+      <c r="S34">
+        <v>38655900</v>
+      </c>
+      <c r="T34">
+        <v>39884800</v>
+      </c>
+      <c r="U34">
+        <v>29945622829.3</v>
+      </c>
+      <c r="V34">
+        <v>28670876923.3</v>
+      </c>
+      <c r="W34">
+        <v>61802357150</v>
+      </c>
+      <c r="X34">
+        <v>3889923.3</v>
+      </c>
+      <c r="Y34">
+        <v>1837842.2</v>
+      </c>
+      <c r="Z34">
+        <v>1852043.1</v>
+      </c>
+      <c r="AA34">
+        <v>-14200.9</v>
+      </c>
+      <c r="AB34">
+        <v>1274745906</v>
+      </c>
+      <c r="AC34">
+        <v>8.7</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35">
@@ -2151,6 +3477,45 @@
       <c r="P35">
         <v>-12276109900</v>
       </c>
+      <c r="Q35">
+        <v>610867891600</v>
+      </c>
+      <c r="R35">
+        <v>623144001500</v>
+      </c>
+      <c r="S35">
+        <v>39748500</v>
+      </c>
+      <c r="T35">
+        <v>40664100</v>
+      </c>
+      <c r="U35">
+        <v>29945622829.3</v>
+      </c>
+      <c r="V35">
+        <v>28670876923.3</v>
+      </c>
+      <c r="W35">
+        <v>61802357150</v>
+      </c>
+      <c r="X35">
+        <v>3889923.3</v>
+      </c>
+      <c r="Y35">
+        <v>1837842.2</v>
+      </c>
+      <c r="Z35">
+        <v>1852043.1</v>
+      </c>
+      <c r="AA35">
+        <v>-14200.9</v>
+      </c>
+      <c r="AB35">
+        <v>1274745906</v>
+      </c>
+      <c r="AC35">
+        <v>4.7</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36">
@@ -2201,6 +3566,45 @@
       <c r="P36">
         <v>6416507500</v>
       </c>
+      <c r="Q36">
+        <v>639057176500</v>
+      </c>
+      <c r="R36">
+        <v>632640669000</v>
+      </c>
+      <c r="S36">
+        <v>41164000</v>
+      </c>
+      <c r="T36">
+        <v>41420200</v>
+      </c>
+      <c r="U36">
+        <v>29945622829.3</v>
+      </c>
+      <c r="V36">
+        <v>28670876923.3</v>
+      </c>
+      <c r="W36">
+        <v>61802357150</v>
+      </c>
+      <c r="X36">
+        <v>3889923.3</v>
+      </c>
+      <c r="Y36">
+        <v>1837842.2</v>
+      </c>
+      <c r="Z36">
+        <v>1852043.1</v>
+      </c>
+      <c r="AA36">
+        <v>-14200.9</v>
+      </c>
+      <c r="AB36">
+        <v>1274745906</v>
+      </c>
+      <c r="AC36">
+        <v>14.7</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37">
@@ -2251,6 +3655,45 @@
       <c r="P37">
         <v>24784480300</v>
       </c>
+      <c r="Q37">
+        <v>668125747000</v>
+      </c>
+      <c r="R37">
+        <v>643341266700</v>
+      </c>
+      <c r="S37">
+        <v>42850800</v>
+      </c>
+      <c r="T37">
+        <v>42038700</v>
+      </c>
+      <c r="U37">
+        <v>29945622829.3</v>
+      </c>
+      <c r="V37">
+        <v>28670876923.3</v>
+      </c>
+      <c r="W37">
+        <v>61802357150</v>
+      </c>
+      <c r="X37">
+        <v>3889923.3</v>
+      </c>
+      <c r="Y37">
+        <v>1837842.2</v>
+      </c>
+      <c r="Z37">
+        <v>1852043.1</v>
+      </c>
+      <c r="AA37">
+        <v>-14200.9</v>
+      </c>
+      <c r="AB37">
+        <v>1274745906</v>
+      </c>
+      <c r="AC37">
+        <v>14.4</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38">
@@ -2301,6 +3744,45 @@
       <c r="P38">
         <v>52573002300</v>
       </c>
+      <c r="Q38">
+        <v>704412392800</v>
+      </c>
+      <c r="R38">
+        <v>651839390500</v>
+      </c>
+      <c r="S38">
+        <v>44992700</v>
+      </c>
+      <c r="T38">
+        <v>42537500</v>
+      </c>
+      <c r="U38">
+        <v>29945622829.3</v>
+      </c>
+      <c r="V38">
+        <v>28670876923.3</v>
+      </c>
+      <c r="W38">
+        <v>61802357150</v>
+      </c>
+      <c r="X38">
+        <v>3889923.3</v>
+      </c>
+      <c r="Y38">
+        <v>1837842.2</v>
+      </c>
+      <c r="Z38">
+        <v>1852043.1</v>
+      </c>
+      <c r="AA38">
+        <v>-14200.9</v>
+      </c>
+      <c r="AB38">
+        <v>1274745906</v>
+      </c>
+      <c r="AC38">
+        <v>21.8</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39">
@@ -2351,6 +3833,45 @@
       <c r="P39">
         <v>75016376900</v>
       </c>
+      <c r="Q39">
+        <v>735588108200</v>
+      </c>
+      <c r="R39">
+        <v>660571731300</v>
+      </c>
+      <c r="S39">
+        <v>46708400</v>
+      </c>
+      <c r="T39">
+        <v>43107400</v>
+      </c>
+      <c r="U39">
+        <v>29945622829.3</v>
+      </c>
+      <c r="V39">
+        <v>28670876923.3</v>
+      </c>
+      <c r="W39">
+        <v>61802357150</v>
+      </c>
+      <c r="X39">
+        <v>3889923.3</v>
+      </c>
+      <c r="Y39">
+        <v>1837842.2</v>
+      </c>
+      <c r="Z39">
+        <v>1852043.1</v>
+      </c>
+      <c r="AA39">
+        <v>-14200.9</v>
+      </c>
+      <c r="AB39">
+        <v>1274745906</v>
+      </c>
+      <c r="AC39">
+        <v>17.6</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40">
@@ -2401,6 +3922,45 @@
       <c r="P40">
         <v>89962317200</v>
       </c>
+      <c r="Q40">
+        <v>760754552900</v>
+      </c>
+      <c r="R40">
+        <v>670792235700</v>
+      </c>
+      <c r="S40">
+        <v>48095000</v>
+      </c>
+      <c r="T40">
+        <v>43654800</v>
+      </c>
+      <c r="U40">
+        <v>29945622829.3</v>
+      </c>
+      <c r="V40">
+        <v>28670876923.3</v>
+      </c>
+      <c r="W40">
+        <v>61802357150</v>
+      </c>
+      <c r="X40">
+        <v>3889923.3</v>
+      </c>
+      <c r="Y40">
+        <v>1837842.2</v>
+      </c>
+      <c r="Z40">
+        <v>1852043.1</v>
+      </c>
+      <c r="AA40">
+        <v>-14200.9</v>
+      </c>
+      <c r="AB40">
+        <v>1274745906</v>
+      </c>
+      <c r="AC40">
+        <v>11.7</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41">
@@ -2451,6 +4011,45 @@
       <c r="P41">
         <v>87927615800</v>
       </c>
+      <c r="Q41">
+        <v>778069694300</v>
+      </c>
+      <c r="R41">
+        <v>690142078500</v>
+      </c>
+      <c r="S41">
+        <v>48991600</v>
+      </c>
+      <c r="T41">
+        <v>44762400</v>
+      </c>
+      <c r="U41">
+        <v>29945622829.3</v>
+      </c>
+      <c r="V41">
+        <v>28670876923.3</v>
+      </c>
+      <c r="W41">
+        <v>61802357150</v>
+      </c>
+      <c r="X41">
+        <v>3889923.3</v>
+      </c>
+      <c r="Y41">
+        <v>1837842.2</v>
+      </c>
+      <c r="Z41">
+        <v>1852043.1</v>
+      </c>
+      <c r="AA41">
+        <v>-14200.9</v>
+      </c>
+      <c r="AB41">
+        <v>1274745906</v>
+      </c>
+      <c r="AC41">
+        <v>1.6</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42">
@@ -2501,6 +4100,45 @@
       <c r="P42">
         <v>79058732800</v>
       </c>
+      <c r="Q42">
+        <v>793545800700</v>
+      </c>
+      <c r="R42">
+        <v>714487067900</v>
+      </c>
+      <c r="S42">
+        <v>49751200</v>
+      </c>
+      <c r="T42">
+        <v>46316100</v>
+      </c>
+      <c r="U42">
+        <v>29945622829.3</v>
+      </c>
+      <c r="V42">
+        <v>28670876923.3</v>
+      </c>
+      <c r="W42">
+        <v>61802357150</v>
+      </c>
+      <c r="X42">
+        <v>3889923.3</v>
+      </c>
+      <c r="Y42">
+        <v>1837842.2</v>
+      </c>
+      <c r="Z42">
+        <v>1852043.1</v>
+      </c>
+      <c r="AA42">
+        <v>-14200.9</v>
+      </c>
+      <c r="AB42">
+        <v>1274745906</v>
+      </c>
+      <c r="AC42">
+        <v>7</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43">
@@ -2551,6 +4189,45 @@
       <c r="P43">
         <v>71367012700</v>
       </c>
+      <c r="Q43">
+        <v>804562735100</v>
+      </c>
+      <c r="R43">
+        <v>733195722400</v>
+      </c>
+      <c r="S43">
+        <v>50468600</v>
+      </c>
+      <c r="T43">
+        <v>47456100</v>
+      </c>
+      <c r="U43">
+        <v>29945622829.3</v>
+      </c>
+      <c r="V43">
+        <v>28670876923.3</v>
+      </c>
+      <c r="W43">
+        <v>61802357150</v>
+      </c>
+      <c r="X43">
+        <v>3889923.3</v>
+      </c>
+      <c r="Y43">
+        <v>1837842.2</v>
+      </c>
+      <c r="Z43">
+        <v>1852043.1</v>
+      </c>
+      <c r="AA43">
+        <v>-14200.9</v>
+      </c>
+      <c r="AB43">
+        <v>1274745906</v>
+      </c>
+      <c r="AC43">
+        <v>6</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44">
@@ -2601,6 +4278,45 @@
       <c r="P44">
         <v>66519044800</v>
       </c>
+      <c r="Q44">
+        <v>816980156000</v>
+      </c>
+      <c r="R44">
+        <v>750461111200</v>
+      </c>
+      <c r="S44">
+        <v>51143000</v>
+      </c>
+      <c r="T44">
+        <v>48441900</v>
+      </c>
+      <c r="U44">
+        <v>29945622829.3</v>
+      </c>
+      <c r="V44">
+        <v>28670876923.3</v>
+      </c>
+      <c r="W44">
+        <v>61802357150</v>
+      </c>
+      <c r="X44">
+        <v>3889923.3</v>
+      </c>
+      <c r="Y44">
+        <v>1837842.2</v>
+      </c>
+      <c r="Z44">
+        <v>1852043.1</v>
+      </c>
+      <c r="AA44">
+        <v>-14200.9</v>
+      </c>
+      <c r="AB44">
+        <v>1274745906</v>
+      </c>
+      <c r="AC44">
+        <v>3.8</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45">
@@ -2651,6 +4367,45 @@
       <c r="P45">
         <v>48880319200</v>
       </c>
+      <c r="Q45">
+        <v>826814588600</v>
+      </c>
+      <c r="R45">
+        <v>777934269400</v>
+      </c>
+      <c r="S45">
+        <v>51662000</v>
+      </c>
+      <c r="T45">
+        <v>49852600</v>
+      </c>
+      <c r="U45">
+        <v>29945622829.3</v>
+      </c>
+      <c r="V45">
+        <v>28670876923.3</v>
+      </c>
+      <c r="W45">
+        <v>61802357150</v>
+      </c>
+      <c r="X45">
+        <v>3889923.3</v>
+      </c>
+      <c r="Y45">
+        <v>1837842.2</v>
+      </c>
+      <c r="Z45">
+        <v>1852043.1</v>
+      </c>
+      <c r="AA45">
+        <v>-14200.9</v>
+      </c>
+      <c r="AB45">
+        <v>1274745906</v>
+      </c>
+      <c r="AC45">
+        <v>13.8</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46">
@@ -2701,6 +4456,45 @@
       <c r="P46">
         <v>44968444600</v>
       </c>
+      <c r="Q46">
+        <v>850016620200</v>
+      </c>
+      <c r="R46">
+        <v>805048175600</v>
+      </c>
+      <c r="S46">
+        <v>52730600</v>
+      </c>
+      <c r="T46">
+        <v>51418500</v>
+      </c>
+      <c r="U46">
+        <v>29945622829.3</v>
+      </c>
+      <c r="V46">
+        <v>28670876923.3</v>
+      </c>
+      <c r="W46">
+        <v>61802357150</v>
+      </c>
+      <c r="X46">
+        <v>3889923.3</v>
+      </c>
+      <c r="Y46">
+        <v>1837842.2</v>
+      </c>
+      <c r="Z46">
+        <v>1852043.1</v>
+      </c>
+      <c r="AA46">
+        <v>-14200.9</v>
+      </c>
+      <c r="AB46">
+        <v>1274745906</v>
+      </c>
+      <c r="AC46">
+        <v>3.1</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47">
@@ -2751,6 +4545,45 @@
       <c r="P47">
         <v>57749412900</v>
       </c>
+      <c r="Q47">
+        <v>873289222400</v>
+      </c>
+      <c r="R47">
+        <v>815539809500</v>
+      </c>
+      <c r="S47">
+        <v>53709800</v>
+      </c>
+      <c r="T47">
+        <v>52113700</v>
+      </c>
+      <c r="U47">
+        <v>29945622829.3</v>
+      </c>
+      <c r="V47">
+        <v>28670876923.3</v>
+      </c>
+      <c r="W47">
+        <v>61802357150</v>
+      </c>
+      <c r="X47">
+        <v>3889923.3</v>
+      </c>
+      <c r="Y47">
+        <v>1837842.2</v>
+      </c>
+      <c r="Z47">
+        <v>1852043.1</v>
+      </c>
+      <c r="AA47">
+        <v>-14200.9</v>
+      </c>
+      <c r="AB47">
+        <v>1274745906</v>
+      </c>
+      <c r="AC47">
+        <v>10</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48">
@@ -2801,6 +4634,45 @@
       <c r="P48">
         <v>59066972300</v>
       </c>
+      <c r="Q48">
+        <v>892223011000</v>
+      </c>
+      <c r="R48">
+        <v>833156038700</v>
+      </c>
+      <c r="S48">
+        <v>54937900</v>
+      </c>
+      <c r="T48">
+        <v>53171800</v>
+      </c>
+      <c r="U48">
+        <v>29945622829.3</v>
+      </c>
+      <c r="V48">
+        <v>28670876923.3</v>
+      </c>
+      <c r="W48">
+        <v>61802357150</v>
+      </c>
+      <c r="X48">
+        <v>3889923.3</v>
+      </c>
+      <c r="Y48">
+        <v>1837842.2</v>
+      </c>
+      <c r="Z48">
+        <v>1852043.1</v>
+      </c>
+      <c r="AA48">
+        <v>-14200.9</v>
+      </c>
+      <c r="AB48">
+        <v>1274745906</v>
+      </c>
+      <c r="AC48">
+        <v>1</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49">
@@ -2851,6 +4723,45 @@
       <c r="P49">
         <v>57466289600</v>
       </c>
+      <c r="Q49">
+        <v>906526468900</v>
+      </c>
+      <c r="R49">
+        <v>849060179300</v>
+      </c>
+      <c r="S49">
+        <v>55652800</v>
+      </c>
+      <c r="T49">
+        <v>54484500</v>
+      </c>
+      <c r="U49">
+        <v>29945622829.3</v>
+      </c>
+      <c r="V49">
+        <v>28670876923.3</v>
+      </c>
+      <c r="W49">
+        <v>61802357150</v>
+      </c>
+      <c r="X49">
+        <v>3889923.3</v>
+      </c>
+      <c r="Y49">
+        <v>1837842.2</v>
+      </c>
+      <c r="Z49">
+        <v>1852043.1</v>
+      </c>
+      <c r="AA49">
+        <v>-14200.9</v>
+      </c>
+      <c r="AB49">
+        <v>1274745906</v>
+      </c>
+      <c r="AC49">
+        <v>1.3</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50">
@@ -2901,6 +4812,45 @@
       <c r="P50">
         <v>56212054700</v>
       </c>
+      <c r="Q50">
+        <v>917751562400</v>
+      </c>
+      <c r="R50">
+        <v>861539507700</v>
+      </c>
+      <c r="S50">
+        <v>56309600</v>
+      </c>
+      <c r="T50">
+        <v>55444000</v>
+      </c>
+      <c r="U50">
+        <v>29945622829.3</v>
+      </c>
+      <c r="V50">
+        <v>28670876923.3</v>
+      </c>
+      <c r="W50">
+        <v>61802357150</v>
+      </c>
+      <c r="X50">
+        <v>3889923.3</v>
+      </c>
+      <c r="Y50">
+        <v>1837842.2</v>
+      </c>
+      <c r="Z50">
+        <v>1852043.1</v>
+      </c>
+      <c r="AA50">
+        <v>-14200.9</v>
+      </c>
+      <c r="AB50">
+        <v>1274745906</v>
+      </c>
+      <c r="AC50">
+        <v>1</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51">
@@ -2951,6 +4901,45 @@
       <c r="P51">
         <v>45244118400</v>
       </c>
+      <c r="Q51">
+        <v>926814722500</v>
+      </c>
+      <c r="R51">
+        <v>881570604100</v>
+      </c>
+      <c r="S51">
+        <v>56904600</v>
+      </c>
+      <c r="T51">
+        <v>56777500</v>
+      </c>
+      <c r="U51">
+        <v>29945622829.3</v>
+      </c>
+      <c r="V51">
+        <v>28670876923.3</v>
+      </c>
+      <c r="W51">
+        <v>61802357150</v>
+      </c>
+      <c r="X51">
+        <v>3889923.3</v>
+      </c>
+      <c r="Y51">
+        <v>1837842.2</v>
+      </c>
+      <c r="Z51">
+        <v>1852043.1</v>
+      </c>
+      <c r="AA51">
+        <v>-14200.9</v>
+      </c>
+      <c r="AB51">
+        <v>1274745906</v>
+      </c>
+      <c r="AC51">
+        <v>8.6</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52">
@@ -3001,6 +4990,45 @@
       <c r="P52">
         <v>8084875100</v>
       </c>
+      <c r="Q52">
+        <v>935274051600</v>
+      </c>
+      <c r="R52">
+        <v>927189176500</v>
+      </c>
+      <c r="S52">
+        <v>57523400</v>
+      </c>
+      <c r="T52">
+        <v>59702800</v>
+      </c>
+      <c r="U52">
+        <v>29945622829.3</v>
+      </c>
+      <c r="V52">
+        <v>28670876923.3</v>
+      </c>
+      <c r="W52">
+        <v>61802357150</v>
+      </c>
+      <c r="X52">
+        <v>3889923.3</v>
+      </c>
+      <c r="Y52">
+        <v>1837842.2</v>
+      </c>
+      <c r="Z52">
+        <v>1852043.1</v>
+      </c>
+      <c r="AA52">
+        <v>-14200.9</v>
+      </c>
+      <c r="AB52">
+        <v>1274745906</v>
+      </c>
+      <c r="AC52">
+        <v>29.2</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53">
@@ -3051,6 +5079,45 @@
       <c r="P53">
         <v>-22306509800</v>
       </c>
+      <c r="Q53">
+        <v>943582144800</v>
+      </c>
+      <c r="R53">
+        <v>965888654600</v>
+      </c>
+      <c r="S53">
+        <v>58018800</v>
+      </c>
+      <c r="T53">
+        <v>62424800</v>
+      </c>
+      <c r="U53">
+        <v>29945622829.3</v>
+      </c>
+      <c r="V53">
+        <v>28670876923.3</v>
+      </c>
+      <c r="W53">
+        <v>61802357150</v>
+      </c>
+      <c r="X53">
+        <v>3889923.3</v>
+      </c>
+      <c r="Y53">
+        <v>1837842.2</v>
+      </c>
+      <c r="Z53">
+        <v>1852043.1</v>
+      </c>
+      <c r="AA53">
+        <v>-14200.9</v>
+      </c>
+      <c r="AB53">
+        <v>1274745906</v>
+      </c>
+      <c r="AC53">
+        <v>23.8</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54">
@@ -3101,6 +5168,45 @@
       <c r="P54">
         <v>-47411358600</v>
       </c>
+      <c r="Q54">
+        <v>954244458500</v>
+      </c>
+      <c r="R54">
+        <v>1001655817100</v>
+      </c>
+      <c r="S54">
+        <v>58755100</v>
+      </c>
+      <c r="T54">
+        <v>64813000</v>
+      </c>
+      <c r="U54">
+        <v>29945622829.3</v>
+      </c>
+      <c r="V54">
+        <v>28670876923.3</v>
+      </c>
+      <c r="W54">
+        <v>61802357150</v>
+      </c>
+      <c r="X54">
+        <v>3889923.3</v>
+      </c>
+      <c r="Y54">
+        <v>1837842.2</v>
+      </c>
+      <c r="Z54">
+        <v>1852043.1</v>
+      </c>
+      <c r="AA54">
+        <v>-14200.9</v>
+      </c>
+      <c r="AB54">
+        <v>1274745906</v>
+      </c>
+      <c r="AC54">
+        <v>19.7</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55">
@@ -3151,6 +5257,45 @@
       <c r="P55">
         <v>-79427579500</v>
       </c>
+      <c r="Q55">
+        <v>964624493600</v>
+      </c>
+      <c r="R55">
+        <v>1044052073100</v>
+      </c>
+      <c r="S55">
+        <v>59331700</v>
+      </c>
+      <c r="T55">
+        <v>67998500</v>
+      </c>
+      <c r="U55">
+        <v>29945622829.3</v>
+      </c>
+      <c r="V55">
+        <v>28670876923.3</v>
+      </c>
+      <c r="W55">
+        <v>61802357150</v>
+      </c>
+      <c r="X55">
+        <v>3889923.3</v>
+      </c>
+      <c r="Y55">
+        <v>1837842.2</v>
+      </c>
+      <c r="Z55">
+        <v>1852043.1</v>
+      </c>
+      <c r="AA55">
+        <v>-14200.9</v>
+      </c>
+      <c r="AB55">
+        <v>1274745906</v>
+      </c>
+      <c r="AC55">
+        <v>25.1</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56">
@@ -3201,6 +5346,45 @@
       <c r="P56">
         <v>-108670110400</v>
       </c>
+      <c r="Q56">
+        <v>973830623200</v>
+      </c>
+      <c r="R56">
+        <v>1082500733600</v>
+      </c>
+      <c r="S56">
+        <v>59826000</v>
+      </c>
+      <c r="T56">
+        <v>70836600</v>
+      </c>
+      <c r="U56">
+        <v>29945622829.3</v>
+      </c>
+      <c r="V56">
+        <v>28670876923.3</v>
+      </c>
+      <c r="W56">
+        <v>61802357150</v>
+      </c>
+      <c r="X56">
+        <v>3889923.3</v>
+      </c>
+      <c r="Y56">
+        <v>1837842.2</v>
+      </c>
+      <c r="Z56">
+        <v>1852043.1</v>
+      </c>
+      <c r="AA56">
+        <v>-14200.9</v>
+      </c>
+      <c r="AB56">
+        <v>1274745906</v>
+      </c>
+      <c r="AC56">
+        <v>22.9</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57">
@@ -3251,6 +5435,45 @@
       <c r="P57">
         <v>-129866869300</v>
       </c>
+      <c r="Q57">
+        <v>990055991600</v>
+      </c>
+      <c r="R57">
+        <v>1119922860900</v>
+      </c>
+      <c r="S57">
+        <v>60717300</v>
+      </c>
+      <c r="T57">
+        <v>73626100</v>
+      </c>
+      <c r="U57">
+        <v>29945622829.3</v>
+      </c>
+      <c r="V57">
+        <v>28670876923.3</v>
+      </c>
+      <c r="W57">
+        <v>61802357150</v>
+      </c>
+      <c r="X57">
+        <v>3889923.3</v>
+      </c>
+      <c r="Y57">
+        <v>1837842.2</v>
+      </c>
+      <c r="Z57">
+        <v>1852043.1</v>
+      </c>
+      <c r="AA57">
+        <v>-14200.9</v>
+      </c>
+      <c r="AB57">
+        <v>1274745906</v>
+      </c>
+      <c r="AC57">
+        <v>16.6</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58">
@@ -3301,6 +5524,45 @@
       <c r="P58">
         <v>-135063881400</v>
       </c>
+      <c r="Q58">
+        <v>1009055814800</v>
+      </c>
+      <c r="R58">
+        <v>1144119696200</v>
+      </c>
+      <c r="S58">
+        <v>61697500</v>
+      </c>
+      <c r="T58">
+        <v>75423800</v>
+      </c>
+      <c r="U58">
+        <v>29945622829.3</v>
+      </c>
+      <c r="V58">
+        <v>28670876923.3</v>
+      </c>
+      <c r="W58">
+        <v>61802357150</v>
+      </c>
+      <c r="X58">
+        <v>3889923.3</v>
+      </c>
+      <c r="Y58">
+        <v>1837842.2</v>
+      </c>
+      <c r="Z58">
+        <v>1852043.1</v>
+      </c>
+      <c r="AA58">
+        <v>-14200.9</v>
+      </c>
+      <c r="AB58">
+        <v>1274745906</v>
+      </c>
+      <c r="AC58">
+        <v>4.1</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59">
@@ -3351,6 +5613,45 @@
       <c r="P59">
         <v>-124396156900</v>
       </c>
+      <c r="Q59">
+        <v>1035016527600</v>
+      </c>
+      <c r="R59">
+        <v>1159412684500</v>
+      </c>
+      <c r="S59">
+        <v>63034900</v>
+      </c>
+      <c r="T59">
+        <v>76399800</v>
+      </c>
+      <c r="U59">
+        <v>29945622829.3</v>
+      </c>
+      <c r="V59">
+        <v>28670876923.3</v>
+      </c>
+      <c r="W59">
+        <v>61802357150</v>
+      </c>
+      <c r="X59">
+        <v>3889923.3</v>
+      </c>
+      <c r="Y59">
+        <v>1837842.2</v>
+      </c>
+      <c r="Z59">
+        <v>1852043.1</v>
+      </c>
+      <c r="AA59">
+        <v>-14200.9</v>
+      </c>
+      <c r="AB59">
+        <v>1274745906</v>
+      </c>
+      <c r="AC59">
+        <v>8.4</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60">
@@ -3401,6 +5702,45 @@
       <c r="P60">
         <v>-135319223600</v>
       </c>
+      <c r="Q60">
+        <v>1043020964600</v>
+      </c>
+      <c r="R60">
+        <v>1178340188200</v>
+      </c>
+      <c r="S60">
+        <v>63670400</v>
+      </c>
+      <c r="T60">
+        <v>77532200</v>
+      </c>
+      <c r="U60">
+        <v>29945622829.3</v>
+      </c>
+      <c r="V60">
+        <v>28670876923.3</v>
+      </c>
+      <c r="W60">
+        <v>61802357150</v>
+      </c>
+      <c r="X60">
+        <v>3889923.3</v>
+      </c>
+      <c r="Y60">
+        <v>1837842.2</v>
+      </c>
+      <c r="Z60">
+        <v>1852043.1</v>
+      </c>
+      <c r="AA60">
+        <v>-14200.9</v>
+      </c>
+      <c r="AB60">
+        <v>1274745906</v>
+      </c>
+      <c r="AC60">
+        <v>8.6</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61">
@@ -3451,6 +5791,45 @@
       <c r="P61">
         <v>-144604395900</v>
       </c>
+      <c r="Q61">
+        <v>1050764955800</v>
+      </c>
+      <c r="R61">
+        <v>1195369351700</v>
+      </c>
+      <c r="S61">
+        <v>64368600</v>
+      </c>
+      <c r="T61">
+        <v>78904000</v>
+      </c>
+      <c r="U61">
+        <v>29945622829.3</v>
+      </c>
+      <c r="V61">
+        <v>28670876923.3</v>
+      </c>
+      <c r="W61">
+        <v>61802357150</v>
+      </c>
+      <c r="X61">
+        <v>3889923.3</v>
+      </c>
+      <c r="Y61">
+        <v>1837842.2</v>
+      </c>
+      <c r="Z61">
+        <v>1852043.1</v>
+      </c>
+      <c r="AA61">
+        <v>-14200.9</v>
+      </c>
+      <c r="AB61">
+        <v>1274745906</v>
+      </c>
+      <c r="AC61">
+        <v>7.3</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62">
@@ -3501,6 +5880,45 @@
       <c r="P62">
         <v>-161873818900</v>
       </c>
+      <c r="Q62">
+        <v>1059724696900</v>
+      </c>
+      <c r="R62">
+        <v>1221598515800</v>
+      </c>
+      <c r="S62">
+        <v>64964800</v>
+      </c>
+      <c r="T62">
+        <v>80629600</v>
+      </c>
+      <c r="U62">
+        <v>29945622829.3</v>
+      </c>
+      <c r="V62">
+        <v>28670876923.3</v>
+      </c>
+      <c r="W62">
+        <v>61802357150</v>
+      </c>
+      <c r="X62">
+        <v>3889923.3</v>
+      </c>
+      <c r="Y62">
+        <v>1837842.2</v>
+      </c>
+      <c r="Z62">
+        <v>1852043.1</v>
+      </c>
+      <c r="AA62">
+        <v>-14200.9</v>
+      </c>
+      <c r="AB62">
+        <v>1274745906</v>
+      </c>
+      <c r="AC62">
+        <v>13.5</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63">
@@ -3551,6 +5969,45 @@
       <c r="P63">
         <v>-187750083200</v>
       </c>
+      <c r="Q63">
+        <v>1070574349600</v>
+      </c>
+      <c r="R63">
+        <v>1258324432800</v>
+      </c>
+      <c r="S63">
+        <v>65634300</v>
+      </c>
+      <c r="T63">
+        <v>82854200</v>
+      </c>
+      <c r="U63">
+        <v>29945622829.3</v>
+      </c>
+      <c r="V63">
+        <v>28670876923.3</v>
+      </c>
+      <c r="W63">
+        <v>61802357150</v>
+      </c>
+      <c r="X63">
+        <v>3889923.3</v>
+      </c>
+      <c r="Y63">
+        <v>1837842.2</v>
+      </c>
+      <c r="Z63">
+        <v>1852043.1</v>
+      </c>
+      <c r="AA63">
+        <v>-14200.9</v>
+      </c>
+      <c r="AB63">
+        <v>1274745906</v>
+      </c>
+      <c r="AC63">
+        <v>20.3</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64">
@@ -3601,6 +6058,45 @@
       <c r="P64">
         <v>-221668822400</v>
       </c>
+      <c r="Q64">
+        <v>1083219742700</v>
+      </c>
+      <c r="R64">
+        <v>1304888565100</v>
+      </c>
+      <c r="S64">
+        <v>66426700</v>
+      </c>
+      <c r="T64">
+        <v>85946200</v>
+      </c>
+      <c r="U64">
+        <v>29945622829.3</v>
+      </c>
+      <c r="V64">
+        <v>28670876923.3</v>
+      </c>
+      <c r="W64">
+        <v>61802357150</v>
+      </c>
+      <c r="X64">
+        <v>3889923.3</v>
+      </c>
+      <c r="Y64">
+        <v>1837842.2</v>
+      </c>
+      <c r="Z64">
+        <v>1852043.1</v>
+      </c>
+      <c r="AA64">
+        <v>-14200.9</v>
+      </c>
+      <c r="AB64">
+        <v>1274745906</v>
+      </c>
+      <c r="AC64">
+        <v>26.6</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65">
@@ -3651,6 +6147,45 @@
       <c r="P65">
         <v>-272642986600</v>
       </c>
+      <c r="Q65">
+        <v>1092539593300</v>
+      </c>
+      <c r="R65">
+        <v>1365182579900</v>
+      </c>
+      <c r="S65">
+        <v>67156000</v>
+      </c>
+      <c r="T65">
+        <v>90328200</v>
+      </c>
+      <c r="U65">
+        <v>29945622829.3</v>
+      </c>
+      <c r="V65">
+        <v>28670876923.3</v>
+      </c>
+      <c r="W65">
+        <v>61802357150</v>
+      </c>
+      <c r="X65">
+        <v>3889923.3</v>
+      </c>
+      <c r="Y65">
+        <v>1837842.2</v>
+      </c>
+      <c r="Z65">
+        <v>1852043.1</v>
+      </c>
+      <c r="AA65">
+        <v>-14200.9</v>
+      </c>
+      <c r="AB65">
+        <v>1274745906</v>
+      </c>
+      <c r="AC65">
+        <v>40</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66">
@@ -3701,6 +6236,45 @@
       <c r="P66">
         <v>-330214132300</v>
       </c>
+      <c r="Q66">
+        <v>1105682800300</v>
+      </c>
+      <c r="R66">
+        <v>1435896932600</v>
+      </c>
+      <c r="S66">
+        <v>67935300</v>
+      </c>
+      <c r="T66">
+        <v>95140300</v>
+      </c>
+      <c r="U66">
+        <v>29945622829.3</v>
+      </c>
+      <c r="V66">
+        <v>28670876923.3</v>
+      </c>
+      <c r="W66">
+        <v>61802357150</v>
+      </c>
+      <c r="X66">
+        <v>3889923.3</v>
+      </c>
+      <c r="Y66">
+        <v>1837842.2</v>
+      </c>
+      <c r="Z66">
+        <v>1852043.1</v>
+      </c>
+      <c r="AA66">
+        <v>-14200.9</v>
+      </c>
+      <c r="AB66">
+        <v>1274745906</v>
+      </c>
+      <c r="AC66">
+        <v>45.2</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67">
@@ -3751,6 +6325,45 @@
       <c r="P67">
         <v>-360707501400</v>
       </c>
+      <c r="Q67">
+        <v>1127813623000</v>
+      </c>
+      <c r="R67">
+        <v>1488521124400</v>
+      </c>
+      <c r="S67">
+        <v>69199100</v>
+      </c>
+      <c r="T67">
+        <v>98487000</v>
+      </c>
+      <c r="U67">
+        <v>29945622829.3</v>
+      </c>
+      <c r="V67">
+        <v>28670876923.3</v>
+      </c>
+      <c r="W67">
+        <v>61802357150</v>
+      </c>
+      <c r="X67">
+        <v>3889923.3</v>
+      </c>
+      <c r="Y67">
+        <v>1837842.2</v>
+      </c>
+      <c r="Z67">
+        <v>1852043.1</v>
+      </c>
+      <c r="AA67">
+        <v>-14200.9</v>
+      </c>
+      <c r="AB67">
+        <v>1274745906</v>
+      </c>
+      <c r="AC67">
+        <v>23.9</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68">
@@ -3801,6 +6414,45 @@
       <c r="P68">
         <v>-377678739100</v>
       </c>
+      <c r="Q68">
+        <v>1149401822500</v>
+      </c>
+      <c r="R68">
+        <v>1527080561600</v>
+      </c>
+      <c r="S68">
+        <v>70537700</v>
+      </c>
+      <c r="T68">
+        <v>100970100</v>
+      </c>
+      <c r="U68">
+        <v>29945622829.3</v>
+      </c>
+      <c r="V68">
+        <v>28670876923.3</v>
+      </c>
+      <c r="W68">
+        <v>61802357150</v>
+      </c>
+      <c r="X68">
+        <v>3889923.3</v>
+      </c>
+      <c r="Y68">
+        <v>1837842.2</v>
+      </c>
+      <c r="Z68">
+        <v>1852043.1</v>
+      </c>
+      <c r="AA68">
+        <v>-14200.9</v>
+      </c>
+      <c r="AB68">
+        <v>1274745906</v>
+      </c>
+      <c r="AC68">
+        <v>13.3</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69">
@@ -3851,6 +6503,45 @@
       <c r="P69">
         <v>-383235386800</v>
       </c>
+      <c r="Q69">
+        <v>1169745861600</v>
+      </c>
+      <c r="R69">
+        <v>1552981248400</v>
+      </c>
+      <c r="S69">
+        <v>71972300</v>
+      </c>
+      <c r="T69">
+        <v>102916700</v>
+      </c>
+      <c r="U69">
+        <v>29945622829.3</v>
+      </c>
+      <c r="V69">
+        <v>28670876923.3</v>
+      </c>
+      <c r="W69">
+        <v>61802357150</v>
+      </c>
+      <c r="X69">
+        <v>3889923.3</v>
+      </c>
+      <c r="Y69">
+        <v>1837842.2</v>
+      </c>
+      <c r="Z69">
+        <v>1852043.1</v>
+      </c>
+      <c r="AA69">
+        <v>-14200.9</v>
+      </c>
+      <c r="AB69">
+        <v>1274745906</v>
+      </c>
+      <c r="AC69">
+        <v>4.4</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70">
@@ -3901,6 +6592,45 @@
       <c r="P70">
         <v>-383219871800</v>
       </c>
+      <c r="Q70">
+        <v>1169761376600</v>
+      </c>
+      <c r="R70">
+        <v>1552981248400</v>
+      </c>
+      <c r="S70">
+        <v>71973400</v>
+      </c>
+      <c r="T70">
+        <v>102916700</v>
+      </c>
+      <c r="U70">
+        <v>29945622829.3</v>
+      </c>
+      <c r="V70">
+        <v>28670876923.3</v>
+      </c>
+      <c r="W70">
+        <v>61802357150</v>
+      </c>
+      <c r="X70">
+        <v>3889923.3</v>
+      </c>
+      <c r="Y70">
+        <v>1837842.2</v>
+      </c>
+      <c r="Z70">
+        <v>1852043.1</v>
+      </c>
+      <c r="AA70">
+        <v>-14200.9</v>
+      </c>
+      <c r="AB70">
+        <v>1274745906</v>
+      </c>
+      <c r="AC70">
+        <v>0</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71">
@@ -3951,6 +6681,45 @@
       <c r="P71">
         <v>-412813344400</v>
       </c>
+      <c r="Q71">
+        <v>1238152557700</v>
+      </c>
+      <c r="R71">
+        <v>1650965902100</v>
+      </c>
+      <c r="S71">
+        <v>76345300</v>
+      </c>
+      <c r="T71">
+        <v>109582000</v>
+      </c>
+      <c r="U71">
+        <v>29945622829.3</v>
+      </c>
+      <c r="V71">
+        <v>28670876923.3</v>
+      </c>
+      <c r="W71">
+        <v>61802357150</v>
+      </c>
+      <c r="X71">
+        <v>3889923.3</v>
+      </c>
+      <c r="Y71">
+        <v>1837842.2</v>
+      </c>
+      <c r="Z71">
+        <v>1852043.1</v>
+      </c>
+      <c r="AA71">
+        <v>-14200.9</v>
+      </c>
+      <c r="AB71">
+        <v>1274745906</v>
+      </c>
+      <c r="AC71">
+        <v>23.2</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72">
@@ -4001,6 +6770,45 @@
       <c r="P72">
         <v>-411126878600</v>
       </c>
+      <c r="Q72">
+        <v>1262271889200</v>
+      </c>
+      <c r="R72">
+        <v>1673398767800</v>
+      </c>
+      <c r="S72">
+        <v>78139900</v>
+      </c>
+      <c r="T72">
+        <v>111176800</v>
+      </c>
+      <c r="U72">
+        <v>29945622829.3</v>
+      </c>
+      <c r="V72">
+        <v>28670876923.3</v>
+      </c>
+      <c r="W72">
+        <v>61802357150</v>
+      </c>
+      <c r="X72">
+        <v>3889923.3</v>
+      </c>
+      <c r="Y72">
+        <v>1837842.2</v>
+      </c>
+      <c r="Z72">
+        <v>1852043.1</v>
+      </c>
+      <c r="AA72">
+        <v>-14200.9</v>
+      </c>
+      <c r="AB72">
+        <v>1274745906</v>
+      </c>
+      <c r="AC72">
+        <v>1.3</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73">
@@ -4051,6 +6859,45 @@
       <c r="P73">
         <v>-400195614000</v>
       </c>
+      <c r="Q73">
+        <v>1297443250500</v>
+      </c>
+      <c r="R73">
+        <v>1697638864500</v>
+      </c>
+      <c r="S73">
+        <v>80104400</v>
+      </c>
+      <c r="T73">
+        <v>112843700</v>
+      </c>
+      <c r="U73">
+        <v>29945622829.3</v>
+      </c>
+      <c r="V73">
+        <v>28670876923.3</v>
+      </c>
+      <c r="W73">
+        <v>61802357150</v>
+      </c>
+      <c r="X73">
+        <v>3889923.3</v>
+      </c>
+      <c r="Y73">
+        <v>1837842.2</v>
+      </c>
+      <c r="Z73">
+        <v>1852043.1</v>
+      </c>
+      <c r="AA73">
+        <v>-14200.9</v>
+      </c>
+      <c r="AB73">
+        <v>1274745906</v>
+      </c>
+      <c r="AC73">
+        <v>8.6</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74">
@@ -4101,6 +6948,45 @@
       <c r="P74">
         <v>-392092619900</v>
       </c>
+      <c r="Q74">
+        <v>1324003514700</v>
+      </c>
+      <c r="R74">
+        <v>1716096134600</v>
+      </c>
+      <c r="S74">
+        <v>81820700</v>
+      </c>
+      <c r="T74">
+        <v>114082600</v>
+      </c>
+      <c r="U74">
+        <v>29945622829.3</v>
+      </c>
+      <c r="V74">
+        <v>28670876923.3</v>
+      </c>
+      <c r="W74">
+        <v>61802357150</v>
+      </c>
+      <c r="X74">
+        <v>3889923.3</v>
+      </c>
+      <c r="Y74">
+        <v>1837842.2</v>
+      </c>
+      <c r="Z74">
+        <v>1852043.1</v>
+      </c>
+      <c r="AA74">
+        <v>-14200.9</v>
+      </c>
+      <c r="AB74">
+        <v>1274745906</v>
+      </c>
+      <c r="AC74">
+        <v>6.4</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75">
@@ -4151,6 +7037,45 @@
       <c r="P75">
         <v>-398265512300</v>
       </c>
+      <c r="Q75">
+        <v>1346820837300</v>
+      </c>
+      <c r="R75">
+        <v>1745086349600</v>
+      </c>
+      <c r="S75">
+        <v>83286400</v>
+      </c>
+      <c r="T75">
+        <v>115720900</v>
+      </c>
+      <c r="U75">
+        <v>29945622829.3</v>
+      </c>
+      <c r="V75">
+        <v>28670876923.3</v>
+      </c>
+      <c r="W75">
+        <v>61802357150</v>
+      </c>
+      <c r="X75">
+        <v>3889923.3</v>
+      </c>
+      <c r="Y75">
+        <v>1837842.2</v>
+      </c>
+      <c r="Z75">
+        <v>1852043.1</v>
+      </c>
+      <c r="AA75">
+        <v>-14200.9</v>
+      </c>
+      <c r="AB75">
+        <v>1274745906</v>
+      </c>
+      <c r="AC75">
+        <v>4.8</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76">
@@ -4201,6 +7126,45 @@
       <c r="P76">
         <v>-462161521600</v>
       </c>
+      <c r="Q76">
+        <v>1360699462600</v>
+      </c>
+      <c r="R76">
+        <v>1822860984200</v>
+      </c>
+      <c r="S76">
+        <v>84237000</v>
+      </c>
+      <c r="T76">
+        <v>120359000</v>
+      </c>
+      <c r="U76">
+        <v>29945622829.3</v>
+      </c>
+      <c r="V76">
+        <v>28670876923.3</v>
+      </c>
+      <c r="W76">
+        <v>61802357150</v>
+      </c>
+      <c r="X76">
+        <v>3889923.3</v>
+      </c>
+      <c r="Y76">
+        <v>1837842.2</v>
+      </c>
+      <c r="Z76">
+        <v>1852043.1</v>
+      </c>
+      <c r="AA76">
+        <v>-14200.9</v>
+      </c>
+      <c r="AB76">
+        <v>1274745906</v>
+      </c>
+      <c r="AC76">
+        <v>50.1</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77">
@@ -4251,6 +7215,45 @@
       <c r="P77">
         <v>-545753709200</v>
       </c>
+      <c r="Q77">
+        <v>1382105369000</v>
+      </c>
+      <c r="R77">
+        <v>1927859078200</v>
+      </c>
+      <c r="S77">
+        <v>85641700</v>
+      </c>
+      <c r="T77">
+        <v>127497200</v>
+      </c>
+      <c r="U77">
+        <v>29945622829.3</v>
+      </c>
+      <c r="V77">
+        <v>28670876923.3</v>
+      </c>
+      <c r="W77">
+        <v>61802357150</v>
+      </c>
+      <c r="X77">
+        <v>3889923.3</v>
+      </c>
+      <c r="Y77">
+        <v>1837842.2</v>
+      </c>
+      <c r="Z77">
+        <v>1852043.1</v>
+      </c>
+      <c r="AA77">
+        <v>-14200.9</v>
+      </c>
+      <c r="AB77">
+        <v>1274745906</v>
+      </c>
+      <c r="AC77">
+        <v>65.6</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78">
@@ -4301,6 +7304,45 @@
       <c r="P78">
         <v>-573677089800</v>
       </c>
+      <c r="Q78">
+        <v>1421360815000</v>
+      </c>
+      <c r="R78">
+        <v>1995037904800</v>
+      </c>
+      <c r="S78">
+        <v>87834400</v>
+      </c>
+      <c r="T78">
+        <v>132122800</v>
+      </c>
+      <c r="U78">
+        <v>29945622829.3</v>
+      </c>
+      <c r="V78">
+        <v>28670876923.3</v>
+      </c>
+      <c r="W78">
+        <v>61802357150</v>
+      </c>
+      <c r="X78">
+        <v>3889923.3</v>
+      </c>
+      <c r="Y78">
+        <v>1837842.2</v>
+      </c>
+      <c r="Z78">
+        <v>1852043.1</v>
+      </c>
+      <c r="AA78">
+        <v>-14200.9</v>
+      </c>
+      <c r="AB78">
+        <v>1274745906</v>
+      </c>
+      <c r="AC78">
+        <v>21.9</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79">
@@ -4351,6 +7393,45 @@
       <c r="P79">
         <v>-584021269600</v>
       </c>
+      <c r="Q79">
+        <v>1455470897500</v>
+      </c>
+      <c r="R79">
+        <v>2039492167100</v>
+      </c>
+      <c r="S79">
+        <v>90045200</v>
+      </c>
+      <c r="T79">
+        <v>135744500</v>
+      </c>
+      <c r="U79">
+        <v>29945622829.3</v>
+      </c>
+      <c r="V79">
+        <v>28670876923.3</v>
+      </c>
+      <c r="W79">
+        <v>61802357150</v>
+      </c>
+      <c r="X79">
+        <v>3889923.3</v>
+      </c>
+      <c r="Y79">
+        <v>1837842.2</v>
+      </c>
+      <c r="Z79">
+        <v>1852043.1</v>
+      </c>
+      <c r="AA79">
+        <v>-14200.9</v>
+      </c>
+      <c r="AB79">
+        <v>1274745906</v>
+      </c>
+      <c r="AC79">
+        <v>8.1</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80">
@@ -4401,6 +7482,45 @@
       <c r="P80">
         <v>-576789733200</v>
       </c>
+      <c r="Q80">
+        <v>1490989090300</v>
+      </c>
+      <c r="R80">
+        <v>2067778823500</v>
+      </c>
+      <c r="S80">
+        <v>92200200</v>
+      </c>
+      <c r="T80">
+        <v>137512700</v>
+      </c>
+      <c r="U80">
+        <v>29945622829.3</v>
+      </c>
+      <c r="V80">
+        <v>28670876923.3</v>
+      </c>
+      <c r="W80">
+        <v>61802357150</v>
+      </c>
+      <c r="X80">
+        <v>3889923.3</v>
+      </c>
+      <c r="Y80">
+        <v>1837842.2</v>
+      </c>
+      <c r="Z80">
+        <v>1852043.1</v>
+      </c>
+      <c r="AA80">
+        <v>-14200.9</v>
+      </c>
+      <c r="AB80">
+        <v>1274745906</v>
+      </c>
+      <c r="AC80">
+        <v>5.7</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81">
@@ -4451,6 +7571,45 @@
       <c r="P81">
         <v>-565509297900</v>
       </c>
+      <c r="Q81">
+        <v>1529282613300</v>
+      </c>
+      <c r="R81">
+        <v>2094791911200</v>
+      </c>
+      <c r="S81">
+        <v>94453000</v>
+      </c>
+      <c r="T81">
+        <v>139084800</v>
+      </c>
+      <c r="U81">
+        <v>29945622829.3</v>
+      </c>
+      <c r="V81">
+        <v>28670876923.3</v>
+      </c>
+      <c r="W81">
+        <v>61802357150</v>
+      </c>
+      <c r="X81">
+        <v>3889923.3</v>
+      </c>
+      <c r="Y81">
+        <v>1837842.2</v>
+      </c>
+      <c r="Z81">
+        <v>1852043.1</v>
+      </c>
+      <c r="AA81">
+        <v>-14200.9</v>
+      </c>
+      <c r="AB81">
+        <v>1274745906</v>
+      </c>
+      <c r="AC81">
+        <v>8.8</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82">
@@ -4501,6 +7660,45 @@
       <c r="P82">
         <v>-523282275700</v>
       </c>
+      <c r="Q82">
+        <v>1589832811700</v>
+      </c>
+      <c r="R82">
+        <v>2113115087400</v>
+      </c>
+      <c r="S82">
+        <v>97672700</v>
+      </c>
+      <c r="T82">
+        <v>140050800</v>
+      </c>
+      <c r="U82">
+        <v>29945622829.3</v>
+      </c>
+      <c r="V82">
+        <v>28670876923.3</v>
+      </c>
+      <c r="W82">
+        <v>61802357150</v>
+      </c>
+      <c r="X82">
+        <v>3889923.3</v>
+      </c>
+      <c r="Y82">
+        <v>1837842.2</v>
+      </c>
+      <c r="Z82">
+        <v>1852043.1</v>
+      </c>
+      <c r="AA82">
+        <v>-14200.9</v>
+      </c>
+      <c r="AB82">
+        <v>1274745906</v>
+      </c>
+      <c r="AC82">
+        <v>33.1</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83">
@@ -4551,6 +7749,45 @@
       <c r="P83">
         <v>-495186251600</v>
       </c>
+      <c r="Q83">
+        <v>1631411354200</v>
+      </c>
+      <c r="R83">
+        <v>2126597605800</v>
+      </c>
+      <c r="S83">
+        <v>100597900</v>
+      </c>
+      <c r="T83">
+        <v>140918800</v>
+      </c>
+      <c r="U83">
+        <v>29945622829.3</v>
+      </c>
+      <c r="V83">
+        <v>28670876923.3</v>
+      </c>
+      <c r="W83">
+        <v>61802357150</v>
+      </c>
+      <c r="X83">
+        <v>3889923.3</v>
+      </c>
+      <c r="Y83">
+        <v>1837842.2</v>
+      </c>
+      <c r="Z83">
+        <v>1852043.1</v>
+      </c>
+      <c r="AA83">
+        <v>-14200.9</v>
+      </c>
+      <c r="AB83">
+        <v>1274745906</v>
+      </c>
+      <c r="AC83">
+        <v>22</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84">
@@ -4601,6 +7838,45 @@
       <c r="P84">
         <v>-445967833400</v>
       </c>
+      <c r="Q84">
+        <v>1694076883800</v>
+      </c>
+      <c r="R84">
+        <v>2140044717200</v>
+      </c>
+      <c r="S84">
+        <v>104328100</v>
+      </c>
+      <c r="T84">
+        <v>141980900</v>
+      </c>
+      <c r="U84">
+        <v>29945622829.3</v>
+      </c>
+      <c r="V84">
+        <v>28670876923.3</v>
+      </c>
+      <c r="W84">
+        <v>61802357150</v>
+      </c>
+      <c r="X84">
+        <v>3889923.3</v>
+      </c>
+      <c r="Y84">
+        <v>1837842.2</v>
+      </c>
+      <c r="Z84">
+        <v>1852043.1</v>
+      </c>
+      <c r="AA84">
+        <v>-14200.9</v>
+      </c>
+      <c r="AB84">
+        <v>1274745906</v>
+      </c>
+      <c r="AC84">
+        <v>38.6</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85">
@@ -4651,6 +7927,45 @@
       <c r="P85">
         <v>-430673135600</v>
       </c>
+      <c r="Q85">
+        <v>1733407400700</v>
+      </c>
+      <c r="R85">
+        <v>2164080536300</v>
+      </c>
+      <c r="S85">
+        <v>106965700</v>
+      </c>
+      <c r="T85">
+        <v>143841000</v>
+      </c>
+      <c r="U85">
+        <v>29945622829.3</v>
+      </c>
+      <c r="V85">
+        <v>28670876923.3</v>
+      </c>
+      <c r="W85">
+        <v>61802357150</v>
+      </c>
+      <c r="X85">
+        <v>3889923.3</v>
+      </c>
+      <c r="Y85">
+        <v>1837842.2</v>
+      </c>
+      <c r="Z85">
+        <v>1852043.1</v>
+      </c>
+      <c r="AA85">
+        <v>-14200.9</v>
+      </c>
+      <c r="AB85">
+        <v>1274745906</v>
+      </c>
+      <c r="AC85">
+        <v>12</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86">
@@ -4701,6 +8016,45 @@
       <c r="P86">
         <v>-428559562800</v>
       </c>
+      <c r="Q86">
+        <v>1770767377700</v>
+      </c>
+      <c r="R86">
+        <v>2199326940500</v>
+      </c>
+      <c r="S86">
+        <v>109134200</v>
+      </c>
+      <c r="T86">
+        <v>145969800</v>
+      </c>
+      <c r="U86">
+        <v>29945622829.3</v>
+      </c>
+      <c r="V86">
+        <v>28670876923.3</v>
+      </c>
+      <c r="W86">
+        <v>61802357150</v>
+      </c>
+      <c r="X86">
+        <v>3889923.3</v>
+      </c>
+      <c r="Y86">
+        <v>1837842.2</v>
+      </c>
+      <c r="Z86">
+        <v>1852043.1</v>
+      </c>
+      <c r="AA86">
+        <v>-14200.9</v>
+      </c>
+      <c r="AB86">
+        <v>1274745906</v>
+      </c>
+      <c r="AC86">
+        <v>1.7</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87">
@@ -4751,6 +8105,45 @@
       <c r="P87">
         <v>-397098888700</v>
       </c>
+      <c r="Q87">
+        <v>1824975823200</v>
+      </c>
+      <c r="R87">
+        <v>2222074711900</v>
+      </c>
+      <c r="S87">
+        <v>112178100</v>
+      </c>
+      <c r="T87">
+        <v>147275600</v>
+      </c>
+      <c r="U87">
+        <v>29945622829.3</v>
+      </c>
+      <c r="V87">
+        <v>28670876923.3</v>
+      </c>
+      <c r="W87">
+        <v>61802357150</v>
+      </c>
+      <c r="X87">
+        <v>3889923.3</v>
+      </c>
+      <c r="Y87">
+        <v>1837842.2</v>
+      </c>
+      <c r="Z87">
+        <v>1852043.1</v>
+      </c>
+      <c r="AA87">
+        <v>-14200.9</v>
+      </c>
+      <c r="AB87">
+        <v>1274745906</v>
+      </c>
+      <c r="AC87">
+        <v>24.7</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88">
@@ -4801,6 +8194,45 @@
       <c r="P88">
         <v>-364222090100</v>
       </c>
+      <c r="Q88">
+        <v>1876411016800</v>
+      </c>
+      <c r="R88">
+        <v>2240633106900</v>
+      </c>
+      <c r="S88">
+        <v>115243500</v>
+      </c>
+      <c r="T88">
+        <v>148437200</v>
+      </c>
+      <c r="U88">
+        <v>29945622829.3</v>
+      </c>
+      <c r="V88">
+        <v>28670876923.3</v>
+      </c>
+      <c r="W88">
+        <v>61802357150</v>
+      </c>
+      <c r="X88">
+        <v>3889923.3</v>
+      </c>
+      <c r="Y88">
+        <v>1837842.2</v>
+      </c>
+      <c r="Z88">
+        <v>1852043.1</v>
+      </c>
+      <c r="AA88">
+        <v>-14200.9</v>
+      </c>
+      <c r="AB88">
+        <v>1274745906</v>
+      </c>
+      <c r="AC88">
+        <v>25.8</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89">
@@ -4851,6 +8283,45 @@
       <c r="P89">
         <v>-282193555700</v>
       </c>
+      <c r="Q89">
+        <v>1975660851700</v>
+      </c>
+      <c r="R89">
+        <v>2257854407400</v>
+      </c>
+      <c r="S89">
+        <v>121171900</v>
+      </c>
+      <c r="T89">
+        <v>149478600</v>
+      </c>
+      <c r="U89">
+        <v>29945622829.3</v>
+      </c>
+      <c r="V89">
+        <v>28670876923.3</v>
+      </c>
+      <c r="W89">
+        <v>61802357150</v>
+      </c>
+      <c r="X89">
+        <v>3889923.3</v>
+      </c>
+      <c r="Y89">
+        <v>1837842.2</v>
+      </c>
+      <c r="Z89">
+        <v>1852043.1</v>
+      </c>
+      <c r="AA89">
+        <v>-14200.9</v>
+      </c>
+      <c r="AB89">
+        <v>1274745906</v>
+      </c>
+      <c r="AC89">
+        <v>64.3</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90">
@@ -4901,6 +8372,45 @@
       <c r="P90">
         <v>-208225686500</v>
       </c>
+      <c r="Q90">
+        <v>2088395515000</v>
+      </c>
+      <c r="R90">
+        <v>2296621201500</v>
+      </c>
+      <c r="S90">
+        <v>127663900</v>
+      </c>
+      <c r="T90">
+        <v>151490600</v>
+      </c>
+      <c r="U90">
+        <v>29945622829.3</v>
+      </c>
+      <c r="V90">
+        <v>28670876923.3</v>
+      </c>
+      <c r="W90">
+        <v>61802357150</v>
+      </c>
+      <c r="X90">
+        <v>3889923.3</v>
+      </c>
+      <c r="Y90">
+        <v>1837842.2</v>
+      </c>
+      <c r="Z90">
+        <v>1852043.1</v>
+      </c>
+      <c r="AA90">
+        <v>-14200.9</v>
+      </c>
+      <c r="AB90">
+        <v>1274745906</v>
+      </c>
+      <c r="AC90">
+        <v>58</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91">
@@ -4951,6 +8461,45 @@
       <c r="P91">
         <v>-213993820600</v>
       </c>
+      <c r="Q91">
+        <v>2139740499900</v>
+      </c>
+      <c r="R91">
+        <v>2353734320500</v>
+      </c>
+      <c r="S91">
+        <v>131046900</v>
+      </c>
+      <c r="T91">
+        <v>155258600</v>
+      </c>
+      <c r="U91">
+        <v>29945622829.3</v>
+      </c>
+      <c r="V91">
+        <v>28670876923.3</v>
+      </c>
+      <c r="W91">
+        <v>61802357150</v>
+      </c>
+      <c r="X91">
+        <v>3889923.3</v>
+      </c>
+      <c r="Y91">
+        <v>1837842.2</v>
+      </c>
+      <c r="Z91">
+        <v>1852043.1</v>
+      </c>
+      <c r="AA91">
+        <v>-14200.9</v>
+      </c>
+      <c r="AB91">
+        <v>1274745906</v>
+      </c>
+      <c r="AC91">
+        <v>4.5</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92">
@@ -5001,6 +8550,45 @@
       <c r="P92">
         <v>-256007524300</v>
       </c>
+      <c r="Q92">
+        <v>2159182347700</v>
+      </c>
+      <c r="R92">
+        <v>2415189872000</v>
+      </c>
+      <c r="S92">
+        <v>132328900</v>
+      </c>
+      <c r="T92">
+        <v>159175200</v>
+      </c>
+      <c r="U92">
+        <v>29945622829.3</v>
+      </c>
+      <c r="V92">
+        <v>28670876923.3</v>
+      </c>
+      <c r="W92">
+        <v>61802357150</v>
+      </c>
+      <c r="X92">
+        <v>3889923.3</v>
+      </c>
+      <c r="Y92">
+        <v>1837842.2</v>
+      </c>
+      <c r="Z92">
+        <v>1852043.1</v>
+      </c>
+      <c r="AA92">
+        <v>-14200.9</v>
+      </c>
+      <c r="AB92">
+        <v>1274745906</v>
+      </c>
+      <c r="AC92">
+        <v>33</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93">
@@ -5051,6 +8639,45 @@
       <c r="P93">
         <v>-270126046700</v>
       </c>
+      <c r="Q93">
+        <v>2192164739800</v>
+      </c>
+      <c r="R93">
+        <v>2462290786500</v>
+      </c>
+      <c r="S93">
+        <v>134066800</v>
+      </c>
+      <c r="T93">
+        <v>161919000</v>
+      </c>
+      <c r="U93">
+        <v>29945622829.3</v>
+      </c>
+      <c r="V93">
+        <v>28670876923.3</v>
+      </c>
+      <c r="W93">
+        <v>61802357150</v>
+      </c>
+      <c r="X93">
+        <v>3889923.3</v>
+      </c>
+      <c r="Y93">
+        <v>1837842.2</v>
+      </c>
+      <c r="Z93">
+        <v>1852043.1</v>
+      </c>
+      <c r="AA93">
+        <v>-14200.9</v>
+      </c>
+      <c r="AB93">
+        <v>1274745906</v>
+      </c>
+      <c r="AC93">
+        <v>11.1</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94">
@@ -5101,6 +8728,45 @@
       <c r="P94">
         <v>-249134803800</v>
       </c>
+      <c r="Q94">
+        <v>2235426525600</v>
+      </c>
+      <c r="R94">
+        <v>2484561329400</v>
+      </c>
+      <c r="S94">
+        <v>136485100</v>
+      </c>
+      <c r="T94">
+        <v>163402700</v>
+      </c>
+      <c r="U94">
+        <v>29945622829.3</v>
+      </c>
+      <c r="V94">
+        <v>28670876923.3</v>
+      </c>
+      <c r="W94">
+        <v>61802357150</v>
+      </c>
+      <c r="X94">
+        <v>3889923.3</v>
+      </c>
+      <c r="Y94">
+        <v>1837842.2</v>
+      </c>
+      <c r="Z94">
+        <v>1852043.1</v>
+      </c>
+      <c r="AA94">
+        <v>-14200.9</v>
+      </c>
+      <c r="AB94">
+        <v>1274745906</v>
+      </c>
+      <c r="AC94">
+        <v>16.5</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95">
@@ -5151,6 +8817,45 @@
       <c r="P95">
         <v>-241927325600</v>
       </c>
+      <c r="Q95">
+        <v>2263532263200</v>
+      </c>
+      <c r="R95">
+        <v>2505459588800</v>
+      </c>
+      <c r="S95">
+        <v>138106500</v>
+      </c>
+      <c r="T95">
+        <v>164624200</v>
+      </c>
+      <c r="U95">
+        <v>29945622829.3</v>
+      </c>
+      <c r="V95">
+        <v>28670876923.3</v>
+      </c>
+      <c r="W95">
+        <v>61802357150</v>
+      </c>
+      <c r="X95">
+        <v>3889923.3</v>
+      </c>
+      <c r="Y95">
+        <v>1837842.2</v>
+      </c>
+      <c r="Z95">
+        <v>1852043.1</v>
+      </c>
+      <c r="AA95">
+        <v>-14200.9</v>
+      </c>
+      <c r="AB95">
+        <v>1274745906</v>
+      </c>
+      <c r="AC95">
+        <v>5.7</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96">
@@ -5201,6 +8906,45 @@
       <c r="P96">
         <v>-228071790600</v>
       </c>
+      <c r="Q96">
+        <v>2296993506300</v>
+      </c>
+      <c r="R96">
+        <v>2525065296900</v>
+      </c>
+      <c r="S96">
+        <v>139577800</v>
+      </c>
+      <c r="T96">
+        <v>165728100</v>
+      </c>
+      <c r="U96">
+        <v>29945622829.3</v>
+      </c>
+      <c r="V96">
+        <v>28670876923.3</v>
+      </c>
+      <c r="W96">
+        <v>61802357150</v>
+      </c>
+      <c r="X96">
+        <v>3889923.3</v>
+      </c>
+      <c r="Y96">
+        <v>1837842.2</v>
+      </c>
+      <c r="Z96">
+        <v>1852043.1</v>
+      </c>
+      <c r="AA96">
+        <v>-14200.9</v>
+      </c>
+      <c r="AB96">
+        <v>1274745906</v>
+      </c>
+      <c r="AC96">
+        <v>10.9</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97">
@@ -5251,6 +8995,45 @@
       <c r="P97">
         <v>-222319688800</v>
       </c>
+      <c r="Q97">
+        <v>2326646612300</v>
+      </c>
+      <c r="R97">
+        <v>2548966301100</v>
+      </c>
+      <c r="S97">
+        <v>141244400</v>
+      </c>
+      <c r="T97">
+        <v>167065100</v>
+      </c>
+      <c r="U97">
+        <v>29945622829.3</v>
+      </c>
+      <c r="V97">
+        <v>28670876923.3</v>
+      </c>
+      <c r="W97">
+        <v>61802357150</v>
+      </c>
+      <c r="X97">
+        <v>3889923.3</v>
+      </c>
+      <c r="Y97">
+        <v>1837842.2</v>
+      </c>
+      <c r="Z97">
+        <v>1852043.1</v>
+      </c>
+      <c r="AA97">
+        <v>-14200.9</v>
+      </c>
+      <c r="AB97">
+        <v>1274745906</v>
+      </c>
+      <c r="AC97">
+        <v>4.5</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98">
@@ -5301,6 +9084,45 @@
       <c r="P98">
         <v>-212345675200</v>
       </c>
+      <c r="Q98">
+        <v>2359477772400</v>
+      </c>
+      <c r="R98">
+        <v>2571823447600</v>
+      </c>
+      <c r="S98">
+        <v>142842300</v>
+      </c>
+      <c r="T98">
+        <v>168356100</v>
+      </c>
+      <c r="U98">
+        <v>29945622829.3</v>
+      </c>
+      <c r="V98">
+        <v>28670876923.3</v>
+      </c>
+      <c r="W98">
+        <v>61802357150</v>
+      </c>
+      <c r="X98">
+        <v>3889923.3</v>
+      </c>
+      <c r="Y98">
+        <v>1837842.2</v>
+      </c>
+      <c r="Z98">
+        <v>1852043.1</v>
+      </c>
+      <c r="AA98">
+        <v>-14200.9</v>
+      </c>
+      <c r="AB98">
+        <v>1274745906</v>
+      </c>
+      <c r="AC98">
+        <v>7.8</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99">
@@ -5351,6 +9173,45 @@
       <c r="P99">
         <v>-130230044700</v>
       </c>
+      <c r="Q99">
+        <v>2461153914800</v>
+      </c>
+      <c r="R99">
+        <v>2591383959500</v>
+      </c>
+      <c r="S99">
+        <v>148259100</v>
+      </c>
+      <c r="T99">
+        <v>169530300</v>
+      </c>
+      <c r="U99">
+        <v>29945622829.3</v>
+      </c>
+      <c r="V99">
+        <v>28670876923.3</v>
+      </c>
+      <c r="W99">
+        <v>61802357150</v>
+      </c>
+      <c r="X99">
+        <v>3889923.3</v>
+      </c>
+      <c r="Y99">
+        <v>1837842.2</v>
+      </c>
+      <c r="Z99">
+        <v>1852043.1</v>
+      </c>
+      <c r="AA99">
+        <v>-14200.9</v>
+      </c>
+      <c r="AB99">
+        <v>1274745906</v>
+      </c>
+      <c r="AC99">
+        <v>64.4</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100">
@@ -5401,6 +9262,45 @@
       <c r="P100">
         <v>-9861424700</v>
       </c>
+      <c r="Q100">
+        <v>2605328717900</v>
+      </c>
+      <c r="R100">
+        <v>2615190142600</v>
+      </c>
+      <c r="S100">
+        <v>157101900</v>
+      </c>
+      <c r="T100">
+        <v>170814900</v>
+      </c>
+      <c r="U100">
+        <v>29945622829.3</v>
+      </c>
+      <c r="V100">
+        <v>28670876923.3</v>
+      </c>
+      <c r="W100">
+        <v>61802357150</v>
+      </c>
+      <c r="X100">
+        <v>3889923.3</v>
+      </c>
+      <c r="Y100">
+        <v>1837842.2</v>
+      </c>
+      <c r="Z100">
+        <v>1852043.1</v>
+      </c>
+      <c r="AA100">
+        <v>-14200.9</v>
+      </c>
+      <c r="AB100">
+        <v>1274745906</v>
+      </c>
+      <c r="AC100">
+        <v>94.4</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101">
@@ -5451,6 +9351,45 @@
       <c r="P101">
         <v>33523224400</v>
       </c>
+      <c r="Q101">
+        <v>2688737587200</v>
+      </c>
+      <c r="R101">
+        <v>2655214362800</v>
+      </c>
+      <c r="S101">
+        <v>162644000</v>
+      </c>
+      <c r="T101">
+        <v>173097400</v>
+      </c>
+      <c r="U101">
+        <v>29945622829.3</v>
+      </c>
+      <c r="V101">
+        <v>28670876923.3</v>
+      </c>
+      <c r="W101">
+        <v>61802357150</v>
+      </c>
+      <c r="X101">
+        <v>3889923.3</v>
+      </c>
+      <c r="Y101">
+        <v>1837842.2</v>
+      </c>
+      <c r="Z101">
+        <v>1852043.1</v>
+      </c>
+      <c r="AA101">
+        <v>-14200.9</v>
+      </c>
+      <c r="AB101">
+        <v>1274745906</v>
+      </c>
+      <c r="AC101">
+        <v>34</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102">
@@ -5501,6 +9440,45 @@
       <c r="P102">
         <v>84059893700</v>
       </c>
+      <c r="Q102">
+        <v>2767549913500</v>
+      </c>
+      <c r="R102">
+        <v>2683490019800</v>
+      </c>
+      <c r="S102">
+        <v>168326100</v>
+      </c>
+      <c r="T102">
+        <v>174837600</v>
+      </c>
+      <c r="U102">
+        <v>29945622829.3</v>
+      </c>
+      <c r="V102">
+        <v>28670876923.3</v>
+      </c>
+      <c r="W102">
+        <v>61802357150</v>
+      </c>
+      <c r="X102">
+        <v>3889923.3</v>
+      </c>
+      <c r="Y102">
+        <v>1837842.2</v>
+      </c>
+      <c r="Z102">
+        <v>1852043.1</v>
+      </c>
+      <c r="AA102">
+        <v>-14200.9</v>
+      </c>
+      <c r="AB102">
+        <v>1274745906</v>
+      </c>
+      <c r="AC102">
+        <v>39.6</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103">
@@ -5551,6 +9529,45 @@
       <c r="P103">
         <v>140603847900</v>
       </c>
+      <c r="Q103">
+        <v>2856836673500</v>
+      </c>
+      <c r="R103">
+        <v>2716232825600</v>
+      </c>
+      <c r="S103">
+        <v>174045600</v>
+      </c>
+      <c r="T103">
+        <v>176919700</v>
+      </c>
+      <c r="U103">
+        <v>29945622829.3</v>
+      </c>
+      <c r="V103">
+        <v>28670876923.3</v>
+      </c>
+      <c r="W103">
+        <v>61802357150</v>
+      </c>
+      <c r="X103">
+        <v>3889923.3</v>
+      </c>
+      <c r="Y103">
+        <v>1837842.2</v>
+      </c>
+      <c r="Z103">
+        <v>1852043.1</v>
+      </c>
+      <c r="AA103">
+        <v>-14200.9</v>
+      </c>
+      <c r="AB103">
+        <v>1274745906</v>
+      </c>
+      <c r="AC103">
+        <v>44.4</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104">
@@ -5601,6 +9618,45 @@
       <c r="P104">
         <v>200535267800</v>
       </c>
+      <c r="Q104">
+        <v>2940485858500</v>
+      </c>
+      <c r="R104">
+        <v>2739950590700</v>
+      </c>
+      <c r="S104">
+        <v>179584200</v>
+      </c>
+      <c r="T104">
+        <v>178301000</v>
+      </c>
+      <c r="U104">
+        <v>29945622829.3</v>
+      </c>
+      <c r="V104">
+        <v>28670876923.3</v>
+      </c>
+      <c r="W104">
+        <v>61802357150</v>
+      </c>
+      <c r="X104">
+        <v>3889923.3</v>
+      </c>
+      <c r="Y104">
+        <v>1837842.2</v>
+      </c>
+      <c r="Z104">
+        <v>1852043.1</v>
+      </c>
+      <c r="AA104">
+        <v>-14200.9</v>
+      </c>
+      <c r="AB104">
+        <v>1274745906</v>
+      </c>
+      <c r="AC104">
+        <v>47</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105">
@@ -5651,6 +9707,45 @@
       <c r="P105">
         <v>318846878900</v>
       </c>
+      <c r="Q105">
+        <v>3098399397300</v>
+      </c>
+      <c r="R105">
+        <v>2779552518400</v>
+      </c>
+      <c r="S105">
+        <v>189548500</v>
+      </c>
+      <c r="T105">
+        <v>180651200</v>
+      </c>
+      <c r="U105">
+        <v>29945622829.3</v>
+      </c>
+      <c r="V105">
+        <v>28670876923.3</v>
+      </c>
+      <c r="W105">
+        <v>61802357150</v>
+      </c>
+      <c r="X105">
+        <v>3889923.3</v>
+      </c>
+      <c r="Y105">
+        <v>1837842.2</v>
+      </c>
+      <c r="Z105">
+        <v>1852043.1</v>
+      </c>
+      <c r="AA105">
+        <v>-14200.9</v>
+      </c>
+      <c r="AB105">
+        <v>1274745906</v>
+      </c>
+      <c r="AC105">
+        <v>92.8</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106">
@@ -5701,6 +9796,45 @@
       <c r="P106">
         <v>369952241600</v>
       </c>
+      <c r="Q106">
+        <v>3199368777900</v>
+      </c>
+      <c r="R106">
+        <v>2829416536300</v>
+      </c>
+      <c r="S106">
+        <v>195933200</v>
+      </c>
+      <c r="T106">
+        <v>183896400</v>
+      </c>
+      <c r="U106">
+        <v>29945622829.3</v>
+      </c>
+      <c r="V106">
+        <v>28670876923.3</v>
+      </c>
+      <c r="W106">
+        <v>61802357150</v>
+      </c>
+      <c r="X106">
+        <v>3889923.3</v>
+      </c>
+      <c r="Y106">
+        <v>1837842.2</v>
+      </c>
+      <c r="Z106">
+        <v>1852043.1</v>
+      </c>
+      <c r="AA106">
+        <v>-14200.9</v>
+      </c>
+      <c r="AB106">
+        <v>1274745906</v>
+      </c>
+      <c r="AC106">
+        <v>40.1</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107">
@@ -5751,6 +9885,45 @@
       <c r="P107">
         <v>354175941300</v>
       </c>
+      <c r="Q107">
+        <v>3251099440500</v>
+      </c>
+      <c r="R107">
+        <v>2896923499200</v>
+      </c>
+      <c r="S107">
+        <v>199059800</v>
+      </c>
+      <c r="T107">
+        <v>188423900</v>
+      </c>
+      <c r="U107">
+        <v>29945622829.3</v>
+      </c>
+      <c r="V107">
+        <v>28670876923.3</v>
+      </c>
+      <c r="W107">
+        <v>61802357150</v>
+      </c>
+      <c r="X107">
+        <v>3889923.3</v>
+      </c>
+      <c r="Y107">
+        <v>1837842.2</v>
+      </c>
+      <c r="Z107">
+        <v>1852043.1</v>
+      </c>
+      <c r="AA107">
+        <v>-14200.9</v>
+      </c>
+      <c r="AB107">
+        <v>1274745906</v>
+      </c>
+      <c r="AC107">
+        <v>12.4</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108">
@@ -5801,6 +9974,45 @@
       <c r="P108">
         <v>304526303200</v>
       </c>
+      <c r="Q108">
+        <v>3279318881100</v>
+      </c>
+      <c r="R108">
+        <v>2974792577900</v>
+      </c>
+      <c r="S108">
+        <v>201019600</v>
+      </c>
+      <c r="T108">
+        <v>194167900</v>
+      </c>
+      <c r="U108">
+        <v>29945622829.3</v>
+      </c>
+      <c r="V108">
+        <v>28670876923.3</v>
+      </c>
+      <c r="W108">
+        <v>61802357150</v>
+      </c>
+      <c r="X108">
+        <v>3889923.3</v>
+      </c>
+      <c r="Y108">
+        <v>1837842.2</v>
+      </c>
+      <c r="Z108">
+        <v>1852043.1</v>
+      </c>
+      <c r="AA108">
+        <v>-14200.9</v>
+      </c>
+      <c r="AB108">
+        <v>1274745906</v>
+      </c>
+      <c r="AC108">
+        <v>38.9</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109">
@@ -5851,6 +10063,45 @@
       <c r="P109">
         <v>250134827400</v>
       </c>
+      <c r="Q109">
+        <v>3303435552000</v>
+      </c>
+      <c r="R109">
+        <v>3053300724600</v>
+      </c>
+      <c r="S109">
+        <v>202520100</v>
+      </c>
+      <c r="T109">
+        <v>198828000</v>
+      </c>
+      <c r="U109">
+        <v>29945622829.3</v>
+      </c>
+      <c r="V109">
+        <v>28670876923.3</v>
+      </c>
+      <c r="W109">
+        <v>61802357150</v>
+      </c>
+      <c r="X109">
+        <v>3889923.3</v>
+      </c>
+      <c r="Y109">
+        <v>1837842.2</v>
+      </c>
+      <c r="Z109">
+        <v>1852043.1</v>
+      </c>
+      <c r="AA109">
+        <v>-14200.9</v>
+      </c>
+      <c r="AB109">
+        <v>1274745906</v>
+      </c>
+      <c r="AC109">
+        <v>42.7</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110">
@@ -5901,6 +10152,45 @@
       <c r="P110">
         <v>209163951100</v>
       </c>
+      <c r="Q110">
+        <v>3330556862800</v>
+      </c>
+      <c r="R110">
+        <v>3121392911700</v>
+      </c>
+      <c r="S110">
+        <v>203986000</v>
+      </c>
+      <c r="T110">
+        <v>202616700</v>
+      </c>
+      <c r="U110">
+        <v>29945622829.3</v>
+      </c>
+      <c r="V110">
+        <v>28670876923.3</v>
+      </c>
+      <c r="W110">
+        <v>61802357150</v>
+      </c>
+      <c r="X110">
+        <v>3889923.3</v>
+      </c>
+      <c r="Y110">
+        <v>1837842.2</v>
+      </c>
+      <c r="Z110">
+        <v>1852043.1</v>
+      </c>
+      <c r="AA110">
+        <v>-14200.9</v>
+      </c>
+      <c r="AB110">
+        <v>1274745906</v>
+      </c>
+      <c r="AC110">
+        <v>32.1</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111">
@@ -5951,6 +10241,45 @@
       <c r="P111">
         <v>190343901800</v>
       </c>
+      <c r="Q111">
+        <v>3359090913000</v>
+      </c>
+      <c r="R111">
+        <v>3168747011200</v>
+      </c>
+      <c r="S111">
+        <v>205676600</v>
+      </c>
+      <c r="T111">
+        <v>205293000</v>
+      </c>
+      <c r="U111">
+        <v>29945622829.3</v>
+      </c>
+      <c r="V111">
+        <v>28670876923.3</v>
+      </c>
+      <c r="W111">
+        <v>61802357150</v>
+      </c>
+      <c r="X111">
+        <v>3889923.3</v>
+      </c>
+      <c r="Y111">
+        <v>1837842.2</v>
+      </c>
+      <c r="Z111">
+        <v>1852043.1</v>
+      </c>
+      <c r="AA111">
+        <v>-14200.9</v>
+      </c>
+      <c r="AB111">
+        <v>1274745906</v>
+      </c>
+      <c r="AC111">
+        <v>14.8</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112">
@@ -6001,6 +10330,45 @@
       <c r="P112">
         <v>171628102900</v>
       </c>
+      <c r="Q112">
+        <v>3379840674800</v>
+      </c>
+      <c r="R112">
+        <v>3208212571900</v>
+      </c>
+      <c r="S112">
+        <v>207098300</v>
+      </c>
+      <c r="T112">
+        <v>207594300</v>
+      </c>
+      <c r="U112">
+        <v>29945622829.3</v>
+      </c>
+      <c r="V112">
+        <v>28670876923.3</v>
+      </c>
+      <c r="W112">
+        <v>61802357150</v>
+      </c>
+      <c r="X112">
+        <v>3889923.3</v>
+      </c>
+      <c r="Y112">
+        <v>1837842.2</v>
+      </c>
+      <c r="Z112">
+        <v>1852043.1</v>
+      </c>
+      <c r="AA112">
+        <v>-14200.9</v>
+      </c>
+      <c r="AB112">
+        <v>1274745906</v>
+      </c>
+      <c r="AC112">
+        <v>14.7</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113">
@@ -6051,6 +10419,45 @@
       <c r="P113">
         <v>171263541500</v>
       </c>
+      <c r="Q113">
+        <v>3409326743100</v>
+      </c>
+      <c r="R113">
+        <v>3238063201600</v>
+      </c>
+      <c r="S113">
+        <v>208883600</v>
+      </c>
+      <c r="T113">
+        <v>209605700</v>
+      </c>
+      <c r="U113">
+        <v>29945622829.3</v>
+      </c>
+      <c r="V113">
+        <v>28670876923.3</v>
+      </c>
+      <c r="W113">
+        <v>61802357150</v>
+      </c>
+      <c r="X113">
+        <v>3889923.3</v>
+      </c>
+      <c r="Y113">
+        <v>1837842.2</v>
+      </c>
+      <c r="Z113">
+        <v>1852043.1</v>
+      </c>
+      <c r="AA113">
+        <v>-14200.9</v>
+      </c>
+      <c r="AB113">
+        <v>1274745906</v>
+      </c>
+      <c r="AC113">
+        <v>0.3</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114">
@@ -6101,6 +10508,45 @@
       <c r="P114">
         <v>155984269000</v>
       </c>
+      <c r="Q114">
+        <v>3433176535500</v>
+      </c>
+      <c r="R114">
+        <v>3277192266500</v>
+      </c>
+      <c r="S114">
+        <v>210472500</v>
+      </c>
+      <c r="T114">
+        <v>211603900</v>
+      </c>
+      <c r="U114">
+        <v>29945622829.3</v>
+      </c>
+      <c r="V114">
+        <v>28670876923.3</v>
+      </c>
+      <c r="W114">
+        <v>61802357150</v>
+      </c>
+      <c r="X114">
+        <v>3889923.3</v>
+      </c>
+      <c r="Y114">
+        <v>1837842.2</v>
+      </c>
+      <c r="Z114">
+        <v>1852043.1</v>
+      </c>
+      <c r="AA114">
+        <v>-14200.9</v>
+      </c>
+      <c r="AB114">
+        <v>1274745906</v>
+      </c>
+      <c r="AC114">
+        <v>12</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115">
@@ -6151,6 +10597,45 @@
       <c r="P115">
         <v>145837205400</v>
       </c>
+      <c r="Q115">
+        <v>3469531415800</v>
+      </c>
+      <c r="R115">
+        <v>3323694210400</v>
+      </c>
+      <c r="S115">
+        <v>212884200</v>
+      </c>
+      <c r="T115">
+        <v>214327400</v>
+      </c>
+      <c r="U115">
+        <v>29945622829.3</v>
+      </c>
+      <c r="V115">
+        <v>28670876923.3</v>
+      </c>
+      <c r="W115">
+        <v>61802357150</v>
+      </c>
+      <c r="X115">
+        <v>3889923.3</v>
+      </c>
+      <c r="Y115">
+        <v>1837842.2</v>
+      </c>
+      <c r="Z115">
+        <v>1852043.1</v>
+      </c>
+      <c r="AA115">
+        <v>-14200.9</v>
+      </c>
+      <c r="AB115">
+        <v>1274745906</v>
+      </c>
+      <c r="AC115">
+        <v>8</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116">
@@ -6201,6 +10686,45 @@
       <c r="P116">
         <v>145839911400</v>
       </c>
+      <c r="Q116">
+        <v>3469566911800</v>
+      </c>
+      <c r="R116">
+        <v>3323727000400</v>
+      </c>
+      <c r="S116">
+        <v>212888600</v>
+      </c>
+      <c r="T116">
+        <v>214330800</v>
+      </c>
+      <c r="U116">
+        <v>29945622829.3</v>
+      </c>
+      <c r="V116">
+        <v>28670876923.3</v>
+      </c>
+      <c r="W116">
+        <v>61802357150</v>
+      </c>
+      <c r="X116">
+        <v>3889923.3</v>
+      </c>
+      <c r="Y116">
+        <v>1837842.2</v>
+      </c>
+      <c r="Z116">
+        <v>1852043.1</v>
+      </c>
+      <c r="AA116">
+        <v>-14200.9</v>
+      </c>
+      <c r="AB116">
+        <v>1274745906</v>
+      </c>
+      <c r="AC116">
+        <v>0</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117">
@@ -6251,10 +10775,49 @@
       <c r="P117">
         <v>147870525100</v>
       </c>
+      <c r="Q117">
+        <v>3473692248200</v>
+      </c>
+      <c r="R117">
+        <v>3325821723100</v>
+      </c>
+      <c r="S117">
+        <v>213189700</v>
+      </c>
+      <c r="T117">
+        <v>214837000</v>
+      </c>
+      <c r="U117">
+        <v>29945622829.3</v>
+      </c>
+      <c r="V117">
+        <v>28670876923.3</v>
+      </c>
+      <c r="W117">
+        <v>61802357150</v>
+      </c>
+      <c r="X117">
+        <v>3889923.3</v>
+      </c>
+      <c r="Y117">
+        <v>1837842.2</v>
+      </c>
+      <c r="Z117">
+        <v>1852043.1</v>
+      </c>
+      <c r="AA117">
+        <v>-14200.9</v>
+      </c>
+      <c r="AB117">
+        <v>1274745906</v>
+      </c>
+      <c r="AC117">
+        <v>1.6</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:P117"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:AC117"/>
   </ignoredErrors>
 </worksheet>
 </file>